--- a/data/templates/GEPXXXXX.xlsx
+++ b/data/templates/GEPXXXXX.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29140" windowHeight="18340" tabRatio="736"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29140" windowHeight="20380" tabRatio="736"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="10" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="172">
   <si>
     <t>geid</t>
   </si>
@@ -199,9 +199,6 @@
   </si>
   <si>
     <t>genome</t>
-  </si>
-  <si>
-    <t>Homo sapiens [GRCh37]</t>
   </si>
   <si>
     <t>Homo sapiens [GRCh38]</t>
@@ -912,10 +909,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="42" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="41" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="42" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1200,24 +1197,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1227,77 +1206,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color auto="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
@@ -1357,6 +1266,24 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1366,7 +1293,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
+        <sz val="12"/>
         <color auto="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
@@ -1391,6 +1318,41 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1401,6 +1363,41 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
         <color auto="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
@@ -1432,8 +1429,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:C13" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="Sheet name" dataDxfId="23"/>
-    <tableColumn id="2" name="Column names" dataDxfId="18"/>
-    <tableColumn id="3" name="Description" dataDxfId="17"/>
+    <tableColumn id="2" name="Column names" dataDxfId="22"/>
+    <tableColumn id="3" name="Description" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1442,9 +1439,9 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A14:C24" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Sheet name" dataDxfId="22"/>
-    <tableColumn id="2" name="Column names" dataDxfId="16"/>
-    <tableColumn id="3" name="Description" dataDxfId="15"/>
+    <tableColumn id="1" name="Sheet name" dataDxfId="20"/>
+    <tableColumn id="2" name="Column names" dataDxfId="19"/>
+    <tableColumn id="3" name="Description" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1453,9 +1450,9 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A25:C33" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Sheet name" dataDxfId="21"/>
-    <tableColumn id="2" name="Column names" dataDxfId="14"/>
-    <tableColumn id="3" name="Description" dataDxfId="13"/>
+    <tableColumn id="1" name="Sheet name" dataDxfId="17"/>
+    <tableColumn id="2" name="Column names" dataDxfId="16"/>
+    <tableColumn id="3" name="Description" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1464,9 +1461,9 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A34:C39" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Sheet name" dataDxfId="20"/>
-    <tableColumn id="2" name="Column names" dataDxfId="12"/>
-    <tableColumn id="3" name="Description" dataDxfId="11"/>
+    <tableColumn id="1" name="Sheet name" dataDxfId="14"/>
+    <tableColumn id="2" name="Column names" dataDxfId="13"/>
+    <tableColumn id="3" name="Description" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1475,7 +1472,7 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A40:C58" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Sheet name" dataDxfId="19"/>
+    <tableColumn id="1" name="Sheet name" dataDxfId="11"/>
     <tableColumn id="2" name="Column names" dataDxfId="10"/>
     <tableColumn id="3" name="Description" dataDxfId="9"/>
   </tableColumns>
@@ -1853,36 +1850,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23" thickBot="1">
-      <c r="A1" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="A1" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" ht="21" thickTop="1" thickBot="1">
-      <c r="A2" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="A2" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="18" thickTop="1">
       <c r="A3" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>117</v>
-      </c>
       <c r="C3" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1890,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1898,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1906,7 +1903,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1914,7 +1911,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1922,7 +1919,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1930,7 +1927,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1938,7 +1935,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1946,7 +1943,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1954,26 +1951,26 @@
         <v>8</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>117</v>
-      </c>
       <c r="C14" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1981,7 +1978,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1989,7 +1986,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1997,7 +1994,7 @@
         <v>55</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2005,7 +2002,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2013,7 +2010,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2021,7 +2018,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2029,7 +2026,7 @@
         <v>13</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2037,7 +2034,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2045,26 +2042,26 @@
         <v>8</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>117</v>
-      </c>
       <c r="C25" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2072,7 +2069,7 @@
         <v>15</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2080,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2088,7 +2085,7 @@
         <v>16</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2096,7 +2093,7 @@
         <v>17</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2104,7 +2101,7 @@
         <v>18</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2112,7 +2109,7 @@
         <v>19</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2120,26 +2117,26 @@
         <v>20</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>117</v>
-      </c>
       <c r="C34" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2147,7 +2144,7 @@
         <v>21</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2155,7 +2152,7 @@
         <v>22</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2163,7 +2160,7 @@
         <v>23</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2171,26 +2168,26 @@
         <v>24</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>117</v>
-      </c>
       <c r="C40" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2198,7 +2195,7 @@
         <v>21</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2206,7 +2203,7 @@
         <v>25</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2214,7 +2211,7 @@
         <v>26</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2222,7 +2219,7 @@
         <v>27</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2230,7 +2227,7 @@
         <v>28</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2238,7 +2235,7 @@
         <v>29</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2246,7 +2243,7 @@
         <v>30</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2254,7 +2251,7 @@
         <v>11</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2262,7 +2259,7 @@
         <v>31</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2270,7 +2267,7 @@
         <v>32</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2278,7 +2275,7 @@
         <v>33</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2286,7 +2283,7 @@
         <v>34</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2294,7 +2291,7 @@
         <v>35</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2302,7 +2299,7 @@
         <v>36</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2310,7 +2307,7 @@
         <v>37</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2318,7 +2315,7 @@
         <v>38</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2326,31 +2323,31 @@
         <v>8</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>117</v>
-      </c>
       <c r="C59" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="C61" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2358,7 +2355,7 @@
         <v>9</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2366,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2374,7 +2371,7 @@
         <v>39</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2382,7 +2379,7 @@
         <v>40</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2390,7 +2387,7 @@
         <v>41</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2398,7 +2395,7 @@
         <v>42</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2406,7 +2403,7 @@
         <v>21</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2414,7 +2411,7 @@
         <v>43</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2422,7 +2419,7 @@
         <v>44</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2430,73 +2427,73 @@
         <v>45</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="B72" s="6"/>
       <c r="C72" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="B73" s="6"/>
       <c r="C73" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="B74" s="6"/>
       <c r="C74" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="B75" s="6"/>
       <c r="C75" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="B76" s="6"/>
       <c r="C76" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="B77" s="6"/>
       <c r="C77" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="B78" s="6"/>
       <c r="C78" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>117</v>
-      </c>
       <c r="C79" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="C81" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2504,7 +2501,7 @@
         <v>46</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2512,7 +2509,7 @@
         <v>47</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2520,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2528,26 +2525,26 @@
         <v>8</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B86" s="5" t="s">
-        <v>117</v>
-      </c>
       <c r="C86" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2555,7 +2552,7 @@
         <v>46</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2563,7 +2560,7 @@
         <v>39</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2571,7 +2568,7 @@
         <v>48</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2579,7 +2576,7 @@
         <v>49</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2587,7 +2584,7 @@
         <v>50</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2595,7 +2592,7 @@
         <v>51</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2603,7 +2600,7 @@
         <v>52</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2664,7 +2661,7 @@
         <v>30</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>40</v>
@@ -2687,25 +2684,25 @@
         <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2713,65 +2710,62 @@
         <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s">
         <v>54</v>
       </c>
       <c r="H3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="B4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="F5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="G6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="G7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="G8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2924,7 +2918,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Menus!$B$2:$B$4</xm:f>
+            <xm:f>Menus!$B$2:$B$3</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>

--- a/data/templates/GEPXXXXX.xlsx
+++ b/data/templates/GEPXXXXX.xlsx
@@ -18,7 +18,7 @@
     <sheet name="SequencingLibrary" sheetId="8" r:id="rId9"/>
     <sheet name="Menus" sheetId="9" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="173">
   <si>
     <t>geid</t>
   </si>
@@ -716,6 +716,9 @@
       </rPr>
       <t>ExperimentLayout@geid</t>
     </r>
+  </si>
+  <si>
+    <t>HUES9</t>
   </si>
 </sst>
 </file>
@@ -2633,7 +2636,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
@@ -2754,6 +2759,9 @@
       </c>
     </row>
     <row r="6" spans="1:9">
+      <c r="F6" t="s">
+        <v>172</v>
+      </c>
       <c r="G6" t="s">
         <v>67</v>
       </c>
@@ -3239,7 +3247,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Menus!$F$2:$F$5</xm:f>
+            <xm:f>Menus!$F$2:$F$6</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D1048576</xm:sqref>
         </x14:dataValidation>

--- a/data/templates/GEPXXXXX.xlsx
+++ b/data/templates/GEPXXXXX.xlsx
@@ -8,15 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="10" r:id="rId1"/>
-    <sheet name="Project" sheetId="1" r:id="rId2"/>
-    <sheet name="Target" sheetId="2" r:id="rId3"/>
-    <sheet name="Guide" sheetId="3" r:id="rId4"/>
-    <sheet name="GuideMismatches" sheetId="4" r:id="rId5"/>
-    <sheet name="AmpliconSelection" sheetId="5" r:id="rId6"/>
-    <sheet name="ExperimentLayout" sheetId="6" r:id="rId7"/>
-    <sheet name="Plate" sheetId="7" r:id="rId8"/>
-    <sheet name="SequencingLibrary" sheetId="8" r:id="rId9"/>
-    <sheet name="Menus" sheetId="9" r:id="rId10"/>
+    <sheet name="Target" sheetId="2" r:id="rId2"/>
+    <sheet name="Guide" sheetId="3" r:id="rId3"/>
+    <sheet name="GuideMismatches" sheetId="4" r:id="rId4"/>
+    <sheet name="AmpliconSelection" sheetId="5" r:id="rId5"/>
+    <sheet name="ExperimentLayout" sheetId="6" r:id="rId6"/>
+    <sheet name="Plate" sheetId="7" r:id="rId7"/>
+    <sheet name="SequencingLibrary" sheetId="8" r:id="rId8"/>
+    <sheet name="Menus" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="152">
   <si>
     <t>geid</t>
   </si>
@@ -39,30 +38,9 @@
     <t>name</t>
   </si>
   <si>
-    <t>scientist</t>
-  </si>
-  <si>
-    <t>affiliation</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>group_leader</t>
-  </si>
-  <si>
-    <t>start_date</t>
-  </si>
-  <si>
-    <t>project_type</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
-    <t>project_geid</t>
-  </si>
-  <si>
     <t>gene_id</t>
   </si>
   <si>
@@ -192,9 +170,6 @@
     <t>sequencing_sample_name</t>
   </si>
   <si>
-    <t>knock-in</t>
-  </si>
-  <si>
     <t>knock-out</t>
   </si>
   <si>
@@ -273,9 +248,6 @@
     <t>A549</t>
   </si>
   <si>
-    <t>Project</t>
-  </si>
-  <si>
     <t>Target</t>
   </si>
   <si>
@@ -295,50 +267,6 @@
   </si>
   <si>
     <t>SequencingLibrary</t>
-  </si>
-  <si>
-    <t>Unique ID for the project, in the format GEP-5digits (e.g. GEP00001)</t>
-  </si>
-  <si>
-    <t>Project name (e.g. STAT3_KO)</t>
-  </si>
-  <si>
-    <t>Name of the scientist submitting the job (e.g. 'Mary', who asks to make a KO line in STAT3)</t>
-  </si>
-  <si>
-    <t>Affiliation of the scientist</t>
-  </si>
-  <si>
-    <t>Group the scientist belongs to</t>
-  </si>
-  <si>
-    <t>Group leader in charge of the scientist</t>
-  </si>
-  <si>
-    <t>Date the project is submitted to Genome Editing</t>
-  </si>
-  <si>
-    <t>Brief description of the goals of the project</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Project</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> corresponds to a purchase code. Therefore one scientist can have several projects in an interval of time, all costed independently. Filling all fields is required.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -385,9 +313,6 @@
     <t>Strand location of the Target in the assembly either "forward" or "reverse"</t>
   </si>
   <si>
-    <t>The type of projecteither "knock-in" or "knock-out"</t>
-  </si>
-  <si>
     <t>Brief description of the Target</t>
   </si>
   <si>
@@ -647,23 +572,7 @@
     <t>The sample name assigned at the time of submission, in the format experiment_layout_geid_well_position: this must be 'one sample name per well', as per requirement of the Sequencing bioinformatics pipeline</t>
   </si>
   <si>
-    <t>Documentation for submitting new project to the Genome Editing Core App @ http://bioinf-ge001.cri.camres.org:8080/</t>
-  </si>
-  <si>
     <t>Genome Editing Core - Submission Form</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This ID must match </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Project@geid</t>
-    </r>
   </si>
   <si>
     <r>
@@ -693,19 +602,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">This must match </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Project@geid</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">This ID must match </t>
     </r>
     <r>
@@ -719,6 +615,9 @@
   </si>
   <si>
     <t>HUES9</t>
+  </si>
+  <si>
+    <t>Documentation for submitting new project's data to the Genome Editing Core App @ http://bioinf-ge001.cri.camres.org:8080/</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +905,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="41" builtinId="15"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="21">
     <dxf>
       <font>
         <b val="0"/>
@@ -1371,76 +1270,13 @@
         <scheme val="none"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:C13" totalsRowShown="0">
-  <tableColumns count="3">
-    <tableColumn id="1" name="Sheet name" dataDxfId="23"/>
-    <tableColumn id="2" name="Column names" dataDxfId="22"/>
-    <tableColumn id="3" name="Description" dataDxfId="21"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A14:C24" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:C12" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="Sheet name" dataDxfId="20"/>
     <tableColumn id="2" name="Column names" dataDxfId="19"/>
@@ -1450,8 +1286,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A25:C33" totalsRowShown="0">
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A13:C21" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="Sheet name" dataDxfId="17"/>
     <tableColumn id="2" name="Column names" dataDxfId="16"/>
@@ -1461,8 +1297,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A34:C39" totalsRowShown="0">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A22:C27" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="Sheet name" dataDxfId="14"/>
     <tableColumn id="2" name="Column names" dataDxfId="13"/>
@@ -1472,8 +1308,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A40:C58" totalsRowShown="0">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A28:C46" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="Sheet name" dataDxfId="11"/>
     <tableColumn id="2" name="Column names" dataDxfId="10"/>
@@ -1483,8 +1319,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A59:C78" totalsRowShown="0">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A47:C65" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="Sheet name" dataDxfId="8"/>
     <tableColumn id="2" name="Column names" dataDxfId="7"/>
@@ -1494,8 +1330,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A79:C85" totalsRowShown="0">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A66:C72" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="Sheet name" dataDxfId="5"/>
     <tableColumn id="2" name="Column names" dataDxfId="4"/>
@@ -1505,8 +1341,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A86:C94" totalsRowShown="0">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A73:C81" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="Sheet name" dataDxfId="2"/>
     <tableColumn id="2" name="Column names" dataDxfId="1"/>
@@ -1838,10 +1674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -1854,249 +1690,252 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23" thickBot="1">
       <c r="A1" s="9" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" ht="21" thickTop="1" thickBot="1">
       <c r="A2" s="10" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="18" thickTop="1">
       <c r="A3" s="4" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="6" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" s="6" t="s">
-        <v>8</v>
+      <c r="A13" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="4" t="s">
-        <v>81</v>
+      <c r="B15" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>167</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" s="6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="B18" s="6" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="B22" s="6" t="s">
-        <v>13</v>
+      <c r="A22" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="B23" s="6" t="s">
-        <v>14</v>
+      <c r="A23" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="B24" s="6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>116</v>
+      <c r="B25" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="4" t="s">
-        <v>82</v>
+      <c r="B26" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>168</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="B28" s="6" t="s">
-        <v>1</v>
+      <c r="A28" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="B29" s="6" t="s">
-        <v>16</v>
+      <c r="A29" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="B30" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2104,7 +1943,7 @@
         <v>18</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2112,7 +1951,7 @@
         <v>19</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2120,490 +1959,380 @@
         <v>20</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>116</v>
+      <c r="B34" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="4" t="s">
-        <v>83</v>
+      <c r="B35" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="B36" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="B37" s="6" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="B38" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="B39" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>116</v>
+      <c r="B40" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="4" t="s">
-        <v>84</v>
+      <c r="B41" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="B42" s="6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>169</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="B43" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="B44" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="B45" s="6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="B46" s="6" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="B47" s="6" t="s">
-        <v>29</v>
+      <c r="A47" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="B48" s="6" t="s">
-        <v>30</v>
+      <c r="A48" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="B49" s="6" t="s">
-        <v>11</v>
-      </c>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
       <c r="C49" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
       <c r="B50" s="6" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
       <c r="B51" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
       <c r="B52" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
       <c r="B53" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
       <c r="B54" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C54" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" s="6"/>
+      <c r="C59" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60" s="6"/>
+      <c r="C60" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="B55" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C55" s="7" t="s">
+    <row r="61" spans="2:3">
+      <c r="B61" s="6"/>
+      <c r="C61" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" s="6"/>
+      <c r="C62" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63" s="6"/>
+      <c r="C63" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" s="6"/>
+      <c r="C64" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="B56" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="B57" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="B58" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="7" t="s">
+    <row r="65" spans="1:3">
+      <c r="B65" s="6"/>
+      <c r="C65" s="8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C60" s="7" t="s">
+    <row r="66" spans="1:3">
+      <c r="A66" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" s="7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="C61" s="7" t="s">
+    <row r="68" spans="1:3">
+      <c r="C68" s="7" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="B62" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="B63" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="B64" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="B65" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="B66" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="B67" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="B68" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="B69" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="B70" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="B71" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="B72" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="B75" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="B76" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="B77" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="B78" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="B79" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="B80" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C81" s="7" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="B72" s="6"/>
-      <c r="C72" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="B73" s="6"/>
-      <c r="C73" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="B74" s="6"/>
-      <c r="C74" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="B75" s="6"/>
-      <c r="C75" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="B76" s="6"/>
-      <c r="C76" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="B77" s="6"/>
-      <c r="C77" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="B78" s="6"/>
-      <c r="C78" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="C81" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="B82" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="B83" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="B84" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="B85" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="B88" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="B89" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="B90" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="B91" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="B92" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="B93" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="B94" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2614,7 +2343,7 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <tableParts count="8">
+  <tableParts count="7">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -2622,167 +2351,7 @@
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
-    <tablePart r:id="rId8"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="17">
-      <c r="A1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="D4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="F5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="F6" t="s">
-        <v>172</v>
-      </c>
-      <c r="G6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="G7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="G8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="I12" s="3"/>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2793,7 +2362,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2801,111 +2370,36 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" customWidth="1"/>
-    <col min="9" max="9" width="33.83203125" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataConsolidate/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Menus!A2:A3</xm:f>
-          </x14:formula1>
-          <xm:sqref>H2:H1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="9" max="9" width="41.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2920,15 +2414,15 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Menus!$C$2:$C$3</xm:f>
+            <xm:f>Menus!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H1048576</xm:sqref>
+          <xm:sqref>G2:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Menus!$B$2:$B$3</xm:f>
+            <xm:f>Menus!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
+          <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2939,7 +2433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
@@ -2957,25 +2451,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2993,7 +2487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -3011,16 +2505,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3035,7 +2529,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Menus!$E$2:$E$3</xm:f>
+            <xm:f>Menus!$D$2:$D$3</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
@@ -3048,7 +2542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1"/>
   <sheetViews>
@@ -3082,55 +2576,55 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3145,19 +2639,19 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Menus!$D$2:$D$4</xm:f>
+            <xm:f>Menus!$C$2:$C$4</xm:f>
           </x14:formula1>
           <xm:sqref>G2:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Menus!$C$2:$C$3</xm:f>
+            <xm:f>Menus!$B$2:$B$3</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Menus!$E$2:$E$3</xm:f>
+            <xm:f>Menus!$D$2:$D$3</xm:f>
           </x14:formula1>
           <xm:sqref>F2:F1048576</xm:sqref>
         </x14:dataValidation>
@@ -3170,9 +2664,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -3180,47 +2674,43 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" customWidth="1"/>
-    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" customWidth="1"/>
+    <col min="9" max="9" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3235,21 +2725,21 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Menus!$E$2:$E$3</xm:f>
+            <xm:f>Menus!$D$2:$D$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Menus!$F$2:$F$8</xm:f>
           </x14:formula1>
           <xm:sqref>I2:I1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Menus!$G$2:$G$8</xm:f>
+            <xm:f>Menus!$E$2:$E$6</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Menus!$F$2:$F$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D1048576</xm:sqref>
+          <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3260,7 +2750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -3278,16 +2768,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3305,7 +2795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
@@ -3324,25 +2814,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3357,13 +2847,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Menus!$H$2:$H$4</xm:f>
+            <xm:f>Menus!$G$2:$G$4</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Menus!$I$2</xm:f>
+            <xm:f>Menus!$H$2</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E1048576</xm:sqref>
         </x14:dataValidation>
@@ -3374,4 +2864,153 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="17">
+      <c r="A1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="E5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="E6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="H12" s="3"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/data/templates/GEPXXXXX.xlsx
+++ b/data/templates/GEPXXXXX.xlsx
@@ -17,7 +17,7 @@
     <sheet name="SequencingLibrary" sheetId="8" r:id="rId8"/>
     <sheet name="Menus" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="155">
   <si>
     <t>geid</t>
   </si>
@@ -618,6 +618,15 @@
   </si>
   <si>
     <t>Documentation for submitting new project's data to the Genome Editing Core App @ http://bioinf-ge001.cri.camres.org:8080/</t>
+  </si>
+  <si>
+    <t>ZRTamR</t>
+  </si>
+  <si>
+    <t>ZRTamS</t>
+  </si>
+  <si>
+    <t>HEK293T</t>
   </si>
 </sst>
 </file>
@@ -714,7 +723,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="85">
+  <cellStyleXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -758,6 +767,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -818,7 +829,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="85">
+  <cellStyles count="87">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -860,6 +871,7 @@
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="42" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -902,6 +914,7 @@
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="41" builtinId="15"/>
   </cellStyles>
@@ -2669,7 +2682,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2737,7 +2750,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Menus!$E$2:$E$6</xm:f>
+            <xm:f>Menus!$E$2:$E$9</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>
@@ -2871,7 +2884,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2991,13 +3004,24 @@
       </c>
     </row>
     <row r="7" spans="1:8">
+      <c r="E7" t="s">
+        <v>152</v>
+      </c>
       <c r="F7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:8">
+      <c r="E8" t="s">
+        <v>153</v>
+      </c>
       <c r="F8" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="E9" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:8">

--- a/data/templates/GEPXXXXX.xlsx
+++ b/data/templates/GEPXXXXX.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="156">
   <si>
     <t>geid</t>
   </si>
@@ -627,6 +627,9 @@
   </si>
   <si>
     <t>HEK293T</t>
+  </si>
+  <si>
+    <t>water</t>
   </si>
 </sst>
 </file>
@@ -2813,7 +2816,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2860,15 +2863,15 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Menus!$G$2:$G$4</xm:f>
+            <xm:f>Menus!$H$2</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
+          <xm:sqref>E2:E1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Menus!$H$2</xm:f>
+            <xm:f>Menus!$G$2:$G$5</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E1048576</xm:sqref>
+          <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2884,7 +2887,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2994,6 +2997,9 @@
       <c r="F5" t="s">
         <v>58</v>
       </c>
+      <c r="G5" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="E6" t="s">

--- a/data/templates/GEPXXXXX.xlsx
+++ b/data/templates/GEPXXXXX.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29140" windowHeight="20380" tabRatio="736"/>
+    <workbookView xWindow="35880" yWindow="0" windowWidth="29140" windowHeight="20380" tabRatio="736"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="10" r:id="rId1"/>
@@ -304,9 +304,6 @@
     <t>Start location of the Target in the assembly</t>
   </si>
   <si>
-    <t>Target ID in the assembly, e.g. 'NC_000017.10'</t>
-  </si>
-  <si>
     <t>End location of the Target in the assembly</t>
   </si>
   <si>
@@ -630,6 +627,9 @@
   </si>
   <si>
     <t>water</t>
+  </si>
+  <si>
+    <t>Ensembl Gene ID must starts with ENSG, e.g. 'ENSG00000168610'</t>
   </si>
 </sst>
 </file>
@@ -1693,7 +1693,7 @@
   <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -1706,24 +1706,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23" thickBot="1">
       <c r="A1" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" ht="21" thickTop="1" thickBot="1">
       <c r="A2" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="18" thickTop="1">
       <c r="A3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>80</v>
@@ -1758,7 +1758,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1782,7 +1782,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1790,7 +1790,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1798,15 +1798,15 @@
         <v>2</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>80</v>
@@ -1817,7 +1817,7 @@
         <v>73</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1825,7 +1825,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1833,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1841,7 +1841,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1849,7 +1849,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1857,7 +1857,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1865,7 +1865,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1873,15 +1873,15 @@
         <v>13</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>80</v>
@@ -1892,7 +1892,7 @@
         <v>74</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1900,7 +1900,7 @@
         <v>14</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1908,7 +1908,7 @@
         <v>15</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1916,7 +1916,7 @@
         <v>16</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1924,15 +1924,15 @@
         <v>17</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>80</v>
@@ -1943,7 +1943,7 @@
         <v>75</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1951,7 +1951,7 @@
         <v>14</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1959,7 +1959,7 @@
         <v>18</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1967,7 +1967,7 @@
         <v>19</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1975,7 +1975,7 @@
         <v>20</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1983,7 +1983,7 @@
         <v>21</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1991,7 +1991,7 @@
         <v>22</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1999,7 +1999,7 @@
         <v>23</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2007,7 +2007,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2015,7 +2015,7 @@
         <v>24</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2023,7 +2023,7 @@
         <v>25</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2031,7 +2031,7 @@
         <v>26</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2039,7 +2039,7 @@
         <v>27</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2047,7 +2047,7 @@
         <v>28</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2055,7 +2055,7 @@
         <v>29</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2063,7 +2063,7 @@
         <v>30</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2071,7 +2071,7 @@
         <v>31</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2079,15 +2079,15 @@
         <v>2</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>80</v>
@@ -2098,12 +2098,12 @@
         <v>76</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="C49" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="2:3">
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="2:3">
@@ -2119,7 +2119,7 @@
         <v>32</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="2:3">
@@ -2127,7 +2127,7 @@
         <v>33</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="2:3">
@@ -2135,7 +2135,7 @@
         <v>34</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="2:3">
@@ -2143,7 +2143,7 @@
         <v>35</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="2:3">
@@ -2151,7 +2151,7 @@
         <v>14</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="2:3">
@@ -2159,7 +2159,7 @@
         <v>36</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="2:3">
@@ -2167,7 +2167,7 @@
         <v>37</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="2:3">
@@ -2175,57 +2175,57 @@
         <v>38</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" s="6"/>
       <c r="C59" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" s="6"/>
       <c r="C60" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" s="6"/>
       <c r="C61" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="2:3">
       <c r="B62" s="6"/>
       <c r="C62" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="B63" s="6"/>
       <c r="C63" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="2:3">
       <c r="B64" s="6"/>
       <c r="C64" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="B65" s="6"/>
       <c r="C65" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>80</v>
@@ -2236,12 +2236,12 @@
         <v>77</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="C68" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2249,7 +2249,7 @@
         <v>39</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2257,7 +2257,7 @@
         <v>40</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2273,15 +2273,15 @@
         <v>2</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>80</v>
@@ -2292,7 +2292,7 @@
         <v>78</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2300,7 +2300,7 @@
         <v>39</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2308,7 +2308,7 @@
         <v>32</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2316,7 +2316,7 @@
         <v>41</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2324,7 +2324,7 @@
         <v>42</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2332,7 +2332,7 @@
         <v>43</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2340,7 +2340,7 @@
         <v>44</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="2:3">
@@ -2348,7 +2348,7 @@
         <v>45</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2563,7 +2563,7 @@
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2998,12 +2998,12 @@
         <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="E6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F6" t="s">
         <v>59</v>
@@ -3011,7 +3011,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="E7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F7" t="s">
         <v>60</v>
@@ -3019,7 +3019,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="E8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F8" t="s">
         <v>61</v>
@@ -3027,7 +3027,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="E9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:8">

--- a/data/templates/GEPXXXXX.xlsx
+++ b/data/templates/GEPXXXXX.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="35880" yWindow="0" windowWidth="29140" windowHeight="20380" tabRatio="736"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="736"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="10" r:id="rId1"/>
@@ -569,9 +569,6 @@
     <t>The sample name assigned at the time of submission, in the format experiment_layout_geid_well_position: this must be 'one sample name per well', as per requirement of the Sequencing bioinformatics pipeline</t>
   </si>
   <si>
-    <t>Genome Editing Core - Submission Form</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">This ID must match </t>
     </r>
@@ -614,9 +611,6 @@
     <t>HUES9</t>
   </si>
   <si>
-    <t>Documentation for submitting new project's data to the Genome Editing Core App @ http://bioinf-ge001.cri.camres.org:8080/</t>
-  </si>
-  <si>
     <t>ZRTamR</t>
   </si>
   <si>
@@ -630,6 +624,12 @@
   </si>
   <si>
     <t>Ensembl Gene ID must starts with ENSG, e.g. 'ENSG00000168610'</t>
+  </si>
+  <si>
+    <t>GenEditID - Submission Form</t>
+  </si>
+  <si>
+    <t>Documentation for submitting new project's data to the GenEditID Web App</t>
   </si>
 </sst>
 </file>
@@ -1693,7 +1693,7 @@
   <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -1706,14 +1706,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23" thickBot="1">
       <c r="A1" s="9" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" ht="21" thickTop="1" thickBot="1">
       <c r="A2" s="10" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1758,7 +1758,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1825,7 +1825,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1900,7 +1900,7 @@
         <v>14</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1951,7 +1951,7 @@
         <v>14</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2249,7 +2249,7 @@
         <v>39</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2300,7 +2300,7 @@
         <v>39</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2998,12 +2998,12 @@
         <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="E6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F6" t="s">
         <v>59</v>
@@ -3011,7 +3011,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="E7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F7" t="s">
         <v>60</v>
@@ -3019,7 +3019,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="E8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F8" t="s">
         <v>61</v>
@@ -3027,7 +3027,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="E9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:8">

--- a/data/templates/GEPXXXXX.xlsx
+++ b/data/templates/GEPXXXXX.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="736"/>
+    <workbookView xWindow="2460" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="736"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="10" r:id="rId1"/>
     <sheet name="Target" sheetId="2" r:id="rId2"/>
     <sheet name="Guide" sheetId="3" r:id="rId3"/>
-    <sheet name="GuideMismatches" sheetId="4" r:id="rId4"/>
-    <sheet name="AmpliconSelection" sheetId="5" r:id="rId5"/>
-    <sheet name="ExperimentLayout" sheetId="6" r:id="rId6"/>
-    <sheet name="Plate" sheetId="7" r:id="rId7"/>
-    <sheet name="SequencingLibrary" sheetId="8" r:id="rId8"/>
-    <sheet name="Menus" sheetId="9" r:id="rId9"/>
+    <sheet name="Amplicon" sheetId="5" r:id="rId4"/>
+    <sheet name="Layout" sheetId="6" r:id="rId5"/>
+    <sheet name="Plate" sheetId="7" r:id="rId6"/>
+    <sheet name="GuideMismatches" sheetId="4" r:id="rId7"/>
+    <sheet name="Menus" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -30,29 +29,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="156">
-  <si>
-    <t>geid</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="254">
   <si>
     <t>description</t>
   </si>
   <si>
-    <t>gene_id</t>
-  </si>
-  <si>
-    <t>chromosome</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
     <t>strand</t>
   </si>
   <si>
@@ -62,18 +43,6 @@
     <t>guide_sequence</t>
   </si>
   <si>
-    <t>pam_sequence</t>
-  </si>
-  <si>
-    <t>activity</t>
-  </si>
-  <si>
-    <t>exon</t>
-  </si>
-  <si>
-    <t>nuclease</t>
-  </si>
-  <si>
     <t>guide_name</t>
   </si>
   <si>
@@ -104,9 +73,6 @@
     <t>dna_feature</t>
   </si>
   <si>
-    <t>forward_primer_geid</t>
-  </si>
-  <si>
     <t>forward_primer_sequence</t>
   </si>
   <si>
@@ -116,9 +82,6 @@
     <t>forward_primer_end</t>
   </si>
   <si>
-    <t>reverse_primer_geid</t>
-  </si>
-  <si>
     <t>reverse_primer_sequence</t>
   </si>
   <si>
@@ -149,18 +112,12 @@
     <t>content_type</t>
   </si>
   <si>
-    <t>experiment_layout_geid</t>
-  </si>
-  <si>
     <t>plate_barcode</t>
   </si>
   <si>
     <t>dna_source</t>
   </si>
   <si>
-    <t>slxid</t>
-  </si>
-  <si>
     <t>library_type</t>
   </si>
   <si>
@@ -257,16 +214,37 @@
     <t>GuideMismatches</t>
   </si>
   <si>
-    <t>AmpliconSelection</t>
-  </si>
-  <si>
-    <t>ExperimentLayout</t>
-  </si>
-  <si>
     <t>Plate</t>
   </si>
   <si>
-    <t>SequencingLibrary</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Chromosome where the Target is located</t>
+  </si>
+  <si>
+    <t>Start location of the Target in the assembly</t>
+  </si>
+  <si>
+    <t>End location of the Target in the assembly</t>
+  </si>
+  <si>
+    <t>Strand location of the Target in the assembly either "forward" or "reverse"</t>
+  </si>
+  <si>
+    <t>Nucleotide sequence of the guide, e.g. GAGATTATGAAACACCAAAG</t>
+  </si>
+  <si>
+    <t>Column names</t>
+  </si>
+  <si>
+    <t>Metadata information about off targets, as provided by Deskgen</t>
+  </si>
+  <si>
+    <t>How many mismatches</t>
+  </si>
+  <si>
+    <t>How many offtargets that contain x number of mismatches</t>
   </si>
   <si>
     <r>
@@ -278,39 +256,103 @@
         <sz val="12"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>Target</t>
+      <t>Amplicon</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve"> refers to the gene or region to be edited. </t>
+      <t xml:space="preserve"> is the DNA sequence amplified in PCR by a primer pair. All sequences and sequence locations input here must be in the forward DNA strand (including guide, forward and reverse primers)</t>
     </r>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target name, e.g. the 'STAT3' gene. </t>
-  </si>
-  <si>
-    <t>Genome name e.g. Homo sapiens [GRCh38]</t>
-  </si>
-  <si>
-    <t>Chromosome where the Target is located</t>
-  </si>
-  <si>
-    <t>Start location of the Target in the assembly</t>
-  </si>
-  <si>
-    <t>End location of the Target in the assembly</t>
-  </si>
-  <si>
-    <t>Strand location of the Target in the assembly either "forward" or "reverse"</t>
-  </si>
-  <si>
-    <t>Brief description of the Target</t>
+    <t>knock-in or knock-out</t>
+  </si>
+  <si>
+    <t>Coordinate of the cut side of the guide</t>
+  </si>
+  <si>
+    <t>The DNA strand that contains the guide sequence, either forward or reverse</t>
+  </si>
+  <si>
+    <t>Chromosome where the amplicon is located, as a numeric value, e.g. 17</t>
+  </si>
+  <si>
+    <t>5' to 3' sequence of the primer in the forward DNA strand</t>
+  </si>
+  <si>
+    <t>Start location of the primer in the forward strand</t>
+  </si>
+  <si>
+    <t>End location of the primer in the forward strand</t>
+  </si>
+  <si>
+    <t>5' to 3' sequence of the primer in the *forward* DNA strand (i.e. reverse-complemented)</t>
+  </si>
+  <si>
+    <t>Well position in the format (A-H)(1-12), e.g. A1 and A12</t>
+  </si>
+  <si>
+    <t>Is the off target in a coding region? (TRUE/FALSE)</t>
+  </si>
+  <si>
+    <t>- empty: A well with no cells</t>
+  </si>
+  <si>
+    <t>- sample: A gene-edited, single-cell derived clone</t>
+  </si>
+  <si>
+    <t>- normalisation: A normalisation control for ICW, typically located at wells A1 and H12</t>
+  </si>
+  <si>
+    <t>- background: A background fluorescence control for ICW, typically a Western with neither primary nor secondary antibody</t>
+  </si>
+  <si>
+    <t>- knock-out: A knock-out control for ICW and perhaps also for NGS and IncuCyte data, typically a previously characterised KO clone, or the wild-type clone processed in a Western with no primary antibody (so any secondary antibody fluorescence is background, and the result is equivalent to not having any protein).</t>
+  </si>
+  <si>
+    <t>- wild-type: A wild-type control, typically the clone that has been used for gene-editing</t>
+  </si>
+  <si>
+    <t>- empty-vector: A control with vector that harbours neither guide nor Cas9</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This ID must match </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Guide@name</t>
+    </r>
+  </si>
+  <si>
+    <t>HUES9</t>
+  </si>
+  <si>
+    <t>ZRTamR</t>
+  </si>
+  <si>
+    <t>ZRTamS</t>
+  </si>
+  <si>
+    <t>HEK293T</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>Ensembl Gene ID must starts with ENSG, e.g. 'ENSG00000168610'</t>
+  </si>
+  <si>
+    <t>GenEditID - Submission Form</t>
+  </si>
+  <si>
+    <t>Documentation for submitting new project's data to the GenEditID Web App</t>
   </si>
   <si>
     <r>
@@ -319,51 +361,577 @@
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Target</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> refers to the gene or region to be edited. </t>
+    </r>
+  </si>
+  <si>
+    <t>Amplicon</t>
+  </si>
+  <si>
+    <t>Tab name</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>H12</t>
+  </si>
+  <si>
+    <t>plate_01</t>
+  </si>
+  <si>
+    <t>sequencing_dna_source</t>
+  </si>
+  <si>
+    <t>sequencing_project_id</t>
+  </si>
+  <si>
+    <t>sequencing_library_type</t>
+  </si>
+  <si>
+    <t>target_description</t>
+  </si>
+  <si>
+    <t>target_genome</t>
+  </si>
+  <si>
+    <t>target_chrom</t>
+  </si>
+  <si>
+    <t>target_start</t>
+  </si>
+  <si>
+    <t>target_end</t>
+  </si>
+  <si>
+    <t>target_strand</t>
+  </si>
+  <si>
+    <t>target_gene_id</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[optional]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Brief description of the Target</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[optional]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Exon targeted by the guide</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[optional]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Nuclease used for the editing, e.g. SpCas9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[optional]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Protospacer-adjacent motif (PAM) of the guide</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[optional]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Activity (%) of the guide as described in the Deskgen website, e.g. 73</t>
+    </r>
+  </si>
+  <si>
+    <t>guide_pam_sequence</t>
+  </si>
+  <si>
+    <t>guide_activity</t>
+  </si>
+  <si>
+    <t>guide_exon</t>
+  </si>
+  <si>
+    <t>guide_nuclease</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
         <rFont val="Arial"/>
       </rPr>
       <t>Guide</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> refers to the sgRNA used in the editing</t>
     </r>
   </si>
   <si>
-    <t>Name of the guide, in the format: Target@name.digit, e.g. STAT3.1</t>
-  </si>
-  <si>
-    <t>Nucleotide sequence of the guide, e.g. GAGATTATGAAACACCAAAG</t>
-  </si>
-  <si>
-    <t>Protospacer-adjacent motif (PAM) of the guide</t>
-  </si>
-  <si>
-    <t>Activity (%) of the guide as described in the Deskgen website, e.g. 73</t>
-  </si>
-  <si>
-    <t>Exon targeted by the guide (optional)</t>
-  </si>
-  <si>
-    <t>Nuclease used for the editing, e.g. SpCas9</t>
-  </si>
-  <si>
-    <t>Sheet name</t>
-  </si>
-  <si>
-    <t>Column names</t>
-  </si>
-  <si>
-    <t>Metadata information about off targets, as provided by Deskgen</t>
-  </si>
-  <si>
-    <t>How many mismatches</t>
-  </si>
-  <si>
-    <t>How many offtargets that contain x number of mismatches</t>
+    <t>Is this amplicon on-target or off-target? (TRUE/FALSE)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The name of one of the guide defined in the Guide tab, it must match </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Guide@guide_name</t>
+    </r>
+  </si>
+  <si>
+    <t>This corresponds to the name of the guide used to edit the cell clone and must match Guide@guide_name</t>
+  </si>
+  <si>
+    <t>Name of the guide</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The name of one of the target defined in the Target tab, it must match one of </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Target@target_name</t>
+    </r>
+  </si>
+  <si>
+    <t>The name of the Target. This name must be unique within this project.</t>
+  </si>
+  <si>
+    <t>The name of the Genome e.g. Homo sapiens [GRCh38]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[optional]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Description of the cell treatments, DNA extraction and PCR protocol used to get the amplicons (max. 1024 characters)</t>
+    </r>
+  </si>
+  <si>
+    <t>The feature of the amplicon: gene, precursor or non-coding</t>
+  </si>
+  <si>
+    <t>chrom</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[optional]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Numeric value. E.g. each gene-edited single clone will receive a unique number, e.g. 1, 2, 3, and if there is replication (e.g. for controls) a repeated number as in 4, 4, 4. Each plate will have a maximum of 96 replicate groups</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[optional]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> What is the content in the well? Default set to sample</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[optional]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> An id for the cell pool (normally, three pools are edited to ensure clones from each pool come from independent editing events)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -375,54 +943,160 @@
         <sz val="12"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>Amplicon</t>
+      <t>Layout</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve"> is the DNA sequence amplified in PCR by a primer pair. All sequences and sequence locations input here must be in the forward DNA strand (including guide, forward and reverse primers)</t>
+      <t xml:space="preserve"> describes the way samples are arranged in the plate wells, so ultimately any result can be traced back to a single clone. Each plate in the layout gets a unique ID, so clones are defined by a combination of plate geid and well_position.</t>
     </r>
   </si>
   <si>
-    <t>knock-in or knock-out</t>
-  </si>
-  <si>
-    <t>Coordinate of the cut side of the guide</t>
-  </si>
-  <si>
-    <t>The DNA strand that contains the guide sequence, either forward or reverse</t>
-  </si>
-  <si>
-    <t>Off-target score as provided by Deskgen (leave targets empty)</t>
-  </si>
-  <si>
-    <t>Is this amplicon on a target or an off-target? (TRUE/FALSE)</t>
-  </si>
-  <si>
-    <t>gene, precursor or non-coding</t>
-  </si>
-  <si>
-    <t>Chromosome where the amplicon is located, as a numeric value, e.g. 17</t>
-  </si>
-  <si>
-    <t>ID of the primer in the Genome Editing database, e.g. RA10_193</t>
-  </si>
-  <si>
-    <t>5' to 3' sequence of the primer in the forward DNA strand</t>
-  </si>
-  <si>
-    <t>Start location of the primer in the forward strand</t>
-  </si>
-  <si>
-    <t>End location of the primer in the forward strand</t>
-  </si>
-  <si>
-    <t>5' to 3' sequence of the primer in the *forward* DNA strand (i.e. reverse-complemented)</t>
-  </si>
-  <si>
-    <t>Description of the cell treatments, DNA extraction and PCR protocol used to get the amplicons (max. 1024 characters)</t>
+    <t>unique ID for a layout plate, e.g. plate_01</t>
+  </si>
+  <si>
+    <t>Layout</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[optional]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> The type of the sequencing library e.g. Fluidigm</t>
+    </r>
+  </si>
+  <si>
+    <t>The barcode identifier, e.g. FLD0193 which is part of the fastq file</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[optional]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> The sample name assigned at the time of submission</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[optional]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> The Sequencing project ID the NGS library was assigned to, e.g. SLX-13775</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[optional]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> The starting material used for library preparation, either of fixed cells, gDNA, non-fixed cells</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[optional]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Name of the parental cell line used to derive a clone (if any) to gene-edit, e.g MCF7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[optional]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Name of the parental cell line-derived clone. This is the source of cells used to gene-edit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[optional]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Is there a control in this well position? (TRUE/FALSE) Default set to False</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[optional]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Off-target score as provided by Deskgen (leave targets empty)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -434,80 +1108,6 @@
         <sz val="12"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>Layout</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> describes the way samples are arranged in the plate wells, so ultimately any result can be traced back to a single clone</t>
-    </r>
-  </si>
-  <si>
-    <t>Each plate in the layout gets a unique ID, so clones are defined by a combination of plate geid and well_position</t>
-  </si>
-  <si>
-    <t>unique ID for a layout plate in the format project_geid_two-digit numbers, e.g. GEP00001_01 and GEP00001_02</t>
-  </si>
-  <si>
-    <t>Well position in the format (A-H)(1-12), e.g. A1 and A12</t>
-  </si>
-  <si>
-    <t>Name of the parental cell line used to derive a clone (if any) to gene-edit, e.g MCF7</t>
-  </si>
-  <si>
-    <t>An id for the cell pool (normally, three pools are edited to ensure clones from each pool come from independent editing events)</t>
-  </si>
-  <si>
-    <t>Name of the parental cell line-derived clone. This is the source of cells used to gene-edit</t>
-  </si>
-  <si>
-    <t>This corresponds to the name of the guide used to edit the cell clone and must match one of the guide names in Guide@name, e.g. STAT3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Numeric value. E.g. each gene-edited single clone will receive a unique number, e.g. 1, 2, 3, and if there is replication (e.g. for controls) a repeated number as in 4, 4, 4. Each plate will have a maximum of 96 replicate groups</t>
-  </si>
-  <si>
-    <t>Is there a control in this well position? (TRUE/FALSE)</t>
-  </si>
-  <si>
-    <t>Is the off target in a coding region? (TRUE/FALSE)</t>
-  </si>
-  <si>
-    <t>What is the content in the well? This can take the values of</t>
-  </si>
-  <si>
-    <t>- empty: A well with no cells</t>
-  </si>
-  <si>
-    <t>- sample: A gene-edited, single-cell derived clone</t>
-  </si>
-  <si>
-    <t>- normalisation: A normalisation control for ICW, typically located at wells A1 and H12</t>
-  </si>
-  <si>
-    <t>- background: A background fluorescence control for ICW, typically a Western with neither primary nor secondary antibody</t>
-  </si>
-  <si>
-    <t>- knock-out: A knock-out control for ICW and perhaps also for NGS and IncuCyte data, typically a previously characterised KO clone, or the wild-type clone processed in a Western with no primary antibody (so any secondary antibody fluorescence is background, and the result is equivalent to not having any protein).</t>
-  </si>
-  <si>
-    <t>- wild-type: A wild-type control, typically the clone that has been used for gene-editing</t>
-  </si>
-  <si>
-    <t>- empty-vector: A control with vector that harbours neither guide nor Cas9</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t>Plate</t>
     </r>
     <r>
@@ -515,58 +1115,14 @@
         <sz val="12"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve"> collects information on the unique ID's and barcodes assigned to each plate over an experiment</t>
+      <t xml:space="preserve"> collects information on the unique ID's and barcodes assigned to each plate over an experiment. A plate Layout (distribution of wells and associated information) for a plate is unique, and that Layout is associated to results from ICW, IncuCyte and NGS.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> A plate Layout (distribution of wells and associated information) for a plate is unique, and that Layout is associated to results from ICW, IncuCyte and NGS</t>
-  </si>
-  <si>
-    <t>Unique barcode assigned to each experimental plate: for low-throughput this can be the geid below, but for high-throughput it is worth to put a proper barcoding system in place</t>
-  </si>
-  <si>
-    <t>ID of the experimental plate in the format ExperimentLayout@geid_type of experiment, e.g. GEP00001_01_incu, GEP00001_02_incu, GEP00001_01_ICW, GEP00001_02_ICW, GEP00001_01_PCR, GEP00001_02_PCR, GEP00001_01_dilution, GEP00001_02_dilution, GEP00001_01_NGS, GEP00001_02_NGS</t>
-  </si>
-  <si>
-    <t>Any description that can be informative for the plate, e.g. for "GEP00001_01_dilution" a description can be "PCR dilution 1:150 for indexing, temporarily stored"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>SequencingLibrary</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> stores information about the NGS library submission</t>
-    </r>
-  </si>
-  <si>
-    <t>This must match the corresponding ExperimentLayout@well_position</t>
-  </si>
-  <si>
-    <t>The starting material used for library preparation, either of fixed cells, gDNA, non-fixed cells</t>
-  </si>
-  <si>
-    <t>The Solexa ID the NGS library was assigned to, e.g. SLX-13775</t>
-  </si>
-  <si>
-    <t>Always Fluidigm</t>
-  </si>
-  <si>
-    <t>The Fluidigm barcode identifier, e.g. FLD0193</t>
-  </si>
-  <si>
-    <t>The sample name assigned at the time of submission, in the format experiment_layout_geid_well_position: this must be 'one sample name per well', as per requirement of the Sequencing bioinformatics pipeline</t>
+    <t>layout_geid</t>
+  </si>
+  <si>
+    <t>layout_id</t>
   </si>
   <si>
     <r>
@@ -578,65 +1134,61 @@
         <sz val="12"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>Target@name</t>
+      <t>Layout@layout_id</t>
     </r>
   </si>
   <si>
+    <t>plate_name</t>
+  </si>
+  <si>
+    <t>plate_description</t>
+  </si>
+  <si>
+    <t>The experimental plate name e.g. plate_01_incu, plate_01_ICW, plate_01_PCR, plate_01_NGS</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">This ID must match </t>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[optional]</t>
     </r>
     <r>
       <rPr>
-        <u/>
         <sz val="12"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>Guide@name</t>
+      <t xml:space="preserve"> Any description that can be informative about the plate</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">This ID must match </t>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[optional]</t>
     </r>
     <r>
       <rPr>
-        <u/>
         <sz val="12"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>ExperimentLayout@geid</t>
+      <t xml:space="preserve"> Unique barcode assigned to each individual plate, unique across all projects</t>
     </r>
   </si>
   <si>
-    <t>HUES9</t>
-  </si>
-  <si>
-    <t>ZRTamR</t>
-  </si>
-  <si>
-    <t>ZRTamS</t>
-  </si>
-  <si>
-    <t>HEK293T</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>Ensembl Gene ID must starts with ENSG, e.g. 'ENSG00000168610'</t>
-  </si>
-  <si>
-    <t>GenEditID - Submission Form</t>
-  </si>
-  <si>
-    <t>Documentation for submitting new project's data to the GenEditID Web App</t>
+    <t>NB. Orange tabs, tables and columns need to be filled, green ones are optionals.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -699,6 +1251,28 @@
       <sz val="12"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -726,7 +1300,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="87">
+  <cellStyleXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -814,8 +1388,84 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -825,14 +1475,27 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="41" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="42" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="87">
+  <cellStyles count="163">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -875,6 +1538,44 @@
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="42" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -918,10 +1619,1199 @@
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="41" builtinId="15"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="114">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -942,6 +2832,30 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -961,6 +2875,363 @@
       <font>
         <b/>
         <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
@@ -1292,77 +3563,242 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:C12" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:C12" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Sheet name" dataDxfId="20"/>
-    <tableColumn id="2" name="Column names" dataDxfId="19"/>
-    <tableColumn id="3" name="Description" dataDxfId="18"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="113"/>
+    <tableColumn id="2" name="Column names" dataDxfId="112"/>
+    <tableColumn id="3" name="Description" dataDxfId="111"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="50" name="Table50" displayName="Table50" ref="A13:C13" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="3">
+    <tableColumn id="1" name="Column1" headerRowDxfId="76" dataDxfId="75"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="74" dataDxfId="73"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="72" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="A1:G10" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
+  <tableColumns count="7">
+    <tableColumn id="1" name="target_name" dataDxfId="68"/>
+    <tableColumn id="2" name="target_genome" dataDxfId="67"/>
+    <tableColumn id="3" name="target_gene_id" dataDxfId="66"/>
+    <tableColumn id="4" name="target_chrom" dataDxfId="65"/>
+    <tableColumn id="5" name="target_start" dataDxfId="64"/>
+    <tableColumn id="6" name="target_end" dataDxfId="63"/>
+    <tableColumn id="7" name="target_strand" dataDxfId="62"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table37" displayName="Table37" ref="H1:H10" totalsRowShown="0" dataDxfId="61">
+  <tableColumns count="1">
+    <tableColumn id="1" name="target_description" dataDxfId="60"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="A1:C10" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+  <tableColumns count="3">
+    <tableColumn id="1" name="target_name" dataDxfId="57"/>
+    <tableColumn id="2" name="guide_name" dataDxfId="56"/>
+    <tableColumn id="3" name="guide_sequence" dataDxfId="55"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Table41" displayName="Table41" ref="D1:G10" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+  <tableColumns count="4">
+    <tableColumn id="1" name="guide_pam_sequence" dataDxfId="52"/>
+    <tableColumn id="2" name="guide_activity" dataDxfId="51"/>
+    <tableColumn id="3" name="guide_exon" dataDxfId="50"/>
+    <tableColumn id="4" name="guide_nuclease" dataDxfId="49"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Table42" displayName="Table42" ref="A1:M9" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
+  <tableColumns count="13">
+    <tableColumn id="1" name="guide_name" dataDxfId="46"/>
+    <tableColumn id="2" name="experiment_type" dataDxfId="45"/>
+    <tableColumn id="3" name="guide_location" dataDxfId="44"/>
+    <tableColumn id="4" name="guide_strand" dataDxfId="43"/>
+    <tableColumn id="5" name="is_on_target" dataDxfId="42"/>
+    <tableColumn id="6" name="dna_feature" dataDxfId="41"/>
+    <tableColumn id="7" name="chrom" dataDxfId="40"/>
+    <tableColumn id="8" name="forward_primer_sequence" dataDxfId="39"/>
+    <tableColumn id="9" name="forward_primer_start" dataDxfId="38"/>
+    <tableColumn id="10" name="forward_primer_end" dataDxfId="37"/>
+    <tableColumn id="11" name="reverse_primer_sequence" dataDxfId="36"/>
+    <tableColumn id="12" name="reverse_primer_start" dataDxfId="35"/>
+    <tableColumn id="13" name="reverse_primer_end" dataDxfId="34"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table43" displayName="Table43" ref="N1:O9" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+  <tableColumns count="2">
+    <tableColumn id="1" name="score" dataDxfId="31"/>
+    <tableColumn id="2" name="description" dataDxfId="30"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Table44" displayName="Table44" ref="A1:D97" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <tableColumns count="4">
+    <tableColumn id="1" name="layout_id" dataDxfId="27"/>
+    <tableColumn id="2" name="well_position" dataDxfId="26"/>
+    <tableColumn id="6" name="guide_name" dataDxfId="25"/>
+    <tableColumn id="13" name="sequencing_barcode" dataDxfId="24"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Table46" displayName="Table46" ref="E1:N97" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <tableColumns count="10">
+    <tableColumn id="1" name="sequencing_sample_name" dataDxfId="21"/>
+    <tableColumn id="2" name="sequencing_dna_source" dataDxfId="20"/>
+    <tableColumn id="3" name="sequencing_library_type" dataDxfId="19"/>
+    <tableColumn id="4" name="sequencing_project_id" dataDxfId="18"/>
+    <tableColumn id="5" name="cell_line_name" dataDxfId="17"/>
+    <tableColumn id="6" name="cell_pool" dataDxfId="16"/>
+    <tableColumn id="7" name="clone_name" dataDxfId="15"/>
+    <tableColumn id="8" name="content_type" dataDxfId="14"/>
+    <tableColumn id="9" name="is_control" dataDxfId="13"/>
+    <tableColumn id="10" name="replicate_group" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="51" name="Table51" displayName="Table51" ref="A1:D10" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <tableColumns count="4">
+    <tableColumn id="1" name="layout_id" dataDxfId="9"/>
+    <tableColumn id="2" name="plate_name" dataDxfId="8"/>
+    <tableColumn id="5" name="plate_barcode" dataDxfId="7"/>
+    <tableColumn id="4" name="plate_description" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A13:C21" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A14:C18" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Sheet name" dataDxfId="17"/>
-    <tableColumn id="2" name="Column names" dataDxfId="16"/>
-    <tableColumn id="3" name="Description" dataDxfId="15"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="110"/>
+    <tableColumn id="2" name="Column names" dataDxfId="109"/>
+    <tableColumn id="3" name="Description" dataDxfId="108"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="A1:D11" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <tableColumns count="4">
+    <tableColumn id="1" name="guide_name" dataDxfId="3"/>
+    <tableColumn id="2" name="is_off_target_coding_region" dataDxfId="2"/>
+    <tableColumn id="3" name="number_of_mismatches" dataDxfId="1"/>
+    <tableColumn id="4" name="number_of_off_targets" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A22:C27" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A69:C74" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Sheet name" dataDxfId="14"/>
-    <tableColumn id="2" name="Column names" dataDxfId="13"/>
-    <tableColumn id="3" name="Description" dataDxfId="12"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="107"/>
+    <tableColumn id="2" name="Column names" dataDxfId="106"/>
+    <tableColumn id="3" name="Description" dataDxfId="105"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A28:C46" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A23:C37" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Sheet name" dataDxfId="11"/>
-    <tableColumn id="2" name="Column names" dataDxfId="10"/>
-    <tableColumn id="3" name="Description" dataDxfId="9"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="104"/>
+    <tableColumn id="2" name="Column names" dataDxfId="103"/>
+    <tableColumn id="3" name="Description" dataDxfId="102"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A47:C65" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A40:C45" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Sheet name" dataDxfId="8"/>
-    <tableColumn id="2" name="Column names" dataDxfId="7"/>
-    <tableColumn id="3" name="Description" dataDxfId="6"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="101"/>
+    <tableColumn id="2" name="Column names" dataDxfId="100"/>
+    <tableColumn id="3" name="Description" dataDxfId="99"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A66:C72" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A63:C68" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Sheet name" dataDxfId="5"/>
-    <tableColumn id="2" name="Column names" dataDxfId="4"/>
-    <tableColumn id="3" name="Description" dataDxfId="3"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="98"/>
+    <tableColumn id="2" name="Column names" dataDxfId="97"/>
+    <tableColumn id="3" name="Description" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A73:C81" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="Table47" displayName="Table47" ref="A46:C62" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Sheet name" dataDxfId="2"/>
-    <tableColumn id="2" name="Column names" dataDxfId="1"/>
-    <tableColumn id="3" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="95" dataDxfId="94"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="93" dataDxfId="92"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="91" dataDxfId="90"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="Table48" displayName="Table48" ref="A38:C39" headerRowCount="0" totalsRowShown="0" dataDxfId="89" dataCellStyle="Normal">
+  <tableColumns count="3">
+    <tableColumn id="1" name="Column1" headerRowDxfId="88" dataDxfId="87" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="86" dataDxfId="85" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="84" dataDxfId="83" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="Table49" displayName="Table49" ref="A19:C22" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="3">
+    <tableColumn id="1" name="Column1" headerRowDxfId="82" dataDxfId="81"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="80" dataDxfId="79"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="78" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1690,676 +4126,629 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="180.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="114.1640625" style="7" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23" thickBot="1">
-      <c r="A1" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-    </row>
-    <row r="2" spans="1:3" ht="21" thickTop="1" thickBot="1">
-      <c r="A2" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-    </row>
-    <row r="3" spans="1:3" ht="18" thickTop="1">
-      <c r="A3" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>80</v>
-      </c>
+    <row r="1" spans="1:3" ht="27">
+      <c r="A1" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+    </row>
+    <row r="2" spans="1:3" ht="19">
+      <c r="A2" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+    </row>
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>72</v>
+        <v>101</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>81</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="9" customFormat="1" ht="30" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="6" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>82</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="6" t="s">
-        <v>3</v>
+        <v>203</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>153</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="6" t="s">
-        <v>4</v>
+        <v>208</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="6" t="s">
-        <v>5</v>
+        <v>204</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="6" t="s">
-        <v>6</v>
+        <v>205</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="6" t="s">
-        <v>7</v>
+        <v>206</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="6" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="9" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>73</v>
+        <v>101</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>145</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="13" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>89</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>90</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="B18" s="6" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" s="6" t="s">
-        <v>11</v>
+        <v>214</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" s="6" t="s">
-        <v>12</v>
+        <v>215</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>93</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" s="6" t="s">
-        <v>13</v>
+        <v>216</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>94</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>96</v>
+      <c r="B22" s="6" t="s">
+        <v>217</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>80</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>74</v>
+        <v>101</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>146</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30">
+      <c r="A24" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="B25" s="6" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>124</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="B26" s="6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" s="6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>96</v>
+      <c r="B28" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="4" t="s">
-        <v>75</v>
+      <c r="B29" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>100</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="B30" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>146</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="B31" s="6" t="s">
-        <v>18</v>
+        <v>228</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="B32" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="B33" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="B34" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="B35" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="11" customFormat="1">
+      <c r="A36" s="4"/>
       <c r="B36" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="B37" s="6" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15">
+      <c r="A38" s="5"/>
       <c r="B38" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15">
+      <c r="A39" s="5"/>
       <c r="B39" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>109</v>
+        <v>0</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="B40" s="6" t="s">
-        <v>26</v>
+      <c r="A40" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="B41" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>111</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30">
+      <c r="A41" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="B42" s="6" t="s">
-        <v>28</v>
+        <v>246</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="11" customFormat="1">
+      <c r="A43" s="4"/>
       <c r="B43" s="6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="B44" s="6" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>110</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="B45" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>111</v>
+        <v>236</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="B46" s="6" t="s">
-        <v>2</v>
+        <v>199</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>113</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>96</v>
+      <c r="B47" s="6" t="s">
+        <v>200</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>80</v>
+        <v>238</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="4" t="s">
-        <v>76</v>
+      <c r="B48" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="B49" s="6" t="s">
+        <v>201</v>
+      </c>
       <c r="C49" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="B50" s="6" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="B51" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="B52" s="6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="B53" s="6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3">
-      <c r="B54" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3">
-      <c r="B55" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3">
-      <c r="B56" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3">
-      <c r="B57" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3">
-      <c r="B58" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="B54" s="6"/>
+      <c r="C54" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="B55" s="6"/>
+      <c r="C55" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="B56" s="6"/>
+      <c r="C56" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="B57" s="6"/>
+      <c r="C57" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="B58" s="6"/>
+      <c r="C58" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="B59" s="6"/>
       <c r="C59" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="B60" s="6"/>
       <c r="C60" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3">
-      <c r="B61" s="6"/>
-      <c r="C61" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3">
-      <c r="B62" s="6"/>
-      <c r="C62" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3">
-      <c r="B63" s="6"/>
-      <c r="C63" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3">
-      <c r="B64" s="6"/>
-      <c r="C64" s="8" t="s">
-        <v>131</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="B61" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="B62" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="30" customHeight="1">
+      <c r="A64" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="B65" s="6"/>
-      <c r="C65" s="8" t="s">
-        <v>132</v>
+      <c r="B65" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>96</v>
+      <c r="B66" s="6" t="s">
+        <v>248</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>80</v>
+        <v>250</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="4" t="s">
-        <v>77</v>
+      <c r="B67" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>133</v>
+        <v>252</v>
       </c>
     </row>
     <row r="68" spans="1:3">
+      <c r="B68" s="6" t="s">
+        <v>249</v>
+      </c>
       <c r="C68" s="7" t="s">
-        <v>134</v>
+        <v>251</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="B69" s="6" t="s">
-        <v>39</v>
+      <c r="A69" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="B70" s="6" t="s">
-        <v>40</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="30" customHeight="1">
+      <c r="A70" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="B71" s="6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="B72" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>96</v>
+      <c r="B73" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="4" t="s">
-        <v>78</v>
+      <c r="B74" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="B75" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="B76" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="B77" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="B78" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="B79" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="B80" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3">
-      <c r="B81" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>144</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <tableParts count="7">
+  <tableParts count="10">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -2367,6 +4756,9 @@
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -2378,45 +4770,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="8" max="8" width="41.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.33203125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="2.83203125" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
+    <row r="1" spans="1:8" s="6" customFormat="1">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="B1" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -2425,6 +4836,10 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -2451,41 +4866,48 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="9"/>
+  </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17" style="5" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
+    <row r="1" spans="1:7" s="6" customFormat="1">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2495,6 +4917,10 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2505,33 +4931,98 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.1640625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="31.83203125" style="5" customWidth="1"/>
+    <col min="16" max="18" width="14.83203125" style="5" customWidth="1"/>
+    <col min="19" max="19" width="10.33203125" style="5" customWidth="1"/>
+    <col min="20" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" s="6" customFormat="1">
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="K1" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="L1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -2540,6 +5031,1071 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Menus!$C$2:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Menus!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Menus!$D$2:$D$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:N97"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="12.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.1640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.1640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="25.5" style="5" customWidth="1"/>
+    <col min="9" max="9" width="18" style="5" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="5" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="16.1640625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="18.83203125" style="5" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="6" customFormat="1">
+      <c r="A1" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Menus!$D$2:$D$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>K2:K1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Menus!$F$2:$F$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>J2:J1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="6"/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="20.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="24.83203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="41.83203125" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="6" customFormat="1">
+      <c r="A1" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="6"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="15">
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" ht="15">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" ht="15">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" ht="15">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" ht="15">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" ht="15">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" ht="15">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" ht="15">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -2558,331 +6114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31.6640625" customWidth="1"/>
-    <col min="18" max="18" width="31.83203125" customWidth="1"/>
-    <col min="19" max="21" width="14.83203125" customWidth="1"/>
-    <col min="22" max="22" width="10.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Menus!$C$2:$C$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>G2:G1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Menus!$B$2:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Menus!$D$2:$D$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2:F1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" customWidth="1"/>
-    <col min="9" max="9" width="18.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Menus!$D$2:$D$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>H2:H1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Menus!$F$2:$F$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>I2:I1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Menus!$E$2:$E$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" customWidth="1"/>
-    <col min="3" max="3" width="47.33203125" customWidth="1"/>
-    <col min="4" max="4" width="41.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="31.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Menus!$H$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>E2:E1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Menus!$G$2:$G$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
@@ -2903,131 +6135,131 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="17">
       <c r="A1" s="4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
         <v>48</v>
       </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="H2" t="s">
         <v>51</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="C4" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="E5" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="E6" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="E7" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="E8" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="E9" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:8">

--- a/data/templates/GEPXXXXX.xlsx
+++ b/data/templates/GEPXXXXX.xlsx
@@ -1300,7 +1300,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="163">
+  <cellStyleXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1344,6 +1344,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1495,7 +1499,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="163">
+  <cellStyles count="167">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1576,6 +1580,8 @@
     <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="42" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -1657,6 +1663,8 @@
     <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="41" builtinId="15"/>
   </cellStyles>
@@ -4776,7 +4784,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5920,7 +5928,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Menus!$D$2:$D$3</xm:f>

--- a/data/templates/GEPXXXXX.xlsx
+++ b/data/templates/GEPXXXXX.xlsx
@@ -1300,7 +1300,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="167">
+  <cellStyleXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1344,6 +1344,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1499,7 +1509,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="167">
+  <cellStyles count="177">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1582,6 +1592,11 @@
     <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="42" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -1665,6 +1680,11 @@
     <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="41" builtinId="15"/>
   </cellStyles>

--- a/data/templates/GEPXXXXX.xlsx
+++ b/data/templates/GEPXXXXX.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="2460" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="736"/>
   </bookViews>
   <sheets>
-    <sheet name="Documentation" sheetId="10" r:id="rId1"/>
+    <sheet name="Help" sheetId="10" r:id="rId1"/>
     <sheet name="Target" sheetId="2" r:id="rId2"/>
     <sheet name="Guide" sheetId="3" r:id="rId3"/>
     <sheet name="Amplicon" sheetId="5" r:id="rId4"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="250">
   <si>
     <t>description</t>
   </si>
@@ -115,12 +115,6 @@
     <t>plate_barcode</t>
   </si>
   <si>
-    <t>dna_source</t>
-  </si>
-  <si>
-    <t>library_type</t>
-  </si>
-  <si>
     <t>sequencing_barcode</t>
   </si>
   <si>
@@ -130,9 +124,6 @@
     <t>knock-out</t>
   </si>
   <si>
-    <t>genome</t>
-  </si>
-  <si>
     <t>Homo sapiens [GRCh38]</t>
   </si>
   <si>
@@ -184,9 +175,6 @@
     <t>non-fixed cells</t>
   </si>
   <si>
-    <t>Fluidigm</t>
-  </si>
-  <si>
     <t>MCF7</t>
   </si>
   <si>
@@ -197,9 +185,6 @@
   </si>
   <si>
     <t>MESC</t>
-  </si>
-  <si>
-    <t>is_it</t>
   </si>
   <si>
     <t>A549</t>
@@ -347,12 +332,6 @@
   </si>
   <si>
     <t>Ensembl Gene ID must starts with ENSG, e.g. 'ENSG00000168610'</t>
-  </si>
-  <si>
-    <t>GenEditID - Submission Form</t>
-  </si>
-  <si>
-    <t>Documentation for submitting new project's data to the GenEditID Web App</t>
   </si>
   <si>
     <r>
@@ -1183,12 +1162,21 @@
   <si>
     <t>NB. Orange tabs, tables and columns need to be filled, green ones are optionals.</t>
   </si>
+  <si>
+    <t>is_true_or_false</t>
+  </si>
+  <si>
+    <t>GenEditID - Project Data and Layout Spreadsheet</t>
+  </si>
+  <si>
+    <t>Help to fill project's data and layout before uploading into the GenEditID Web App</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1252,12 +1240,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <name val="Arial"/>
     </font>
@@ -1268,7 +1250,20 @@
     </font>
     <font>
       <b/>
-      <sz val="22"/>
+      <sz val="16"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
       <color theme="3"/>
       <name val="Cambria"/>
       <scheme val="major"/>
@@ -1300,7 +1295,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="177">
+  <cellStyleXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1344,6 +1339,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1482,34 +1489,34 @@
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="177">
+  <cellStyles count="189">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1597,6 +1604,12 @@
     <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="42" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -1685,10 +1698,169 @@
     <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="41" builtinId="15"/>
   </cellStyles>
-  <dxfs count="114">
+  <dxfs count="123">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -3592,6 +3764,197 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:C12" totalsRowShown="0">
+  <tableColumns count="3">
+    <tableColumn id="1" name="Tab name" dataDxfId="122"/>
+    <tableColumn id="2" name="Column names" dataDxfId="121"/>
+    <tableColumn id="3" name="Description" dataDxfId="120"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="50" name="Table50" displayName="Table50" ref="A13:C13" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="3">
+    <tableColumn id="1" name="Column1" headerRowDxfId="85" dataDxfId="84"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="83" dataDxfId="82"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="81" dataDxfId="80"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="A1:G10" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+  <tableColumns count="7">
+    <tableColumn id="1" name="target_name" dataDxfId="77"/>
+    <tableColumn id="2" name="target_genome" dataDxfId="76"/>
+    <tableColumn id="3" name="target_gene_id" dataDxfId="75"/>
+    <tableColumn id="4" name="target_chrom" dataDxfId="74"/>
+    <tableColumn id="5" name="target_start" dataDxfId="73"/>
+    <tableColumn id="6" name="target_end" dataDxfId="72"/>
+    <tableColumn id="7" name="target_strand" dataDxfId="71"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table37" displayName="Table37" ref="H1:H10" totalsRowShown="0" dataDxfId="70">
+  <tableColumns count="1">
+    <tableColumn id="1" name="target_description" dataDxfId="69"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="A1:C10" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
+  <tableColumns count="3">
+    <tableColumn id="1" name="target_name" dataDxfId="66"/>
+    <tableColumn id="2" name="guide_name" dataDxfId="65"/>
+    <tableColumn id="3" name="guide_sequence" dataDxfId="64"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Table41" displayName="Table41" ref="D1:G10" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+  <tableColumns count="4">
+    <tableColumn id="1" name="guide_pam_sequence" dataDxfId="61"/>
+    <tableColumn id="2" name="guide_activity" dataDxfId="60"/>
+    <tableColumn id="3" name="guide_exon" dataDxfId="59"/>
+    <tableColumn id="4" name="guide_nuclease" dataDxfId="58"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Table42" displayName="Table42" ref="A1:M9" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+  <tableColumns count="13">
+    <tableColumn id="1" name="guide_name" dataDxfId="55"/>
+    <tableColumn id="2" name="experiment_type" dataDxfId="54"/>
+    <tableColumn id="3" name="guide_location" dataDxfId="53"/>
+    <tableColumn id="4" name="guide_strand" dataDxfId="52"/>
+    <tableColumn id="5" name="is_on_target" dataDxfId="51"/>
+    <tableColumn id="6" name="dna_feature" dataDxfId="50"/>
+    <tableColumn id="7" name="chrom" dataDxfId="49"/>
+    <tableColumn id="8" name="forward_primer_sequence" dataDxfId="48"/>
+    <tableColumn id="9" name="forward_primer_start" dataDxfId="47"/>
+    <tableColumn id="10" name="forward_primer_end" dataDxfId="46"/>
+    <tableColumn id="11" name="reverse_primer_sequence" dataDxfId="45"/>
+    <tableColumn id="12" name="reverse_primer_start" dataDxfId="44"/>
+    <tableColumn id="13" name="reverse_primer_end" dataDxfId="43"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table43" displayName="Table43" ref="N1:O9" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+  <tableColumns count="2">
+    <tableColumn id="1" name="score" dataDxfId="40"/>
+    <tableColumn id="2" name="description" dataDxfId="39"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Table44" displayName="Table44" ref="A1:D97" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+  <tableColumns count="4">
+    <tableColumn id="1" name="layout_id" dataDxfId="36"/>
+    <tableColumn id="2" name="well_position" dataDxfId="35"/>
+    <tableColumn id="6" name="guide_name" dataDxfId="34"/>
+    <tableColumn id="13" name="sequencing_barcode" dataDxfId="33"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Table46" displayName="Table46" ref="E1:N97" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+  <tableColumns count="10">
+    <tableColumn id="1" name="sequencing_sample_name" dataDxfId="30"/>
+    <tableColumn id="2" name="sequencing_dna_source" dataDxfId="29"/>
+    <tableColumn id="3" name="sequencing_library_type" dataDxfId="28"/>
+    <tableColumn id="4" name="sequencing_project_id" dataDxfId="27"/>
+    <tableColumn id="5" name="cell_line_name" dataDxfId="26"/>
+    <tableColumn id="6" name="cell_pool" dataDxfId="25"/>
+    <tableColumn id="7" name="clone_name" dataDxfId="24"/>
+    <tableColumn id="8" name="content_type" dataDxfId="23"/>
+    <tableColumn id="9" name="is_control" dataDxfId="22"/>
+    <tableColumn id="10" name="replicate_group" dataDxfId="21"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="51" name="Table51" displayName="Table51" ref="A1:D10" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <tableColumns count="4">
+    <tableColumn id="1" name="layout_id" dataDxfId="18"/>
+    <tableColumn id="2" name="plate_name" dataDxfId="17"/>
+    <tableColumn id="5" name="plate_barcode" dataDxfId="16"/>
+    <tableColumn id="4" name="plate_description" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A14:C18" totalsRowShown="0">
+  <tableColumns count="3">
+    <tableColumn id="1" name="Tab name" dataDxfId="119"/>
+    <tableColumn id="2" name="Column names" dataDxfId="118"/>
+    <tableColumn id="3" name="Description" dataDxfId="117"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="A1:D11" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <tableColumns count="4">
+    <tableColumn id="1" name="guide_name" dataDxfId="12"/>
+    <tableColumn id="2" name="is_off_target_coding_region" dataDxfId="11"/>
+    <tableColumn id="3" name="number_of_mismatches" dataDxfId="10"/>
+    <tableColumn id="4" name="number_of_off_targets" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G9" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <tableColumns count="7">
+    <tableColumn id="1" name="target_genome" dataDxfId="8"/>
+    <tableColumn id="2" name="strand" dataDxfId="7"/>
+    <tableColumn id="3" name="dna_feature" dataDxfId="6"/>
+    <tableColumn id="4" name="is_true_or_false" dataDxfId="5"/>
+    <tableColumn id="5" name="cell_line_name" dataDxfId="4"/>
+    <tableColumn id="6" name="content_type" dataDxfId="3"/>
+    <tableColumn id="7" name="sequencing_dna_source" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A69:C74" totalsRowShown="0">
+  <tableColumns count="3">
+    <tableColumn id="1" name="Tab name" dataDxfId="116"/>
+    <tableColumn id="2" name="Column names" dataDxfId="115"/>
+    <tableColumn id="3" name="Description" dataDxfId="114"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A23:C37" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="Tab name" dataDxfId="113"/>
     <tableColumn id="2" name="Column names" dataDxfId="112"/>
@@ -3601,139 +3964,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="50" name="Table50" displayName="Table50" ref="A13:C13" headerRowCount="0" totalsRowShown="0">
-  <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="76" dataDxfId="75"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="74" dataDxfId="73"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="72" dataDxfId="71"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="A1:G10" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
-  <tableColumns count="7">
-    <tableColumn id="1" name="target_name" dataDxfId="68"/>
-    <tableColumn id="2" name="target_genome" dataDxfId="67"/>
-    <tableColumn id="3" name="target_gene_id" dataDxfId="66"/>
-    <tableColumn id="4" name="target_chrom" dataDxfId="65"/>
-    <tableColumn id="5" name="target_start" dataDxfId="64"/>
-    <tableColumn id="6" name="target_end" dataDxfId="63"/>
-    <tableColumn id="7" name="target_strand" dataDxfId="62"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table37" displayName="Table37" ref="H1:H10" totalsRowShown="0" dataDxfId="61">
-  <tableColumns count="1">
-    <tableColumn id="1" name="target_description" dataDxfId="60"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="A1:C10" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
-  <tableColumns count="3">
-    <tableColumn id="1" name="target_name" dataDxfId="57"/>
-    <tableColumn id="2" name="guide_name" dataDxfId="56"/>
-    <tableColumn id="3" name="guide_sequence" dataDxfId="55"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Table41" displayName="Table41" ref="D1:G10" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
-  <tableColumns count="4">
-    <tableColumn id="1" name="guide_pam_sequence" dataDxfId="52"/>
-    <tableColumn id="2" name="guide_activity" dataDxfId="51"/>
-    <tableColumn id="3" name="guide_exon" dataDxfId="50"/>
-    <tableColumn id="4" name="guide_nuclease" dataDxfId="49"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Table42" displayName="Table42" ref="A1:M9" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
-  <tableColumns count="13">
-    <tableColumn id="1" name="guide_name" dataDxfId="46"/>
-    <tableColumn id="2" name="experiment_type" dataDxfId="45"/>
-    <tableColumn id="3" name="guide_location" dataDxfId="44"/>
-    <tableColumn id="4" name="guide_strand" dataDxfId="43"/>
-    <tableColumn id="5" name="is_on_target" dataDxfId="42"/>
-    <tableColumn id="6" name="dna_feature" dataDxfId="41"/>
-    <tableColumn id="7" name="chrom" dataDxfId="40"/>
-    <tableColumn id="8" name="forward_primer_sequence" dataDxfId="39"/>
-    <tableColumn id="9" name="forward_primer_start" dataDxfId="38"/>
-    <tableColumn id="10" name="forward_primer_end" dataDxfId="37"/>
-    <tableColumn id="11" name="reverse_primer_sequence" dataDxfId="36"/>
-    <tableColumn id="12" name="reverse_primer_start" dataDxfId="35"/>
-    <tableColumn id="13" name="reverse_primer_end" dataDxfId="34"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table43" displayName="Table43" ref="N1:O9" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
-  <tableColumns count="2">
-    <tableColumn id="1" name="score" dataDxfId="31"/>
-    <tableColumn id="2" name="description" dataDxfId="30"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Table44" displayName="Table44" ref="A1:D97" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <tableColumns count="4">
-    <tableColumn id="1" name="layout_id" dataDxfId="27"/>
-    <tableColumn id="2" name="well_position" dataDxfId="26"/>
-    <tableColumn id="6" name="guide_name" dataDxfId="25"/>
-    <tableColumn id="13" name="sequencing_barcode" dataDxfId="24"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Table46" displayName="Table46" ref="E1:N97" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <tableColumns count="10">
-    <tableColumn id="1" name="sequencing_sample_name" dataDxfId="21"/>
-    <tableColumn id="2" name="sequencing_dna_source" dataDxfId="20"/>
-    <tableColumn id="3" name="sequencing_library_type" dataDxfId="19"/>
-    <tableColumn id="4" name="sequencing_project_id" dataDxfId="18"/>
-    <tableColumn id="5" name="cell_line_name" dataDxfId="17"/>
-    <tableColumn id="6" name="cell_pool" dataDxfId="16"/>
-    <tableColumn id="7" name="clone_name" dataDxfId="15"/>
-    <tableColumn id="8" name="content_type" dataDxfId="14"/>
-    <tableColumn id="9" name="is_control" dataDxfId="13"/>
-    <tableColumn id="10" name="replicate_group" dataDxfId="12"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="51" name="Table51" displayName="Table51" ref="A1:D10" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <tableColumns count="4">
-    <tableColumn id="1" name="layout_id" dataDxfId="9"/>
-    <tableColumn id="2" name="plate_name" dataDxfId="8"/>
-    <tableColumn id="5" name="plate_barcode" dataDxfId="7"/>
-    <tableColumn id="4" name="plate_description" dataDxfId="6"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A14:C18" totalsRowShown="0">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A40:C45" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="Tab name" dataDxfId="110"/>
     <tableColumn id="2" name="Column names" dataDxfId="109"/>
@@ -3743,20 +3975,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="A1:D11" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <tableColumns count="4">
-    <tableColumn id="1" name="guide_name" dataDxfId="3"/>
-    <tableColumn id="2" name="is_off_target_coding_region" dataDxfId="2"/>
-    <tableColumn id="3" name="number_of_mismatches" dataDxfId="1"/>
-    <tableColumn id="4" name="number_of_off_targets" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A69:C74" totalsRowShown="0">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A63:C68" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="Tab name" dataDxfId="107"/>
     <tableColumn id="2" name="Column names" dataDxfId="106"/>
@@ -3766,56 +3986,23 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A23:C37" totalsRowShown="0">
-  <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="104"/>
-    <tableColumn id="2" name="Column names" dataDxfId="103"/>
-    <tableColumn id="3" name="Description" dataDxfId="102"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A40:C45" totalsRowShown="0">
-  <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="101"/>
-    <tableColumn id="2" name="Column names" dataDxfId="100"/>
-    <tableColumn id="3" name="Description" dataDxfId="99"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A63:C68" totalsRowShown="0">
-  <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="98"/>
-    <tableColumn id="2" name="Column names" dataDxfId="97"/>
-    <tableColumn id="3" name="Description" dataDxfId="96"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="Table47" displayName="Table47" ref="A46:C62" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="95" dataDxfId="94"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="93" dataDxfId="92"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="91" dataDxfId="90"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="104" dataDxfId="103"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="102" dataDxfId="101"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="100" dataDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="Table48" displayName="Table48" ref="A38:C39" headerRowCount="0" totalsRowShown="0" dataDxfId="89" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="Table48" displayName="Table48" ref="A38:C39" headerRowCount="0" totalsRowShown="0" dataDxfId="98" dataCellStyle="Normal">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="88" dataDxfId="87" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="86" dataDxfId="85" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="84" dataDxfId="83" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="97" dataDxfId="96" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="95" dataDxfId="94" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="93" dataDxfId="92" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3824,9 +4011,9 @@
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="Table49" displayName="Table49" ref="A19:C22" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="82" dataDxfId="81"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="80" dataDxfId="79"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="78" dataDxfId="77"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="91" dataDxfId="90"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="89" dataDxfId="88"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="87" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4154,6 +4341,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="3" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -4162,609 +4352,609 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="114.1640625" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="22.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="114.1640625" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27">
-      <c r="A1" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-    </row>
-    <row r="2" spans="1:3" ht="19">
-      <c r="A2" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-    </row>
-    <row r="3" spans="1:3" ht="15">
-      <c r="A3" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+    <row r="1" spans="1:3" ht="32">
+      <c r="A1" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" spans="1:3" ht="20">
+      <c r="A2" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:3" ht="18">
+      <c r="A3" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="7" customFormat="1" ht="30" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30">
+      <c r="A24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="9" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="7" t="s">
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="B31" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="B32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="B33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="B34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="B35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="9" customFormat="1">
+      <c r="A36" s="2"/>
+      <c r="B36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="B37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30">
+      <c r="A41" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="B42" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="9" customFormat="1">
+      <c r="A43" s="2"/>
+      <c r="B43" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="B44" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="B45" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="B46" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="B47" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="B48" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="B49" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="B50" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="B51" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="B52" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="B7" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C9" s="7" t="s">
+    <row r="53" spans="1:3">
+      <c r="B53" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="B54" s="4"/>
+      <c r="C54" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="B55" s="4"/>
+      <c r="C55" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="B56" s="4"/>
+      <c r="C56" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="B57" s="4"/>
+      <c r="C57" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="B58" s="4"/>
+      <c r="C58" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="B59" s="4"/>
+      <c r="C59" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="B60" s="4"/>
+      <c r="C60" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="B61" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="B62" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="C63" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="30" customHeight="1">
+      <c r="A64" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="B65" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="B66" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="B67" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="B68" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="30" customHeight="1">
+      <c r="A70" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="B11" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C11" s="7" t="s">
+    <row r="71" spans="1:3">
+      <c r="B71" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="B72" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="B73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="B12" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C12" s="7" t="s">
+    <row r="74" spans="1:3">
+      <c r="B74" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="13" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="B16" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="B17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="B19" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="B20" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="B22" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30">
-      <c r="A24" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="B27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="B28" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="B30" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="B31" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="B32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="B33" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="B34" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="B35" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="11" customFormat="1">
-      <c r="A36" s="4"/>
-      <c r="B36" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="B37" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="30">
-      <c r="A41" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="B42" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="11" customFormat="1">
-      <c r="A43" s="4"/>
-      <c r="B43" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="B44" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="B45" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="B46" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="B47" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="B48" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="B49" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="B50" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="B51" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="B52" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="B53" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="B54" s="6"/>
-      <c r="C54" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="B55" s="6"/>
-      <c r="C55" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="B56" s="6"/>
-      <c r="C56" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="B57" s="6"/>
-      <c r="C57" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="B58" s="6"/>
-      <c r="C58" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="B59" s="6"/>
-      <c r="C59" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="B60" s="6"/>
-      <c r="C60" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="B61" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="B62" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="30" customHeight="1">
-      <c r="A64" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="B65" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="B66" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="B67" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="B68" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="30" customHeight="1">
-      <c r="A70" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="B71" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="B72" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="B73" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="B74" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -4809,53 +4999,53 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.33203125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="2.83203125" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="2.83203125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>202</v>
+      <c r="B1" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -4905,37 +5095,37 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17" style="5" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="15.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>217</v>
+      <c r="D1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -4970,87 +5160,87 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1640625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="31.83203125" style="5" customWidth="1"/>
-    <col min="16" max="18" width="14.83203125" style="5" customWidth="1"/>
-    <col min="19" max="19" width="10.33203125" style="5" customWidth="1"/>
-    <col min="20" max="16384" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.1640625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="31.83203125" style="3" customWidth="1"/>
+    <col min="16" max="18" width="14.83203125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="10.33203125" style="3" customWidth="1"/>
+    <col min="20" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:15" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -5106,833 +5296,833 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.1640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.1640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="25.5" style="5" customWidth="1"/>
-    <col min="9" max="9" width="18" style="5" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="5" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="16.1640625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="18.83203125" style="5" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="12.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="27.1640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="25.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="18" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="16.1640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="18.83203125" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1">
-      <c r="A1" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:14" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="D1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="10" spans="1:14">
+      <c r="A10" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="11" spans="1:14">
+      <c r="A11" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row r="12" spans="1:14">
+      <c r="A12" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B6" s="5" t="s">
+    <row r="13" spans="1:14">
+      <c r="A13" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B7" s="5" t="s">
+    <row r="14" spans="1:14">
+      <c r="A14" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B8" s="5" t="s">
+    <row r="15" spans="1:14">
+      <c r="A15" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B9" s="5" t="s">
+    <row r="16" spans="1:14">
+      <c r="A16" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B10" s="5" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B11" s="5" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B12" s="5" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B13" s="5" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B14" s="5" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B15" s="5" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B16" s="5" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B17" s="5" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B18" s="5" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B19" s="5" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B20" s="5" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B21" s="5" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B22" s="5" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B23" s="5" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B24" s="5" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B25" s="5" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B26" s="5" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B27" s="5" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B28" s="5" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B29" s="5" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B30" s="5" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B31" s="5" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B32" s="5" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B33" s="5" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B34" s="5" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B35" s="5" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B36" s="5" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B37" s="5" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B38" s="5" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B39" s="5" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B40" s="5" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B41" s="5" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B42" s="5" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B43" s="5" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B44" s="5" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B45" s="5" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B46" s="5" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B47" s="5" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B48" s="5" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B49" s="5" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B50" s="5" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B51" s="5" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B52" s="5" t="s">
+    <row r="59" spans="1:2">
+      <c r="A59" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B53" s="5" t="s">
+    <row r="60" spans="1:2">
+      <c r="A60" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B54" s="5" t="s">
+    <row r="61" spans="1:2">
+      <c r="A61" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B55" s="5" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B56" s="5" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B57" s="5" t="s">
+    <row r="64" spans="1:2">
+      <c r="A64" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B58" s="5" t="s">
+    <row r="65" spans="1:2">
+      <c r="A65" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B59" s="5" t="s">
+    <row r="66" spans="1:2">
+      <c r="A66" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B60" s="5" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B61" s="5" t="s">
+    <row r="68" spans="1:2">
+      <c r="A68" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B62" s="5" t="s">
+    <row r="69" spans="1:2">
+      <c r="A69" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B63" s="5" t="s">
+    <row r="70" spans="1:2">
+      <c r="A70" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B64" s="5" t="s">
+    <row r="71" spans="1:2">
+      <c r="A71" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B65" s="5" t="s">
+    <row r="72" spans="1:2">
+      <c r="A72" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B66" s="5" t="s">
+    <row r="73" spans="1:2">
+      <c r="A73" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B67" s="5" t="s">
+    <row r="74" spans="1:2">
+      <c r="A74" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B68" s="5" t="s">
+    <row r="75" spans="1:2">
+      <c r="A75" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B69" s="5" t="s">
+    <row r="76" spans="1:2">
+      <c r="A76" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B70" s="5" t="s">
+    <row r="77" spans="1:2">
+      <c r="A77" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B71" s="5" t="s">
+    <row r="78" spans="1:2">
+      <c r="A78" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B72" s="5" t="s">
+    <row r="79" spans="1:2">
+      <c r="A79" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B73" s="5" t="s">
+    <row r="80" spans="1:2">
+      <c r="A80" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B74" s="5" t="s">
+    <row r="81" spans="1:2">
+      <c r="A81" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B75" s="5" t="s">
+    <row r="82" spans="1:2">
+      <c r="A82" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B76" s="5" t="s">
+    <row r="83" spans="1:2">
+      <c r="A83" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B77" s="5" t="s">
+    <row r="84" spans="1:2">
+      <c r="A84" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B78" s="5" t="s">
+    <row r="85" spans="1:2">
+      <c r="A85" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B79" s="5" t="s">
+    <row r="86" spans="1:2">
+      <c r="A86" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B80" s="5" t="s">
+    <row r="87" spans="1:2">
+      <c r="A87" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B81" s="5" t="s">
+    <row r="88" spans="1:2">
+      <c r="A88" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B82" s="5" t="s">
+    <row r="89" spans="1:2">
+      <c r="A89" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B83" s="5" t="s">
+    <row r="90" spans="1:2">
+      <c r="A90" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B84" s="5" t="s">
+    <row r="91" spans="1:2">
+      <c r="A91" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B85" s="5" t="s">
+    <row r="92" spans="1:2">
+      <c r="A92" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B86" s="5" t="s">
+    <row r="93" spans="1:2">
+      <c r="A93" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B87" s="5" t="s">
+    <row r="94" spans="1:2">
+      <c r="A94" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B88" s="5" t="s">
+    <row r="95" spans="1:2">
+      <c r="A95" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B89" s="5" t="s">
+    <row r="96" spans="1:2">
+      <c r="A96" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B90" s="5" t="s">
+    <row r="97" spans="1:2">
+      <c r="A97" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -5948,18 +6138,30 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Menus!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K1048576</xm:sqref>
+          <xm:sqref>M2:M1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Menus!$F$2:$F$8</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J1048576</xm:sqref>
+          <xm:sqref>L2:L1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Menus!$G$2:$G$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Menus!$E$2:$E$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5983,24 +6185,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="24.83203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="41.83203125" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="20.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="24.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41.83203125" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1">
-      <c r="A1" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>249</v>
+      <c r="D1" s="4" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -6041,78 +6243,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" ht="15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="15">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" ht="15">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" ht="15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="15">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -6144,26 +6346,29 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="3" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="3"/>
+    <col min="3" max="3" width="15.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="17">
+    <row r="1" spans="1:8" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>33</v>
+        <v>196</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -6172,7 +6377,7 @@
         <v>13</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>56</v>
+        <v>247</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>21</v>
@@ -6181,122 +6386,119 @@
         <v>26</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>29</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G4" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="E5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="E6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="7" spans="1:8">
+      <c r="E7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="E5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="8" spans="1:8">
+      <c r="E8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="E6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="E7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="E8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="E9" t="s">
-        <v>94</v>
+      <c r="E9" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="H12" s="3"/>
+      <c r="H12" s="16"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/data/templates/GEPXXXXX.xlsx
+++ b/data/templates/GEPXXXXX.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="736"/>
+    <workbookView xWindow="2460" yWindow="0" windowWidth="25600" windowHeight="16720" tabRatio="736"/>
   </bookViews>
   <sheets>
     <sheet name="Help" sheetId="10" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="241">
   <si>
     <t>description</t>
   </si>
@@ -61,9 +61,6 @@
     <t>guide_location</t>
   </si>
   <si>
-    <t>guide_strand</t>
-  </si>
-  <si>
     <t>score</t>
   </si>
   <si>
@@ -175,19 +172,7 @@
     <t>non-fixed cells</t>
   </si>
   <si>
-    <t>MCF7</t>
-  </si>
-  <si>
-    <t>T47D</t>
-  </si>
-  <si>
     <t>Mus musculus [GRCm38]</t>
-  </si>
-  <si>
-    <t>MESC</t>
-  </si>
-  <si>
-    <t>A549</t>
   </si>
   <si>
     <t>Target</t>
@@ -258,9 +243,6 @@
     <t>Coordinate of the cut side of the guide</t>
   </si>
   <si>
-    <t>The DNA strand that contains the guide sequence, either forward or reverse</t>
-  </si>
-  <si>
     <t>Chromosome where the amplicon is located, as a numeric value, e.g. 17</t>
   </si>
   <si>
@@ -314,18 +296,6 @@
       </rPr>
       <t>Guide@name</t>
     </r>
-  </si>
-  <si>
-    <t>HUES9</t>
-  </si>
-  <si>
-    <t>ZRTamR</t>
-  </si>
-  <si>
-    <t>ZRTamS</t>
-  </si>
-  <si>
-    <t>HEK293T</t>
   </si>
   <si>
     <t>water</t>
@@ -1170,6 +1140,9 @@
   </si>
   <si>
     <t>Help to fill project's data and layout before uploading into the GenEditID Web App</t>
+  </si>
+  <si>
+    <t>knock-in</t>
   </si>
 </sst>
 </file>
@@ -1295,7 +1268,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="189">
+  <cellStyleXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1339,6 +1312,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1506,17 +1481,17 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="189">
+  <cellStyles count="191">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1610,6 +1585,7 @@
     <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="42" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -1704,10 +1680,147 @@
     <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="41" builtinId="15"/>
   </cellStyles>
-  <dxfs count="123">
+  <dxfs count="122">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1727,142 +1840,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -2405,23 +2382,6 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -3762,12 +3722,60 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>170822</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 51" descr="amplicon.pptx.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="14372" t="18488" r="13531" b="23692"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3009900" y="1866900"/>
+          <a:ext cx="10330822" cy="5854700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:C12" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="122"/>
-    <tableColumn id="2" name="Column names" dataDxfId="121"/>
-    <tableColumn id="3" name="Description" dataDxfId="120"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="121"/>
+    <tableColumn id="2" name="Column names" dataDxfId="120"/>
+    <tableColumn id="3" name="Description" dataDxfId="119"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3776,68 +3784,67 @@
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="50" name="Table50" displayName="Table50" ref="A13:C13" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="85" dataDxfId="84"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="83" dataDxfId="82"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="81" dataDxfId="80"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="84" dataDxfId="83"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="82" dataDxfId="81"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="80" dataDxfId="79"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="A1:G10" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="A1:G10" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
   <tableColumns count="7">
-    <tableColumn id="1" name="target_name" dataDxfId="77"/>
-    <tableColumn id="2" name="target_genome" dataDxfId="76"/>
-    <tableColumn id="3" name="target_gene_id" dataDxfId="75"/>
-    <tableColumn id="4" name="target_chrom" dataDxfId="74"/>
-    <tableColumn id="5" name="target_start" dataDxfId="73"/>
-    <tableColumn id="6" name="target_end" dataDxfId="72"/>
-    <tableColumn id="7" name="target_strand" dataDxfId="71"/>
+    <tableColumn id="1" name="target_name" dataDxfId="76"/>
+    <tableColumn id="2" name="target_genome" dataDxfId="75"/>
+    <tableColumn id="3" name="target_gene_id" dataDxfId="74"/>
+    <tableColumn id="4" name="target_chrom" dataDxfId="73"/>
+    <tableColumn id="5" name="target_start" dataDxfId="72"/>
+    <tableColumn id="6" name="target_end" dataDxfId="71"/>
+    <tableColumn id="7" name="target_strand" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table37" displayName="Table37" ref="H1:H10" totalsRowShown="0" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table37" displayName="Table37" ref="H1:H10" totalsRowShown="0" dataDxfId="69">
   <tableColumns count="1">
-    <tableColumn id="1" name="target_description" dataDxfId="69"/>
+    <tableColumn id="1" name="target_description" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="A1:C10" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="A1:C10" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
   <tableColumns count="3">
-    <tableColumn id="1" name="target_name" dataDxfId="66"/>
-    <tableColumn id="2" name="guide_name" dataDxfId="65"/>
-    <tableColumn id="3" name="guide_sequence" dataDxfId="64"/>
+    <tableColumn id="1" name="target_name" dataDxfId="65"/>
+    <tableColumn id="2" name="guide_name" dataDxfId="64"/>
+    <tableColumn id="3" name="guide_sequence" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Table41" displayName="Table41" ref="D1:G10" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Table41" displayName="Table41" ref="D1:G10" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
   <tableColumns count="4">
-    <tableColumn id="1" name="guide_pam_sequence" dataDxfId="61"/>
-    <tableColumn id="2" name="guide_activity" dataDxfId="60"/>
-    <tableColumn id="3" name="guide_exon" dataDxfId="59"/>
-    <tableColumn id="4" name="guide_nuclease" dataDxfId="58"/>
+    <tableColumn id="1" name="guide_pam_sequence" dataDxfId="60"/>
+    <tableColumn id="2" name="guide_activity" dataDxfId="59"/>
+    <tableColumn id="3" name="guide_exon" dataDxfId="58"/>
+    <tableColumn id="4" name="guide_nuclease" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Table42" displayName="Table42" ref="A1:M9" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
-  <tableColumns count="13">
-    <tableColumn id="1" name="guide_name" dataDxfId="55"/>
-    <tableColumn id="2" name="experiment_type" dataDxfId="54"/>
-    <tableColumn id="3" name="guide_location" dataDxfId="53"/>
-    <tableColumn id="4" name="guide_strand" dataDxfId="52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Table42" displayName="Table42" ref="A1:L9" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
+  <tableColumns count="12">
+    <tableColumn id="1" name="guide_name" dataDxfId="54"/>
+    <tableColumn id="2" name="experiment_type" dataDxfId="53"/>
+    <tableColumn id="3" name="guide_location" dataDxfId="52"/>
     <tableColumn id="5" name="is_on_target" dataDxfId="51"/>
     <tableColumn id="6" name="dna_feature" dataDxfId="50"/>
     <tableColumn id="7" name="chrom" dataDxfId="49"/>
@@ -3853,7 +3860,7 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table43" displayName="Table43" ref="N1:O9" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table43" displayName="Table43" ref="M1:N9" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <tableColumns count="2">
     <tableColumn id="1" name="score" dataDxfId="40"/>
     <tableColumn id="2" name="description" dataDxfId="39"/>
@@ -3907,9 +3914,9 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A14:C18" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="119"/>
-    <tableColumn id="2" name="Column names" dataDxfId="118"/>
-    <tableColumn id="3" name="Description" dataDxfId="117"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="118"/>
+    <tableColumn id="2" name="Column names" dataDxfId="117"/>
+    <tableColumn id="3" name="Description" dataDxfId="116"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3928,81 +3935,81 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G9" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G9" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <tableColumns count="7">
-    <tableColumn id="1" name="target_genome" dataDxfId="8"/>
-    <tableColumn id="2" name="strand" dataDxfId="7"/>
-    <tableColumn id="3" name="dna_feature" dataDxfId="6"/>
-    <tableColumn id="4" name="is_true_or_false" dataDxfId="5"/>
-    <tableColumn id="5" name="cell_line_name" dataDxfId="4"/>
-    <tableColumn id="6" name="content_type" dataDxfId="3"/>
-    <tableColumn id="7" name="sequencing_dna_source" dataDxfId="2"/>
+    <tableColumn id="1" name="target_genome" dataDxfId="6"/>
+    <tableColumn id="2" name="strand" dataDxfId="5"/>
+    <tableColumn id="3" name="dna_feature" dataDxfId="4"/>
+    <tableColumn id="4" name="is_true_or_false" dataDxfId="3"/>
+    <tableColumn id="5" name="experiment_type" dataDxfId="2"/>
+    <tableColumn id="6" name="content_type" dataDxfId="1"/>
+    <tableColumn id="7" name="sequencing_dna_source" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A69:C74" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A68:C73" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="116"/>
-    <tableColumn id="2" name="Column names" dataDxfId="115"/>
-    <tableColumn id="3" name="Description" dataDxfId="114"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="115"/>
+    <tableColumn id="2" name="Column names" dataDxfId="114"/>
+    <tableColumn id="3" name="Description" dataDxfId="113"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A23:C37" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A23:C36" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="113"/>
-    <tableColumn id="2" name="Column names" dataDxfId="112"/>
-    <tableColumn id="3" name="Description" dataDxfId="111"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="112"/>
+    <tableColumn id="2" name="Column names" dataDxfId="111"/>
+    <tableColumn id="3" name="Description" dataDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A40:C45" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A39:C44" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="110"/>
-    <tableColumn id="2" name="Column names" dataDxfId="109"/>
-    <tableColumn id="3" name="Description" dataDxfId="108"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="109"/>
+    <tableColumn id="2" name="Column names" dataDxfId="108"/>
+    <tableColumn id="3" name="Description" dataDxfId="107"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A63:C68" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A62:C67" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="107"/>
-    <tableColumn id="2" name="Column names" dataDxfId="106"/>
-    <tableColumn id="3" name="Description" dataDxfId="105"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="106"/>
+    <tableColumn id="2" name="Column names" dataDxfId="105"/>
+    <tableColumn id="3" name="Description" dataDxfId="104"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="Table47" displayName="Table47" ref="A46:C62" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="Table47" displayName="Table47" ref="A45:C61" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="104" dataDxfId="103"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="102" dataDxfId="101"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="100" dataDxfId="99"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="103" dataDxfId="102"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="101" dataDxfId="100"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="99" dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="Table48" displayName="Table48" ref="A38:C39" headerRowCount="0" totalsRowShown="0" dataDxfId="98" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="Table48" displayName="Table48" ref="A37:C38" headerRowCount="0" totalsRowShown="0" dataDxfId="97" dataCellStyle="Normal">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="97" dataDxfId="96" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="95" dataDxfId="94" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="93" dataDxfId="92" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="96" dataDxfId="95" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="94" dataDxfId="93" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="92" dataDxfId="91" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4011,9 +4018,9 @@
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="Table49" displayName="Table49" ref="A19:C22" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="91" dataDxfId="90"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="89" dataDxfId="88"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="87" dataDxfId="86"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="90" dataDxfId="89"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="88" dataDxfId="87"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="86" dataDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4344,10 +4351,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -4359,43 +4366,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="32">
-      <c r="A1" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:3" ht="20">
-      <c r="A2" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
+      <c r="A2" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="18">
-      <c r="A3" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="A3" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="7" customFormat="1" ht="30" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4403,84 +4410,84 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="4" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="4" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="4" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15">
       <c r="A13" s="12"/>
       <c r="B13" s="12" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="11" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4488,7 +4495,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4496,7 +4503,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4504,58 +4511,58 @@
         <v>3</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" s="4" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" s="4" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" s="4" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="B22" s="4" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30">
       <c r="A24" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4563,7 +4570,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4571,7 +4578,7 @@
         <v>8</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4579,15 +4586,15 @@
         <v>9</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="B28" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>70</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4595,23 +4602,23 @@
         <v>12</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="B30" s="4" t="s">
-        <v>13</v>
+        <v>211</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>220</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="B31" s="4" t="s">
-        <v>221</v>
+        <v>13</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4619,7 +4626,7 @@
         <v>14</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4627,7 +4634,7 @@
         <v>15</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -4635,326 +4642,318 @@
         <v>16</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="9" customFormat="1">
+      <c r="A35" s="2"/>
       <c r="B35" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="9" customFormat="1">
-      <c r="A36" s="2"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="B36" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15">
+      <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>74</v>
+        <v>10</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15">
-      <c r="A39" s="3"/>
-      <c r="B39" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="30">
       <c r="A40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="30">
-      <c r="A41" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>217</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="B41" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="9" customFormat="1">
+      <c r="A42" s="2"/>
       <c r="B42" s="4" t="s">
-        <v>239</v>
+        <v>19</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="9" customFormat="1">
-      <c r="A43" s="2"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="B43" s="4" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>76</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="B44" s="4" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="B45" s="4" t="s">
-        <v>28</v>
+        <v>182</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="B46" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="B47" s="4" t="s">
-        <v>193</v>
+        <v>28</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="B48" s="4" t="s">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="B49" s="4" t="s">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="B50" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="B51" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="B52" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="B53" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>223</v>
+      <c r="B53" s="4"/>
+      <c r="C53" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="B54" s="4"/>
       <c r="C54" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="B55" s="4"/>
       <c r="C55" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="B56" s="4"/>
       <c r="C56" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="B57" s="4"/>
       <c r="C57" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="B58" s="4"/>
       <c r="C58" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="B59" s="4"/>
       <c r="C59" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="B60" s="4"/>
-      <c r="C60" s="6" t="s">
-        <v>84</v>
+      <c r="B60" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="B61" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="B62" s="4" t="s">
-        <v>24</v>
+      <c r="A62" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="30" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="30" customHeight="1">
-      <c r="A64" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>237</v>
+        <v>51</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="B64" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="B65" s="4" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="B66" s="4" t="s">
-        <v>241</v>
+        <v>26</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="B67" s="4" t="s">
-        <v>27</v>
+        <v>232</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="B68" s="4" t="s">
-        <v>242</v>
+      <c r="A68" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="30" customHeight="1">
       <c r="A69" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="30" customHeight="1">
-      <c r="A70" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="B70" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="B71" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="B72" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="B73" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="B74" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -5016,25 +5015,25 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5116,16 +5115,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -5152,7 +5151,7 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -5163,24 +5162,23 @@
     <col min="1" max="1" width="13" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1640625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="31.83203125" style="3" customWidth="1"/>
-    <col min="16" max="18" width="14.83203125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="10.33203125" style="3" customWidth="1"/>
-    <col min="20" max="16384" width="8.83203125" style="3"/>
+    <col min="4" max="4" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="31.83203125" style="3" customWidth="1"/>
+    <col min="15" max="17" width="14.83203125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" style="3" customWidth="1"/>
+    <col min="19" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1">
+    <row r="1" spans="1:14" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -5191,16 +5189,16 @@
         <v>9</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>221</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>14</v>
@@ -5218,16 +5216,13 @@
         <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:14">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -5240,7 +5235,6 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -5249,9 +5243,10 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -5260,19 +5255,19 @@
           <x14:formula1>
             <xm:f>Menus!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F1048576</xm:sqref>
+          <xm:sqref>E2:E1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Menus!$B$2:$B$3</xm:f>
+            <xm:f>Menus!$D$2:$D$3</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Menus!$D$2:$D$3</xm:f>
+            <xm:f>Menus!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E1048576</xm:sqref>
+          <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5315,814 +5310,814 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6138,7 +6133,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Menus!$D$2:$D$3</xm:f>
@@ -6156,12 +6151,6 @@
             <xm:f>Menus!$G$2:$G$5</xm:f>
           </x14:formula1>
           <xm:sqref>F2:F1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Menus!$E$2:$E$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>I2:I1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6193,16 +6182,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -6351,7 +6340,9 @@
   </sheetPr>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -6359,7 +6350,7 @@
     <col min="2" max="2" width="10.83203125" style="3"/>
     <col min="3" max="3" width="15.1640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="16.1640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="24.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.1640625" style="3" bestFit="1" customWidth="1"/>
@@ -6368,125 +6359,105 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>48</v>
+        <v>36</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>240</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="C4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="F5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="E5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="F6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="E6" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:8">
+      <c r="F7" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="E7" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" s="3" t="s">
+    <row r="8" spans="1:8">
+      <c r="F8" s="3" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="E8" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="E9" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:8">

--- a/data/templates/GEPXXXXX.xlsx
+++ b/data/templates/GEPXXXXX.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="240">
   <si>
     <t>description</t>
   </si>
@@ -782,9 +782,6 @@
       </rPr>
       <t>Guide@guide_name</t>
     </r>
-  </si>
-  <si>
-    <t>This corresponds to the name of the guide used to edit the cell clone and must match Guide@guide_name</t>
   </si>
   <si>
     <t>Name of the guide</t>
@@ -1684,7 +1681,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="41" builtinId="15"/>
   </cellStyles>
-  <dxfs count="122">
+  <dxfs count="121">
     <dxf>
       <font>
         <b val="0"/>
@@ -2212,23 +2209,6 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -3773,9 +3753,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:C12" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="121"/>
-    <tableColumn id="2" name="Column names" dataDxfId="120"/>
-    <tableColumn id="3" name="Description" dataDxfId="119"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="120"/>
+    <tableColumn id="2" name="Column names" dataDxfId="119"/>
+    <tableColumn id="3" name="Description" dataDxfId="118"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3784,97 +3764,96 @@
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="50" name="Table50" displayName="Table50" ref="A13:C13" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="84" dataDxfId="83"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="82" dataDxfId="81"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="80" dataDxfId="79"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="83" dataDxfId="82"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="81" dataDxfId="80"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="79" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="A1:G10" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="A1:G10" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
   <tableColumns count="7">
-    <tableColumn id="1" name="target_name" dataDxfId="76"/>
-    <tableColumn id="2" name="target_genome" dataDxfId="75"/>
-    <tableColumn id="3" name="target_gene_id" dataDxfId="74"/>
-    <tableColumn id="4" name="target_chrom" dataDxfId="73"/>
-    <tableColumn id="5" name="target_start" dataDxfId="72"/>
-    <tableColumn id="6" name="target_end" dataDxfId="71"/>
-    <tableColumn id="7" name="target_strand" dataDxfId="70"/>
+    <tableColumn id="1" name="target_name" dataDxfId="75"/>
+    <tableColumn id="2" name="target_genome" dataDxfId="74"/>
+    <tableColumn id="3" name="target_gene_id" dataDxfId="73"/>
+    <tableColumn id="4" name="target_chrom" dataDxfId="72"/>
+    <tableColumn id="5" name="target_start" dataDxfId="71"/>
+    <tableColumn id="6" name="target_end" dataDxfId="70"/>
+    <tableColumn id="7" name="target_strand" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table37" displayName="Table37" ref="H1:H10" totalsRowShown="0" dataDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table37" displayName="Table37" ref="H1:H10" totalsRowShown="0" dataDxfId="68">
   <tableColumns count="1">
-    <tableColumn id="1" name="target_description" dataDxfId="68"/>
+    <tableColumn id="1" name="target_description" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="A1:C10" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="A1:C10" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
   <tableColumns count="3">
-    <tableColumn id="1" name="target_name" dataDxfId="65"/>
-    <tableColumn id="2" name="guide_name" dataDxfId="64"/>
-    <tableColumn id="3" name="guide_sequence" dataDxfId="63"/>
+    <tableColumn id="1" name="target_name" dataDxfId="64"/>
+    <tableColumn id="2" name="guide_name" dataDxfId="63"/>
+    <tableColumn id="3" name="guide_sequence" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Table41" displayName="Table41" ref="D1:G10" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Table41" displayName="Table41" ref="D1:G10" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
   <tableColumns count="4">
-    <tableColumn id="1" name="guide_pam_sequence" dataDxfId="60"/>
-    <tableColumn id="2" name="guide_activity" dataDxfId="59"/>
-    <tableColumn id="3" name="guide_exon" dataDxfId="58"/>
-    <tableColumn id="4" name="guide_nuclease" dataDxfId="57"/>
+    <tableColumn id="1" name="guide_pam_sequence" dataDxfId="59"/>
+    <tableColumn id="2" name="guide_activity" dataDxfId="58"/>
+    <tableColumn id="3" name="guide_exon" dataDxfId="57"/>
+    <tableColumn id="4" name="guide_nuclease" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Table42" displayName="Table42" ref="A1:L9" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Table42" displayName="Table42" ref="A1:L9" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
   <tableColumns count="12">
-    <tableColumn id="1" name="guide_name" dataDxfId="54"/>
-    <tableColumn id="2" name="experiment_type" dataDxfId="53"/>
-    <tableColumn id="3" name="guide_location" dataDxfId="52"/>
-    <tableColumn id="5" name="is_on_target" dataDxfId="51"/>
-    <tableColumn id="6" name="dna_feature" dataDxfId="50"/>
-    <tableColumn id="7" name="chrom" dataDxfId="49"/>
-    <tableColumn id="8" name="forward_primer_sequence" dataDxfId="48"/>
-    <tableColumn id="9" name="forward_primer_start" dataDxfId="47"/>
-    <tableColumn id="10" name="forward_primer_end" dataDxfId="46"/>
-    <tableColumn id="11" name="reverse_primer_sequence" dataDxfId="45"/>
-    <tableColumn id="12" name="reverse_primer_start" dataDxfId="44"/>
-    <tableColumn id="13" name="reverse_primer_end" dataDxfId="43"/>
+    <tableColumn id="1" name="guide_name" dataDxfId="53"/>
+    <tableColumn id="2" name="experiment_type" dataDxfId="52"/>
+    <tableColumn id="3" name="guide_location" dataDxfId="51"/>
+    <tableColumn id="5" name="is_on_target" dataDxfId="50"/>
+    <tableColumn id="6" name="dna_feature" dataDxfId="49"/>
+    <tableColumn id="7" name="chrom" dataDxfId="48"/>
+    <tableColumn id="8" name="forward_primer_sequence" dataDxfId="47"/>
+    <tableColumn id="9" name="forward_primer_start" dataDxfId="46"/>
+    <tableColumn id="10" name="forward_primer_end" dataDxfId="45"/>
+    <tableColumn id="11" name="reverse_primer_sequence" dataDxfId="44"/>
+    <tableColumn id="12" name="reverse_primer_start" dataDxfId="43"/>
+    <tableColumn id="13" name="reverse_primer_end" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table43" displayName="Table43" ref="M1:N9" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table43" displayName="Table43" ref="M1:N9" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <tableColumns count="2">
-    <tableColumn id="1" name="score" dataDxfId="40"/>
-    <tableColumn id="2" name="description" dataDxfId="39"/>
+    <tableColumn id="1" name="score" dataDxfId="39"/>
+    <tableColumn id="2" name="description" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Table44" displayName="Table44" ref="A1:D97" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
-  <tableColumns count="4">
-    <tableColumn id="1" name="layout_id" dataDxfId="36"/>
-    <tableColumn id="2" name="well_position" dataDxfId="35"/>
-    <tableColumn id="6" name="guide_name" dataDxfId="34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Table44" displayName="Table44" ref="A1:C97" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+  <tableColumns count="3">
+    <tableColumn id="1" name="layout_id" dataDxfId="35"/>
+    <tableColumn id="2" name="well_position" dataDxfId="34"/>
     <tableColumn id="13" name="sequencing_barcode" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3882,7 +3861,7 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Table46" displayName="Table46" ref="E1:N97" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Table46" displayName="Table46" ref="D1:M97" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <tableColumns count="10">
     <tableColumn id="1" name="sequencing_sample_name" dataDxfId="30"/>
     <tableColumn id="2" name="sequencing_dna_source" dataDxfId="29"/>
@@ -3914,9 +3893,9 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A14:C18" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="118"/>
-    <tableColumn id="2" name="Column names" dataDxfId="117"/>
-    <tableColumn id="3" name="Description" dataDxfId="116"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="117"/>
+    <tableColumn id="2" name="Column names" dataDxfId="116"/>
+    <tableColumn id="3" name="Description" dataDxfId="115"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3950,11 +3929,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A68:C73" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A67:C72" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="115"/>
-    <tableColumn id="2" name="Column names" dataDxfId="114"/>
-    <tableColumn id="3" name="Description" dataDxfId="113"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="114"/>
+    <tableColumn id="2" name="Column names" dataDxfId="113"/>
+    <tableColumn id="3" name="Description" dataDxfId="112"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3963,53 +3942,53 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A23:C36" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="112"/>
-    <tableColumn id="2" name="Column names" dataDxfId="111"/>
-    <tableColumn id="3" name="Description" dataDxfId="110"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="111"/>
+    <tableColumn id="2" name="Column names" dataDxfId="110"/>
+    <tableColumn id="3" name="Description" dataDxfId="109"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A39:C44" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A39:C43" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="109"/>
-    <tableColumn id="2" name="Column names" dataDxfId="108"/>
-    <tableColumn id="3" name="Description" dataDxfId="107"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="108"/>
+    <tableColumn id="2" name="Column names" dataDxfId="107"/>
+    <tableColumn id="3" name="Description" dataDxfId="106"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A62:C67" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A61:C66" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="106"/>
-    <tableColumn id="2" name="Column names" dataDxfId="105"/>
-    <tableColumn id="3" name="Description" dataDxfId="104"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="105"/>
+    <tableColumn id="2" name="Column names" dataDxfId="104"/>
+    <tableColumn id="3" name="Description" dataDxfId="103"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="Table47" displayName="Table47" ref="A45:C61" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="Table47" displayName="Table47" ref="A44:C60" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="103" dataDxfId="102"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="101" dataDxfId="100"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="99" dataDxfId="98"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="102" dataDxfId="101"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="100" dataDxfId="99"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="98" dataDxfId="97"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="Table48" displayName="Table48" ref="A37:C38" headerRowCount="0" totalsRowShown="0" dataDxfId="97" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="Table48" displayName="Table48" ref="A37:C38" headerRowCount="0" totalsRowShown="0" dataDxfId="96" dataCellStyle="Normal">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="96" dataDxfId="95" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="94" dataDxfId="93" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="92" dataDxfId="91" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="95" dataDxfId="94" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="93" dataDxfId="92" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="91" dataDxfId="90" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4018,9 +3997,9 @@
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="Table49" displayName="Table49" ref="A19:C22" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="90" dataDxfId="89"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="88" dataDxfId="87"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="86" dataDxfId="85"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="89" dataDxfId="88"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="87" dataDxfId="86"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="85" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4351,10 +4330,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -4367,21 +4346,21 @@
   <sheetData>
     <row r="1" spans="1:3" ht="32">
       <c r="A1" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:3" ht="20">
       <c r="A2" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="18">
       <c r="A3" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -4410,7 +4389,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4418,7 +4397,7 @@
         <v>186</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4495,7 +4474,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4503,7 +4482,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4602,12 +4581,12 @@
         <v>12</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="B30" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>65</v>
@@ -4668,7 +4647,7 @@
         <v>10</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15">
@@ -4677,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -4693,18 +4672,18 @@
     </row>
     <row r="40" spans="1:3" ht="30">
       <c r="A40" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="B41" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="9" customFormat="1">
@@ -4718,55 +4697,55 @@
     </row>
     <row r="43" spans="1:3">
       <c r="B43" s="4" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="B44" s="4" t="s">
-        <v>27</v>
+        <v>182</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="B45" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="B46" s="4" t="s">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="B47" s="4" t="s">
-        <v>28</v>
+        <v>184</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="B48" s="4" t="s">
-        <v>184</v>
+        <v>20</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="B49" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>223</v>
@@ -4774,185 +4753,177 @@
     </row>
     <row r="50" spans="1:3">
       <c r="B50" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="B51" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="B52" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>213</v>
+      <c r="B52" s="4"/>
+      <c r="C52" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="B53" s="4"/>
       <c r="C53" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="B54" s="4"/>
       <c r="C54" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="B55" s="4"/>
       <c r="C55" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="B56" s="4"/>
       <c r="C56" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="B57" s="4"/>
       <c r="C57" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="B58" s="4"/>
       <c r="C58" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="B59" s="4"/>
-      <c r="C59" s="6" t="s">
-        <v>78</v>
+      <c r="B59" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="B60" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="B61" s="4" t="s">
-        <v>23</v>
+      <c r="A61" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="30" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="30" customHeight="1">
-      <c r="A63" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C62" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="B63" s="4" t="s">
         <v>227</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="B64" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="B65" s="4" t="s">
-        <v>231</v>
+        <v>26</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="B66" s="4" t="s">
-        <v>26</v>
+        <v>231</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="B67" s="4" t="s">
-        <v>232</v>
+      <c r="A67" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="30" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="30" customHeight="1">
-      <c r="A69" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="B69" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="B70" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="B71" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="B72" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="B73" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" s="5" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5195,7 +5166,7 @@
         <v>12</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>13</v>
@@ -5283,7 +5254,7 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:N97"/>
+  <dimension ref="A1:M97"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -5293,66 +5264,62 @@
   <cols>
     <col min="1" max="1" width="12.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.1640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="27.1640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="25.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="16.1640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="18.83203125" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="3"/>
+    <col min="3" max="3" width="21.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="16.1640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="18.83203125" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1">
+    <row r="1" spans="1:13" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>28</v>
+        <v>182</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>181</v>
       </c>
@@ -5360,7 +5327,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>181</v>
       </c>
@@ -5368,7 +5335,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:13">
       <c r="A4" s="3" t="s">
         <v>181</v>
       </c>
@@ -5376,7 +5343,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
         <v>181</v>
       </c>
@@ -5384,7 +5351,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:13">
       <c r="A6" s="3" t="s">
         <v>181</v>
       </c>
@@ -5392,7 +5359,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:13">
       <c r="A7" s="3" t="s">
         <v>181</v>
       </c>
@@ -5400,7 +5367,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:13">
       <c r="A8" s="3" t="s">
         <v>181</v>
       </c>
@@ -5408,7 +5375,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:13">
       <c r="A9" s="3" t="s">
         <v>181</v>
       </c>
@@ -5416,7 +5383,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
         <v>181</v>
       </c>
@@ -5424,7 +5391,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
         <v>181</v>
       </c>
@@ -5432,7 +5399,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
         <v>181</v>
       </c>
@@ -5440,7 +5407,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
         <v>181</v>
       </c>
@@ -5448,7 +5415,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:13">
       <c r="A14" s="3" t="s">
         <v>181</v>
       </c>
@@ -5456,7 +5423,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
         <v>181</v>
       </c>
@@ -5464,7 +5431,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:13">
       <c r="A16" s="3" t="s">
         <v>181</v>
       </c>
@@ -6138,19 +6105,19 @@
           <x14:formula1>
             <xm:f>Menus!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>M2:M1048576</xm:sqref>
+          <xm:sqref>L2:L1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Menus!$F$2:$F$8</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:L1048576</xm:sqref>
+          <xm:sqref>K2:K1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Menus!$G$2:$G$5</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F1048576</xm:sqref>
+          <xm:sqref>E2:E1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6182,16 +6149,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -6368,7 +6335,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>8</v>
@@ -6417,7 +6384,7 @@
         <v>37</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>29</v>

--- a/data/templates/GEPXXXXX.xlsx
+++ b/data/templates/GEPXXXXX.xlsx
@@ -14,7 +14,8 @@
     <sheet name="Layout" sheetId="6" r:id="rId5"/>
     <sheet name="Plate" sheetId="7" r:id="rId6"/>
     <sheet name="GuideMismatches" sheetId="4" r:id="rId7"/>
-    <sheet name="Menus" sheetId="9" r:id="rId8"/>
+    <sheet name="DesireEditedSequences" sheetId="11" r:id="rId8"/>
+    <sheet name="Menus" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="246">
   <si>
     <t>description</t>
   </si>
@@ -283,19 +284,6 @@
   </si>
   <si>
     <t>- empty-vector: A control with vector that harbours neither guide nor Cas9</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This ID must match </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Guide@name</t>
-    </r>
   </si>
   <si>
     <t>water</t>
@@ -1140,6 +1128,54 @@
   </si>
   <si>
     <t>knock-in</t>
+  </si>
+  <si>
+    <t>sequence_name</t>
+  </si>
+  <si>
+    <t>sequence</t>
+  </si>
+  <si>
+    <t>DesireEditedSequences</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This name must match </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Guide@name</t>
+    </r>
+  </si>
+  <si>
+    <t>The name of the sequence</t>
+  </si>
+  <si>
+    <t>The sequence</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>DesireEditedSequences</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> is the list of sequence to count the reads against. If not provided, all sequences above a certain threshold will be considered for counting the reads.   </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1265,7 +1301,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="191">
+  <cellStyleXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1309,6 +1345,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1488,7 +1538,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="191">
+  <cellStyles count="205">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1583,6 +1633,13 @@
     <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="42" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -1678,10 +1735,224 @@
     <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="41" builtinId="15"/>
   </cellStyles>
-  <dxfs count="121">
+  <dxfs count="128">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3173,109 +3444,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
         <color auto="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
@@ -3753,9 +3921,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:C12" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="120"/>
-    <tableColumn id="2" name="Column names" dataDxfId="119"/>
-    <tableColumn id="3" name="Description" dataDxfId="118"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="127"/>
+    <tableColumn id="2" name="Column names" dataDxfId="126"/>
+    <tableColumn id="3" name="Description" dataDxfId="125"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3764,127 +3932,126 @@
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="50" name="Table50" displayName="Table50" ref="A13:C13" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="83" dataDxfId="82"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="81" dataDxfId="80"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="79" dataDxfId="78"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="97" dataDxfId="96"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="95" dataDxfId="94"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="93" dataDxfId="92"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="A1:G10" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A73:C76" totalsRowShown="0">
+  <tableColumns count="3">
+    <tableColumn id="1" name="Tab name" dataDxfId="2"/>
+    <tableColumn id="2" name="Column names" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="A1:G10" totalsRowShown="0" headerRowDxfId="91" dataDxfId="90">
   <tableColumns count="7">
-    <tableColumn id="1" name="target_name" dataDxfId="75"/>
-    <tableColumn id="2" name="target_genome" dataDxfId="74"/>
-    <tableColumn id="3" name="target_gene_id" dataDxfId="73"/>
-    <tableColumn id="4" name="target_chrom" dataDxfId="72"/>
-    <tableColumn id="5" name="target_start" dataDxfId="71"/>
-    <tableColumn id="6" name="target_end" dataDxfId="70"/>
-    <tableColumn id="7" name="target_strand" dataDxfId="69"/>
+    <tableColumn id="1" name="target_name" dataDxfId="89"/>
+    <tableColumn id="2" name="target_genome" dataDxfId="88"/>
+    <tableColumn id="3" name="target_gene_id" dataDxfId="87"/>
+    <tableColumn id="4" name="target_chrom" dataDxfId="86"/>
+    <tableColumn id="5" name="target_start" dataDxfId="85"/>
+    <tableColumn id="6" name="target_end" dataDxfId="84"/>
+    <tableColumn id="7" name="target_strand" dataDxfId="83"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table37" displayName="Table37" ref="H1:H10" totalsRowShown="0" dataDxfId="68">
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table37" displayName="Table37" ref="H1:H10" totalsRowShown="0" dataDxfId="82">
   <tableColumns count="1">
-    <tableColumn id="1" name="target_description" dataDxfId="67"/>
+    <tableColumn id="1" name="target_description" dataDxfId="81"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="A1:C10" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="A1:C10" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
   <tableColumns count="3">
-    <tableColumn id="1" name="target_name" dataDxfId="64"/>
-    <tableColumn id="2" name="guide_name" dataDxfId="63"/>
-    <tableColumn id="3" name="guide_sequence" dataDxfId="62"/>
+    <tableColumn id="1" name="target_name" dataDxfId="78"/>
+    <tableColumn id="2" name="guide_name" dataDxfId="77"/>
+    <tableColumn id="3" name="guide_sequence" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Table41" displayName="Table41" ref="D1:G10" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Table41" displayName="Table41" ref="D1:G10" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
   <tableColumns count="4">
-    <tableColumn id="1" name="guide_pam_sequence" dataDxfId="59"/>
-    <tableColumn id="2" name="guide_activity" dataDxfId="58"/>
-    <tableColumn id="3" name="guide_exon" dataDxfId="57"/>
-    <tableColumn id="4" name="guide_nuclease" dataDxfId="56"/>
+    <tableColumn id="1" name="guide_pam_sequence" dataDxfId="73"/>
+    <tableColumn id="2" name="guide_activity" dataDxfId="72"/>
+    <tableColumn id="3" name="guide_exon" dataDxfId="71"/>
+    <tableColumn id="4" name="guide_nuclease" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Table42" displayName="Table42" ref="A1:L9" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Table42" displayName="Table42" ref="A1:L9" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
   <tableColumns count="12">
-    <tableColumn id="1" name="guide_name" dataDxfId="53"/>
-    <tableColumn id="2" name="experiment_type" dataDxfId="52"/>
-    <tableColumn id="3" name="guide_location" dataDxfId="51"/>
-    <tableColumn id="5" name="is_on_target" dataDxfId="50"/>
-    <tableColumn id="6" name="dna_feature" dataDxfId="49"/>
-    <tableColumn id="7" name="chrom" dataDxfId="48"/>
-    <tableColumn id="8" name="forward_primer_sequence" dataDxfId="47"/>
-    <tableColumn id="9" name="forward_primer_start" dataDxfId="46"/>
-    <tableColumn id="10" name="forward_primer_end" dataDxfId="45"/>
-    <tableColumn id="11" name="reverse_primer_sequence" dataDxfId="44"/>
-    <tableColumn id="12" name="reverse_primer_start" dataDxfId="43"/>
-    <tableColumn id="13" name="reverse_primer_end" dataDxfId="42"/>
+    <tableColumn id="1" name="guide_name" dataDxfId="67"/>
+    <tableColumn id="2" name="experiment_type" dataDxfId="66"/>
+    <tableColumn id="3" name="guide_location" dataDxfId="65"/>
+    <tableColumn id="5" name="is_on_target" dataDxfId="64"/>
+    <tableColumn id="6" name="dna_feature" dataDxfId="63"/>
+    <tableColumn id="7" name="chrom" dataDxfId="62"/>
+    <tableColumn id="8" name="forward_primer_sequence" dataDxfId="61"/>
+    <tableColumn id="9" name="forward_primer_start" dataDxfId="60"/>
+    <tableColumn id="10" name="forward_primer_end" dataDxfId="59"/>
+    <tableColumn id="11" name="reverse_primer_sequence" dataDxfId="58"/>
+    <tableColumn id="12" name="reverse_primer_start" dataDxfId="57"/>
+    <tableColumn id="13" name="reverse_primer_end" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table43" displayName="Table43" ref="M1:N9" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table43" displayName="Table43" ref="M1:N9" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
   <tableColumns count="2">
-    <tableColumn id="1" name="score" dataDxfId="39"/>
-    <tableColumn id="2" name="description" dataDxfId="38"/>
+    <tableColumn id="1" name="score" dataDxfId="53"/>
+    <tableColumn id="2" name="description" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Table44" displayName="Table44" ref="A1:C97" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Table44" displayName="Table44" ref="A1:C97" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
   <tableColumns count="3">
-    <tableColumn id="1" name="layout_id" dataDxfId="35"/>
-    <tableColumn id="2" name="well_position" dataDxfId="34"/>
-    <tableColumn id="13" name="sequencing_barcode" dataDxfId="33"/>
+    <tableColumn id="1" name="layout_id" dataDxfId="49"/>
+    <tableColumn id="2" name="well_position" dataDxfId="48"/>
+    <tableColumn id="13" name="sequencing_barcode" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Table46" displayName="Table46" ref="D1:M97" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Table46" displayName="Table46" ref="D1:M97" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
   <tableColumns count="10">
-    <tableColumn id="1" name="sequencing_sample_name" dataDxfId="30"/>
-    <tableColumn id="2" name="sequencing_dna_source" dataDxfId="29"/>
-    <tableColumn id="3" name="sequencing_library_type" dataDxfId="28"/>
-    <tableColumn id="4" name="sequencing_project_id" dataDxfId="27"/>
-    <tableColumn id="5" name="cell_line_name" dataDxfId="26"/>
-    <tableColumn id="6" name="cell_pool" dataDxfId="25"/>
-    <tableColumn id="7" name="clone_name" dataDxfId="24"/>
-    <tableColumn id="8" name="content_type" dataDxfId="23"/>
-    <tableColumn id="9" name="is_control" dataDxfId="22"/>
-    <tableColumn id="10" name="replicate_group" dataDxfId="21"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="51" name="Table51" displayName="Table51" ref="A1:D10" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <tableColumns count="4">
-    <tableColumn id="1" name="layout_id" dataDxfId="18"/>
-    <tableColumn id="2" name="plate_name" dataDxfId="17"/>
-    <tableColumn id="5" name="plate_barcode" dataDxfId="16"/>
-    <tableColumn id="4" name="plate_description" dataDxfId="15"/>
+    <tableColumn id="1" name="sequencing_sample_name" dataDxfId="44"/>
+    <tableColumn id="2" name="sequencing_dna_source" dataDxfId="43"/>
+    <tableColumn id="3" name="sequencing_library_type" dataDxfId="42"/>
+    <tableColumn id="4" name="sequencing_project_id" dataDxfId="41"/>
+    <tableColumn id="5" name="cell_line_name" dataDxfId="40"/>
+    <tableColumn id="6" name="cell_pool" dataDxfId="39"/>
+    <tableColumn id="7" name="clone_name" dataDxfId="38"/>
+    <tableColumn id="8" name="content_type" dataDxfId="37"/>
+    <tableColumn id="9" name="is_control" dataDxfId="36"/>
+    <tableColumn id="10" name="replicate_group" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3893,36 +4060,58 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A14:C18" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="117"/>
-    <tableColumn id="2" name="Column names" dataDxfId="116"/>
-    <tableColumn id="3" name="Description" dataDxfId="115"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="124"/>
+    <tableColumn id="2" name="Column names" dataDxfId="123"/>
+    <tableColumn id="3" name="Description" dataDxfId="122"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="A1:D11" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="51" name="Table51" displayName="Table51" ref="A1:D10" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <tableColumns count="4">
-    <tableColumn id="1" name="guide_name" dataDxfId="12"/>
-    <tableColumn id="2" name="is_off_target_coding_region" dataDxfId="11"/>
-    <tableColumn id="3" name="number_of_mismatches" dataDxfId="10"/>
-    <tableColumn id="4" name="number_of_off_targets" dataDxfId="9"/>
+    <tableColumn id="1" name="layout_id" dataDxfId="32"/>
+    <tableColumn id="2" name="plate_name" dataDxfId="31"/>
+    <tableColumn id="5" name="plate_barcode" dataDxfId="30"/>
+    <tableColumn id="4" name="plate_description" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G9" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="A1:D11" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+  <tableColumns count="4">
+    <tableColumn id="1" name="guide_name" dataDxfId="26"/>
+    <tableColumn id="2" name="is_off_target_coding_region" dataDxfId="25"/>
+    <tableColumn id="3" name="number_of_mismatches" dataDxfId="24"/>
+    <tableColumn id="4" name="number_of_off_targets" dataDxfId="23"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A1:B9" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <tableColumns count="2">
+    <tableColumn id="1" name="sequence_name" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="sequence" dataDxfId="5" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G9" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <tableColumns count="7">
-    <tableColumn id="1" name="target_genome" dataDxfId="6"/>
-    <tableColumn id="2" name="strand" dataDxfId="5"/>
-    <tableColumn id="3" name="dna_feature" dataDxfId="4"/>
-    <tableColumn id="4" name="is_true_or_false" dataDxfId="3"/>
-    <tableColumn id="5" name="experiment_type" dataDxfId="2"/>
-    <tableColumn id="6" name="content_type" dataDxfId="1"/>
-    <tableColumn id="7" name="sequencing_dna_source" dataDxfId="0"/>
+    <tableColumn id="1" name="target_genome" dataDxfId="20"/>
+    <tableColumn id="2" name="strand" dataDxfId="19"/>
+    <tableColumn id="3" name="dna_feature" dataDxfId="18"/>
+    <tableColumn id="4" name="is_true_or_false" dataDxfId="17"/>
+    <tableColumn id="5" name="experiment_type" dataDxfId="16"/>
+    <tableColumn id="6" name="content_type" dataDxfId="15"/>
+    <tableColumn id="7" name="sequencing_dna_source" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3931,9 +4120,9 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A67:C72" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="114"/>
-    <tableColumn id="2" name="Column names" dataDxfId="113"/>
-    <tableColumn id="3" name="Description" dataDxfId="112"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="121"/>
+    <tableColumn id="2" name="Column names" dataDxfId="120"/>
+    <tableColumn id="3" name="Description" dataDxfId="119"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3942,9 +4131,9 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A23:C36" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="111"/>
-    <tableColumn id="2" name="Column names" dataDxfId="110"/>
-    <tableColumn id="3" name="Description" dataDxfId="109"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="118"/>
+    <tableColumn id="2" name="Column names" dataDxfId="117"/>
+    <tableColumn id="3" name="Description" dataDxfId="116"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3953,9 +4142,9 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A39:C43" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="108"/>
-    <tableColumn id="2" name="Column names" dataDxfId="107"/>
-    <tableColumn id="3" name="Description" dataDxfId="106"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="115"/>
+    <tableColumn id="2" name="Column names" dataDxfId="114"/>
+    <tableColumn id="3" name="Description" dataDxfId="113"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3964,9 +4153,9 @@
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A61:C66" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="105"/>
-    <tableColumn id="2" name="Column names" dataDxfId="104"/>
-    <tableColumn id="3" name="Description" dataDxfId="103"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="112"/>
+    <tableColumn id="2" name="Column names" dataDxfId="111"/>
+    <tableColumn id="3" name="Description" dataDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3975,20 +4164,20 @@
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="Table47" displayName="Table47" ref="A44:C60" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="102" dataDxfId="101"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="100" dataDxfId="99"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="98" dataDxfId="97"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="109" dataDxfId="108"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="107" dataDxfId="106"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="105" dataDxfId="104"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="Table48" displayName="Table48" ref="A37:C38" headerRowCount="0" totalsRowShown="0" dataDxfId="96" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="Table48" displayName="Table48" ref="A37:C38" headerRowCount="0" totalsRowShown="0" dataDxfId="7" dataCellStyle="Normal">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="95" dataDxfId="94" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="93" dataDxfId="92" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="91" dataDxfId="90" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="13" dataDxfId="12" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="11" dataDxfId="10" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="9" dataDxfId="8" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3997,9 +4186,9 @@
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="Table49" displayName="Table49" ref="A19:C22" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="89" dataDxfId="88"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="87" dataDxfId="86"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="85" dataDxfId="84"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="103" dataDxfId="102"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="101" dataDxfId="100"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="99" dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4330,7 +4519,7 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:C3"/>
@@ -4346,28 +4535,28 @@
   <sheetData>
     <row r="1" spans="1:3" ht="32">
       <c r="A1" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:3" ht="20">
       <c r="A2" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="18">
       <c r="A3" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>58</v>
@@ -4381,7 +4570,7 @@
         <v>48</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4389,28 +4578,28 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>53</v>
@@ -4418,7 +4607,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>54</v>
@@ -4426,7 +4615,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>55</v>
@@ -4434,7 +4623,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>56</v>
@@ -4443,15 +4632,15 @@
     <row r="13" spans="1:3" ht="15">
       <c r="A13" s="12"/>
       <c r="B13" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>58</v>
@@ -4466,7 +4655,7 @@
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4474,7 +4663,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4482,7 +4671,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4495,39 +4684,39 @@
     </row>
     <row r="19" spans="1:3">
       <c r="B19" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="B22" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>58</v>
@@ -4538,7 +4727,7 @@
     </row>
     <row r="24" spans="1:3" ht="30">
       <c r="A24" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>62</v>
@@ -4549,7 +4738,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4573,7 +4762,7 @@
         <v>11</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4581,12 +4770,12 @@
         <v>12</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="B30" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>65</v>
@@ -4647,7 +4836,7 @@
         <v>10</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15">
@@ -4656,12 +4845,12 @@
         <v>0</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>58</v>
@@ -4672,22 +4861,21 @@
     </row>
     <row r="40" spans="1:3" ht="30">
       <c r="A40" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="B41" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="9" customFormat="1">
-      <c r="A42" s="2"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="B42" s="4" t="s">
         <v>19</v>
       </c>
@@ -4700,23 +4888,23 @@
         <v>27</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="B44" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="B45" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -4724,15 +4912,15 @@
         <v>28</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="B47" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -4740,7 +4928,7 @@
         <v>20</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -4748,7 +4936,7 @@
         <v>22</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -4756,7 +4944,7 @@
         <v>21</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -4764,7 +4952,7 @@
         <v>25</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -4803,7 +4991,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" ht="30" customHeight="1">
       <c r="B58" s="4"/>
       <c r="C58" s="6" t="s">
         <v>78</v>
@@ -4814,7 +5002,7 @@
         <v>24</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -4822,12 +5010,12 @@
         <v>23</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>58</v>
@@ -4836,28 +5024,28 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="30" customHeight="1">
+    <row r="62" spans="1:3" ht="45">
       <c r="A62" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="B63" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C63" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="30" customHeight="1">
+      <c r="B64" s="4" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="B64" s="4" t="s">
-        <v>230</v>
-      </c>
       <c r="C64" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -4865,20 +5053,20 @@
         <v>26</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="B66" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>58</v>
@@ -4887,7 +5075,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="30" customHeight="1">
+    <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
         <v>50</v>
       </c>
@@ -4900,7 +5088,7 @@
         <v>4</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>79</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -4925,6 +5113,41 @@
       </c>
       <c r="C72" s="5" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="30">
+      <c r="A74" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="B75" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="B76" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -4936,7 +5159,7 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <tableParts count="10">
+  <tableParts count="11">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -4947,6 +5170,7 @@
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
     <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -4986,25 +5210,25 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>190</v>
-      </c>
       <c r="H1" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5086,16 +5310,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -5166,7 +5390,7 @@
         <v>12</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>13</v>
@@ -5280,7 +5504,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>19</v>
@@ -5292,13 +5516,13 @@
         <v>28</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>20</v>
@@ -5321,770 +5545,770 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -6149,16 +6373,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -6187,7 +6411,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -6303,6 +6527,77 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="6"/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="136.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15">
+      <c r="A1" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" ht="15">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" ht="15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" ht="15">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" ht="15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" ht="15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" ht="15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" ht="15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:H12"/>
@@ -6326,7 +6621,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -6335,7 +6630,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>8</v>
@@ -6344,7 +6639,7 @@
         <v>25</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -6384,7 +6679,7 @@
         <v>37</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>29</v>
@@ -6409,7 +6704,7 @@
         <v>40</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:8">

--- a/data/templates/GEPXXXXX.xlsx
+++ b/data/templates/GEPXXXXX.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="0" windowWidth="25600" windowHeight="16720" tabRatio="736"/>
+    <workbookView xWindow="2460" yWindow="20" windowWidth="25600" windowHeight="16720" tabRatio="736"/>
   </bookViews>
   <sheets>
     <sheet name="Help" sheetId="10" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="249">
   <si>
     <t>description</t>
   </si>
@@ -1139,6 +1139,38 @@
     <t>DesireEditedSequences</t>
   </si>
   <si>
+    <t>The name of the sequence</t>
+  </si>
+  <si>
+    <t>The sequence</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>DesireEditedSequences</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> is the list of sequence to count the reads against. If not provided, all sequences above a certain threshold will be considered for counting the reads.   </t>
+    </r>
+  </si>
+  <si>
+    <t>amplicon_name</t>
+  </si>
+  <si>
+    <t>The name of the Amplicon. This name must be unique within this project.</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">This name must match </t>
     </r>
@@ -1148,33 +1180,20 @@
         <sz val="12"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>Guide@name</t>
+      <t>Guide@guide_name</t>
     </r>
   </si>
   <si>
-    <t>The name of the sequence</t>
-  </si>
-  <si>
-    <t>The sequence</t>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">The </t>
+      <t>This name must match</t>
     </r>
     <r>
       <rPr>
-        <b/>
+        <u/>
         <sz val="12"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>DesireEditedSequences</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> is the list of sequence to count the reads against. If not provided, all sequences above a certain threshold will be considered for counting the reads.   </t>
+      <t xml:space="preserve"> Amplicon@amplicon_name</t>
     </r>
   </si>
 </sst>
@@ -1508,7 +1527,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1537,6 +1556,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="205">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1745,7 +1765,1359 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="41" builtinId="15"/>
   </cellStyles>
-  <dxfs count="128">
+  <dxfs count="130">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1793,1431 +3165,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
         <color auto="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
@@ -3444,6 +3391,109 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
         <color auto="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
@@ -3881,7 +3931,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>170822</xdr:colOff>
+      <xdr:colOff>843922</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
@@ -3921,9 +3971,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:C12" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="127"/>
-    <tableColumn id="2" name="Column names" dataDxfId="126"/>
-    <tableColumn id="3" name="Description" dataDxfId="125"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="129"/>
+    <tableColumn id="2" name="Column names" dataDxfId="128"/>
+    <tableColumn id="3" name="Description" dataDxfId="127"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3932,126 +3982,127 @@
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="50" name="Table50" displayName="Table50" ref="A13:C13" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="97" dataDxfId="96"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="95" dataDxfId="94"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="93" dataDxfId="92"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="92" dataDxfId="91"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="90" dataDxfId="89"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="88" dataDxfId="87"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A73:C76" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A74:C78" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="2"/>
-    <tableColumn id="2" name="Column names" dataDxfId="1"/>
-    <tableColumn id="3" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="86"/>
+    <tableColumn id="2" name="Column names" dataDxfId="85"/>
+    <tableColumn id="3" name="Description" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="A1:G10" totalsRowShown="0" headerRowDxfId="91" dataDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="A1:G10" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
   <tableColumns count="7">
-    <tableColumn id="1" name="target_name" dataDxfId="89"/>
-    <tableColumn id="2" name="target_genome" dataDxfId="88"/>
-    <tableColumn id="3" name="target_gene_id" dataDxfId="87"/>
-    <tableColumn id="4" name="target_chrom" dataDxfId="86"/>
-    <tableColumn id="5" name="target_start" dataDxfId="85"/>
-    <tableColumn id="6" name="target_end" dataDxfId="84"/>
-    <tableColumn id="7" name="target_strand" dataDxfId="83"/>
+    <tableColumn id="1" name="target_name" dataDxfId="81"/>
+    <tableColumn id="2" name="target_genome" dataDxfId="80"/>
+    <tableColumn id="3" name="target_gene_id" dataDxfId="79"/>
+    <tableColumn id="4" name="target_chrom" dataDxfId="78"/>
+    <tableColumn id="5" name="target_start" dataDxfId="77"/>
+    <tableColumn id="6" name="target_end" dataDxfId="76"/>
+    <tableColumn id="7" name="target_strand" dataDxfId="75"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table37" displayName="Table37" ref="H1:H10" totalsRowShown="0" dataDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table37" displayName="Table37" ref="H1:H10" totalsRowShown="0" dataDxfId="74">
   <tableColumns count="1">
-    <tableColumn id="1" name="target_description" dataDxfId="81"/>
+    <tableColumn id="1" name="target_description" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="A1:C10" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="A1:C10" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
   <tableColumns count="3">
-    <tableColumn id="1" name="target_name" dataDxfId="78"/>
-    <tableColumn id="2" name="guide_name" dataDxfId="77"/>
-    <tableColumn id="3" name="guide_sequence" dataDxfId="76"/>
+    <tableColumn id="1" name="target_name" dataDxfId="70"/>
+    <tableColumn id="2" name="guide_name" dataDxfId="69"/>
+    <tableColumn id="3" name="guide_sequence" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Table41" displayName="Table41" ref="D1:G10" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Table41" displayName="Table41" ref="D1:G10" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
   <tableColumns count="4">
-    <tableColumn id="1" name="guide_pam_sequence" dataDxfId="73"/>
-    <tableColumn id="2" name="guide_activity" dataDxfId="72"/>
-    <tableColumn id="3" name="guide_exon" dataDxfId="71"/>
-    <tableColumn id="4" name="guide_nuclease" dataDxfId="70"/>
+    <tableColumn id="1" name="guide_pam_sequence" dataDxfId="65"/>
+    <tableColumn id="2" name="guide_activity" dataDxfId="64"/>
+    <tableColumn id="3" name="guide_exon" dataDxfId="63"/>
+    <tableColumn id="4" name="guide_nuclease" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Table42" displayName="Table42" ref="A1:L9" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
-  <tableColumns count="12">
-    <tableColumn id="1" name="guide_name" dataDxfId="67"/>
-    <tableColumn id="2" name="experiment_type" dataDxfId="66"/>
-    <tableColumn id="3" name="guide_location" dataDxfId="65"/>
-    <tableColumn id="5" name="is_on_target" dataDxfId="64"/>
-    <tableColumn id="6" name="dna_feature" dataDxfId="63"/>
-    <tableColumn id="7" name="chrom" dataDxfId="62"/>
-    <tableColumn id="8" name="forward_primer_sequence" dataDxfId="61"/>
-    <tableColumn id="9" name="forward_primer_start" dataDxfId="60"/>
-    <tableColumn id="10" name="forward_primer_end" dataDxfId="59"/>
-    <tableColumn id="11" name="reverse_primer_sequence" dataDxfId="58"/>
-    <tableColumn id="12" name="reverse_primer_start" dataDxfId="57"/>
-    <tableColumn id="13" name="reverse_primer_end" dataDxfId="56"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Table42" displayName="Table42" ref="A1:M9" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+  <tableColumns count="13">
+    <tableColumn id="4" name="amplicon_name" dataDxfId="0"/>
+    <tableColumn id="1" name="guide_name" dataDxfId="59"/>
+    <tableColumn id="2" name="experiment_type" dataDxfId="58"/>
+    <tableColumn id="3" name="guide_location" dataDxfId="57"/>
+    <tableColumn id="5" name="is_on_target" dataDxfId="56"/>
+    <tableColumn id="6" name="dna_feature" dataDxfId="55"/>
+    <tableColumn id="7" name="chrom" dataDxfId="54"/>
+    <tableColumn id="8" name="forward_primer_sequence" dataDxfId="53"/>
+    <tableColumn id="9" name="forward_primer_start" dataDxfId="52"/>
+    <tableColumn id="10" name="forward_primer_end" dataDxfId="51"/>
+    <tableColumn id="11" name="reverse_primer_sequence" dataDxfId="50"/>
+    <tableColumn id="12" name="reverse_primer_start" dataDxfId="49"/>
+    <tableColumn id="13" name="reverse_primer_end" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table43" displayName="Table43" ref="M1:N9" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table43" displayName="Table43" ref="N1:O9" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <tableColumns count="2">
-    <tableColumn id="1" name="score" dataDxfId="53"/>
-    <tableColumn id="2" name="description" dataDxfId="52"/>
+    <tableColumn id="1" name="score" dataDxfId="45"/>
+    <tableColumn id="2" name="description" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Table44" displayName="Table44" ref="A1:C97" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Table44" displayName="Table44" ref="A1:C97" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
   <tableColumns count="3">
-    <tableColumn id="1" name="layout_id" dataDxfId="49"/>
-    <tableColumn id="2" name="well_position" dataDxfId="48"/>
-    <tableColumn id="13" name="sequencing_barcode" dataDxfId="47"/>
+    <tableColumn id="1" name="layout_id" dataDxfId="41"/>
+    <tableColumn id="2" name="well_position" dataDxfId="40"/>
+    <tableColumn id="13" name="sequencing_barcode" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Table46" displayName="Table46" ref="D1:M97" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Table46" displayName="Table46" ref="D1:M97" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <tableColumns count="10">
-    <tableColumn id="1" name="sequencing_sample_name" dataDxfId="44"/>
-    <tableColumn id="2" name="sequencing_dna_source" dataDxfId="43"/>
-    <tableColumn id="3" name="sequencing_library_type" dataDxfId="42"/>
-    <tableColumn id="4" name="sequencing_project_id" dataDxfId="41"/>
-    <tableColumn id="5" name="cell_line_name" dataDxfId="40"/>
-    <tableColumn id="6" name="cell_pool" dataDxfId="39"/>
-    <tableColumn id="7" name="clone_name" dataDxfId="38"/>
-    <tableColumn id="8" name="content_type" dataDxfId="37"/>
-    <tableColumn id="9" name="is_control" dataDxfId="36"/>
-    <tableColumn id="10" name="replicate_group" dataDxfId="35"/>
+    <tableColumn id="1" name="sequencing_sample_name" dataDxfId="36"/>
+    <tableColumn id="2" name="sequencing_dna_source" dataDxfId="35"/>
+    <tableColumn id="3" name="sequencing_library_type" dataDxfId="34"/>
+    <tableColumn id="4" name="sequencing_project_id" dataDxfId="33"/>
+    <tableColumn id="5" name="cell_line_name" dataDxfId="32"/>
+    <tableColumn id="6" name="cell_pool" dataDxfId="31"/>
+    <tableColumn id="7" name="clone_name" dataDxfId="30"/>
+    <tableColumn id="8" name="content_type" dataDxfId="29"/>
+    <tableColumn id="9" name="is_control" dataDxfId="28"/>
+    <tableColumn id="10" name="replicate_group" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4060,124 +4111,125 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A14:C18" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="124"/>
-    <tableColumn id="2" name="Column names" dataDxfId="123"/>
-    <tableColumn id="3" name="Description" dataDxfId="122"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="126"/>
+    <tableColumn id="2" name="Column names" dataDxfId="125"/>
+    <tableColumn id="3" name="Description" dataDxfId="124"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="51" name="Table51" displayName="Table51" ref="A1:D10" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="51" name="Table51" displayName="Table51" ref="A1:D10" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <tableColumns count="4">
-    <tableColumn id="1" name="layout_id" dataDxfId="32"/>
-    <tableColumn id="2" name="plate_name" dataDxfId="31"/>
-    <tableColumn id="5" name="plate_barcode" dataDxfId="30"/>
-    <tableColumn id="4" name="plate_description" dataDxfId="29"/>
+    <tableColumn id="1" name="layout_id" dataDxfId="24"/>
+    <tableColumn id="2" name="plate_name" dataDxfId="23"/>
+    <tableColumn id="5" name="plate_barcode" dataDxfId="22"/>
+    <tableColumn id="4" name="plate_description" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="A1:D11" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="A1:D11" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <tableColumns count="4">
-    <tableColumn id="1" name="guide_name" dataDxfId="26"/>
-    <tableColumn id="2" name="is_off_target_coding_region" dataDxfId="25"/>
-    <tableColumn id="3" name="number_of_mismatches" dataDxfId="24"/>
-    <tableColumn id="4" name="number_of_off_targets" dataDxfId="23"/>
+    <tableColumn id="1" name="guide_name" dataDxfId="18"/>
+    <tableColumn id="2" name="is_off_target_coding_region" dataDxfId="17"/>
+    <tableColumn id="3" name="number_of_mismatches" dataDxfId="16"/>
+    <tableColumn id="4" name="number_of_off_targets" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A1:B9" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <tableColumns count="2">
-    <tableColumn id="1" name="sequence_name" dataDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="sequence" dataDxfId="5" dataCellStyle="Normal"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A1:C9" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <tableColumns count="3">
+    <tableColumn id="4" name="amplicon_name" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="sequence_name" dataDxfId="12" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="sequence" dataDxfId="11" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G9" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G9" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <tableColumns count="7">
-    <tableColumn id="1" name="target_genome" dataDxfId="20"/>
-    <tableColumn id="2" name="strand" dataDxfId="19"/>
-    <tableColumn id="3" name="dna_feature" dataDxfId="18"/>
-    <tableColumn id="4" name="is_true_or_false" dataDxfId="17"/>
-    <tableColumn id="5" name="experiment_type" dataDxfId="16"/>
-    <tableColumn id="6" name="content_type" dataDxfId="15"/>
-    <tableColumn id="7" name="sequencing_dna_source" dataDxfId="14"/>
+    <tableColumn id="1" name="target_genome" dataDxfId="8"/>
+    <tableColumn id="2" name="strand" dataDxfId="7"/>
+    <tableColumn id="3" name="dna_feature" dataDxfId="6"/>
+    <tableColumn id="4" name="is_true_or_false" dataDxfId="5"/>
+    <tableColumn id="5" name="experiment_type" dataDxfId="4"/>
+    <tableColumn id="6" name="content_type" dataDxfId="3"/>
+    <tableColumn id="7" name="sequencing_dna_source" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A67:C72" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A68:C73" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="121"/>
-    <tableColumn id="2" name="Column names" dataDxfId="120"/>
-    <tableColumn id="3" name="Description" dataDxfId="119"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="123"/>
+    <tableColumn id="2" name="Column names" dataDxfId="122"/>
+    <tableColumn id="3" name="Description" dataDxfId="121"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A23:C36" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A23:C37" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="118"/>
-    <tableColumn id="2" name="Column names" dataDxfId="117"/>
-    <tableColumn id="3" name="Description" dataDxfId="116"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="120"/>
+    <tableColumn id="2" name="Column names" dataDxfId="119"/>
+    <tableColumn id="3" name="Description" dataDxfId="118"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A39:C43" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A40:C44" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="115"/>
-    <tableColumn id="2" name="Column names" dataDxfId="114"/>
-    <tableColumn id="3" name="Description" dataDxfId="113"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="117"/>
+    <tableColumn id="2" name="Column names" dataDxfId="116"/>
+    <tableColumn id="3" name="Description" dataDxfId="115"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A61:C66" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A62:C67" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="112"/>
-    <tableColumn id="2" name="Column names" dataDxfId="111"/>
-    <tableColumn id="3" name="Description" dataDxfId="110"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="114"/>
+    <tableColumn id="2" name="Column names" dataDxfId="113"/>
+    <tableColumn id="3" name="Description" dataDxfId="112"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="Table47" displayName="Table47" ref="A44:C60" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="Table47" displayName="Table47" ref="A45:C61" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="109" dataDxfId="108"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="107" dataDxfId="106"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="105" dataDxfId="104"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="111" dataDxfId="110"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="109" dataDxfId="108"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="107" dataDxfId="106"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="Table48" displayName="Table48" ref="A37:C38" headerRowCount="0" totalsRowShown="0" dataDxfId="7" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="Table48" displayName="Table48" ref="A38:C39" headerRowCount="0" totalsRowShown="0" dataDxfId="105" dataCellStyle="Normal">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="13" dataDxfId="12" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="11" dataDxfId="10" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="9" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="104" dataDxfId="103" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="102" dataDxfId="101" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="100" dataDxfId="99" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4186,9 +4238,9 @@
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="Table49" displayName="Table49" ref="A19:C22" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="103" dataDxfId="102"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="101" dataDxfId="100"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="99" dataDxfId="98"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="98" dataDxfId="97"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="96" dataDxfId="95"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="94" dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4519,7 +4571,7 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:C3"/>
@@ -4735,419 +4787,435 @@
     </row>
     <row r="25" spans="1:3">
       <c r="B25" s="4" t="s">
-        <v>4</v>
+        <v>245</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>202</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="B26" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>63</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="B28" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>201</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="B30" s="4" t="s">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>65</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="B31" s="4" t="s">
-        <v>13</v>
+        <v>209</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="B32" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="B33" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="B34" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="9" customFormat="1">
       <c r="A35" s="2"/>
       <c r="B35" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="B36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="B37" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15">
-      <c r="A37" s="3"/>
-      <c r="B37" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2" t="s">
+    <row r="40" spans="1:3">
+      <c r="A40" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30">
-      <c r="A40" s="2" t="s">
+    <row r="41" spans="1:3" ht="30">
+      <c r="A41" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C41" s="14" t="s">
         <v>213</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="B41" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="B42" s="4" t="s">
-        <v>19</v>
+        <v>227</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>70</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="B43" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>217</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="B44" s="4" t="s">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="B45" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="B46" s="4" t="s">
-        <v>28</v>
+        <v>182</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="B47" s="4" t="s">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="B48" s="4" t="s">
-        <v>20</v>
+        <v>183</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="B49" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="B50" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="B51" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="B52" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>211</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="B52" s="4"/>
-      <c r="C52" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="B53" s="4"/>
       <c r="C53" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="B54" s="4"/>
       <c r="C54" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="B55" s="4"/>
       <c r="C55" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="B56" s="4"/>
       <c r="C56" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="B57" s="4"/>
       <c r="C57" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="30" customHeight="1">
       <c r="B58" s="4"/>
       <c r="C58" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="B59" s="4"/>
+      <c r="C59" s="6" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="B59" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="B60" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="B61" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C61" s="5" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="2" t="s">
+    <row r="62" spans="1:3">
+      <c r="A62" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C62" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="45">
-      <c r="A62" s="2" t="s">
+    <row r="63" spans="1:3" ht="45">
+      <c r="A63" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C63" s="14" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="B63" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="30" customHeight="1">
       <c r="B64" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="B65" s="4" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="B66" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="B67" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C67" s="5" t="s">
         <v>232</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="B69" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="B70" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>71</v>
+        <v>247</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="B71" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="B72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="B73" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C73" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="2" t="s">
+    <row r="74" spans="1:3">
+      <c r="A74" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B74" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C74" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="30">
-      <c r="A74" s="2" t="s">
+    <row r="75" spans="1:3" ht="30">
+      <c r="A75" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C75" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="B76" s="4" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="B75" s="10" t="s">
+      <c r="C76" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="B77" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C77" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="B78" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="B76" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -5346,7 +5414,7 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -5354,70 +5422,73 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="31.83203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="17" width="14.83203125" style="3" customWidth="1"/>
     <col min="18" max="18" width="10.33203125" style="3" customWidth="1"/>
     <col min="19" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1">
+    <row r="1" spans="1:15" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -5430,6 +5501,7 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -5450,19 +5522,19 @@
           <x14:formula1>
             <xm:f>Menus!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E1048576</xm:sqref>
+          <xm:sqref>E10:E1048576 F2:F9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Menus!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1048576</xm:sqref>
+          <xm:sqref>D10:D1048576 E2:E9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Menus!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B1048576</xm:sqref>
+          <xm:sqref>B10:B1048576 C2:C9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6529,7 +6601,7 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -6537,49 +6609,61 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="136.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="137" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" ht="15">
+      <c r="A1" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="3"/>
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2" s="20"/>
       <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:2" ht="15">
-      <c r="A3" s="3"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" s="20"/>
       <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:2" ht="15">
-      <c r="A4" s="3"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" ht="15">
+      <c r="A4" s="20"/>
       <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:2" ht="15">
-      <c r="A5" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="15">
+      <c r="A5" s="20"/>
       <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:2" ht="15">
-      <c r="A6" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="20"/>
       <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2" ht="15">
-      <c r="A7" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7" s="20"/>
       <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:2" ht="15">
-      <c r="A8" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" ht="15">
+      <c r="A8" s="20"/>
       <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:2" ht="15">
-      <c r="A9" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" ht="15">
+      <c r="A9" s="20"/>
       <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/templates/GEPXXXXX.xlsx
+++ b/data/templates/GEPXXXXX.xlsx
@@ -14,7 +14,7 @@
     <sheet name="Layout" sheetId="6" r:id="rId5"/>
     <sheet name="Plate" sheetId="7" r:id="rId6"/>
     <sheet name="GuideMismatches" sheetId="4" r:id="rId7"/>
-    <sheet name="DesireEditedSequences" sheetId="11" r:id="rId8"/>
+    <sheet name="TargetedSearch" sheetId="11" r:id="rId8"/>
     <sheet name="Menus" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -1136,13 +1136,45 @@
     <t>sequence</t>
   </si>
   <si>
-    <t>DesireEditedSequences</t>
-  </si>
-  <si>
     <t>The name of the sequence</t>
   </si>
   <si>
     <t>The sequence</t>
+  </si>
+  <si>
+    <t>amplicon_name</t>
+  </si>
+  <si>
+    <t>The name of the Amplicon. This name must be unique within this project.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This name must match </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Guide@guide_name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>This name must match</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Amplicon@amplicon_name</t>
+    </r>
+  </si>
+  <si>
+    <t>TargetedSearch</t>
   </si>
   <si>
     <r>
@@ -1154,7 +1186,7 @@
         <sz val="12"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>DesireEditedSequences</t>
+      <t>TargetedSearch</t>
     </r>
     <r>
       <rPr>
@@ -1162,38 +1194,6 @@
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> is the list of sequence to count the reads against. If not provided, all sequences above a certain threshold will be considered for counting the reads.   </t>
-    </r>
-  </si>
-  <si>
-    <t>amplicon_name</t>
-  </si>
-  <si>
-    <t>The name of the Amplicon. This name must be unique within this project.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This name must match </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Guide@guide_name</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>This name must match</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> Amplicon@amplicon_name</t>
     </r>
   </si>
 </sst>
@@ -1547,6 +1547,7 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1556,7 +1557,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="205">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1785,36 +1785,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2068,6 +2038,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -2528,6 +2511,23 @@
     <dxf>
       <font>
         <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -4051,58 +4051,58 @@
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Table42" displayName="Table42" ref="A1:M9" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
   <tableColumns count="13">
-    <tableColumn id="4" name="amplicon_name" dataDxfId="0"/>
-    <tableColumn id="1" name="guide_name" dataDxfId="59"/>
-    <tableColumn id="2" name="experiment_type" dataDxfId="58"/>
-    <tableColumn id="3" name="guide_location" dataDxfId="57"/>
-    <tableColumn id="5" name="is_on_target" dataDxfId="56"/>
-    <tableColumn id="6" name="dna_feature" dataDxfId="55"/>
-    <tableColumn id="7" name="chrom" dataDxfId="54"/>
-    <tableColumn id="8" name="forward_primer_sequence" dataDxfId="53"/>
-    <tableColumn id="9" name="forward_primer_start" dataDxfId="52"/>
-    <tableColumn id="10" name="forward_primer_end" dataDxfId="51"/>
-    <tableColumn id="11" name="reverse_primer_sequence" dataDxfId="50"/>
-    <tableColumn id="12" name="reverse_primer_start" dataDxfId="49"/>
-    <tableColumn id="13" name="reverse_primer_end" dataDxfId="48"/>
+    <tableColumn id="4" name="amplicon_name" dataDxfId="59"/>
+    <tableColumn id="1" name="guide_name" dataDxfId="58"/>
+    <tableColumn id="2" name="experiment_type" dataDxfId="57"/>
+    <tableColumn id="3" name="guide_location" dataDxfId="56"/>
+    <tableColumn id="5" name="is_on_target" dataDxfId="55"/>
+    <tableColumn id="6" name="dna_feature" dataDxfId="54"/>
+    <tableColumn id="7" name="chrom" dataDxfId="53"/>
+    <tableColumn id="8" name="forward_primer_sequence" dataDxfId="52"/>
+    <tableColumn id="9" name="forward_primer_start" dataDxfId="51"/>
+    <tableColumn id="10" name="forward_primer_end" dataDxfId="50"/>
+    <tableColumn id="11" name="reverse_primer_sequence" dataDxfId="49"/>
+    <tableColumn id="12" name="reverse_primer_start" dataDxfId="48"/>
+    <tableColumn id="13" name="reverse_primer_end" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table43" displayName="Table43" ref="N1:O9" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table43" displayName="Table43" ref="N1:O9" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
   <tableColumns count="2">
-    <tableColumn id="1" name="score" dataDxfId="45"/>
-    <tableColumn id="2" name="description" dataDxfId="44"/>
+    <tableColumn id="1" name="score" dataDxfId="44"/>
+    <tableColumn id="2" name="description" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Table44" displayName="Table44" ref="A1:C97" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Table44" displayName="Table44" ref="A1:C97" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <tableColumns count="3">
-    <tableColumn id="1" name="layout_id" dataDxfId="41"/>
-    <tableColumn id="2" name="well_position" dataDxfId="40"/>
-    <tableColumn id="13" name="sequencing_barcode" dataDxfId="39"/>
+    <tableColumn id="1" name="layout_id" dataDxfId="40"/>
+    <tableColumn id="2" name="well_position" dataDxfId="39"/>
+    <tableColumn id="13" name="sequencing_barcode" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Table46" displayName="Table46" ref="D1:M97" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Table46" displayName="Table46" ref="D1:M97" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <tableColumns count="10">
-    <tableColumn id="1" name="sequencing_sample_name" dataDxfId="36"/>
-    <tableColumn id="2" name="sequencing_dna_source" dataDxfId="35"/>
-    <tableColumn id="3" name="sequencing_library_type" dataDxfId="34"/>
-    <tableColumn id="4" name="sequencing_project_id" dataDxfId="33"/>
-    <tableColumn id="5" name="cell_line_name" dataDxfId="32"/>
-    <tableColumn id="6" name="cell_pool" dataDxfId="31"/>
-    <tableColumn id="7" name="clone_name" dataDxfId="30"/>
-    <tableColumn id="8" name="content_type" dataDxfId="29"/>
-    <tableColumn id="9" name="is_control" dataDxfId="28"/>
-    <tableColumn id="10" name="replicate_group" dataDxfId="27"/>
+    <tableColumn id="1" name="sequencing_sample_name" dataDxfId="35"/>
+    <tableColumn id="2" name="sequencing_dna_source" dataDxfId="34"/>
+    <tableColumn id="3" name="sequencing_library_type" dataDxfId="33"/>
+    <tableColumn id="4" name="sequencing_project_id" dataDxfId="32"/>
+    <tableColumn id="5" name="cell_line_name" dataDxfId="31"/>
+    <tableColumn id="6" name="cell_pool" dataDxfId="30"/>
+    <tableColumn id="7" name="clone_name" dataDxfId="29"/>
+    <tableColumn id="8" name="content_type" dataDxfId="28"/>
+    <tableColumn id="9" name="is_control" dataDxfId="27"/>
+    <tableColumn id="10" name="replicate_group" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4120,50 +4120,50 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="51" name="Table51" displayName="Table51" ref="A1:D10" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="51" name="Table51" displayName="Table51" ref="A1:D10" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <tableColumns count="4">
-    <tableColumn id="1" name="layout_id" dataDxfId="24"/>
-    <tableColumn id="2" name="plate_name" dataDxfId="23"/>
-    <tableColumn id="5" name="plate_barcode" dataDxfId="22"/>
-    <tableColumn id="4" name="plate_description" dataDxfId="21"/>
+    <tableColumn id="1" name="layout_id" dataDxfId="23"/>
+    <tableColumn id="2" name="plate_name" dataDxfId="22"/>
+    <tableColumn id="5" name="plate_barcode" dataDxfId="21"/>
+    <tableColumn id="4" name="plate_description" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="A1:D11" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="A1:D11" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <tableColumns count="4">
-    <tableColumn id="1" name="guide_name" dataDxfId="18"/>
-    <tableColumn id="2" name="is_off_target_coding_region" dataDxfId="17"/>
-    <tableColumn id="3" name="number_of_mismatches" dataDxfId="16"/>
-    <tableColumn id="4" name="number_of_off_targets" dataDxfId="15"/>
+    <tableColumn id="1" name="guide_name" dataDxfId="17"/>
+    <tableColumn id="2" name="is_off_target_coding_region" dataDxfId="16"/>
+    <tableColumn id="3" name="number_of_mismatches" dataDxfId="15"/>
+    <tableColumn id="4" name="number_of_off_targets" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A1:C9" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A1:C9" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <tableColumns count="3">
-    <tableColumn id="4" name="amplicon_name" dataDxfId="1" dataCellStyle="Normal"/>
-    <tableColumn id="1" name="sequence_name" dataDxfId="12" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="sequence" dataDxfId="11" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="amplicon_name" dataDxfId="11" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="sequence_name" dataDxfId="10" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="sequence" dataDxfId="9" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G9" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G9" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <tableColumns count="7">
-    <tableColumn id="1" name="target_genome" dataDxfId="8"/>
-    <tableColumn id="2" name="strand" dataDxfId="7"/>
-    <tableColumn id="3" name="dna_feature" dataDxfId="6"/>
-    <tableColumn id="4" name="is_true_or_false" dataDxfId="5"/>
-    <tableColumn id="5" name="experiment_type" dataDxfId="4"/>
-    <tableColumn id="6" name="content_type" dataDxfId="3"/>
-    <tableColumn id="7" name="sequencing_dna_source" dataDxfId="2"/>
+    <tableColumn id="1" name="target_genome" dataDxfId="6"/>
+    <tableColumn id="2" name="strand" dataDxfId="5"/>
+    <tableColumn id="3" name="dna_feature" dataDxfId="4"/>
+    <tableColumn id="4" name="is_true_or_false" dataDxfId="3"/>
+    <tableColumn id="5" name="experiment_type" dataDxfId="2"/>
+    <tableColumn id="6" name="content_type" dataDxfId="1"/>
+    <tableColumn id="7" name="sequencing_dna_source" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4586,25 +4586,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="32">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="20">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="18">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
@@ -4787,10 +4787,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="B25" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5148,7 +5148,7 @@
         <v>4</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -5188,18 +5188,18 @@
     </row>
     <row r="75" spans="1:3" ht="30">
       <c r="A75" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="B76" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -5207,7 +5207,7 @@
         <v>239</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -5215,7 +5215,7 @@
         <v>240</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -5443,7 +5443,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>4</v>
@@ -6483,7 +6483,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -6615,8 +6615,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15">
-      <c r="A1" s="20" t="s">
-        <v>245</v>
+      <c r="A1" s="17" t="s">
+        <v>243</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>239</v>
@@ -6626,42 +6626,42 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
-      <c r="A2" s="20"/>
+      <c r="A2" s="17"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" ht="15">
-      <c r="A3" s="20"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" ht="15">
-      <c r="A4" s="20"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" ht="15">
-      <c r="A5" s="20"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" ht="15">
-      <c r="A6" s="20"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" ht="15">
-      <c r="A7" s="20"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" ht="15">
-      <c r="A8" s="20"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" ht="15">
-      <c r="A9" s="20"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>

--- a/data/templates/GEPXXXXX.xlsx
+++ b/data/templates/GEPXXXXX.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="20" windowWidth="25600" windowHeight="16720" tabRatio="736"/>
+    <workbookView xWindow="1120" yWindow="0" windowWidth="25600" windowHeight="16720" tabRatio="736"/>
   </bookViews>
   <sheets>
     <sheet name="Help" sheetId="10" r:id="rId1"/>
@@ -1193,7 +1193,7 @@
         <sz val="12"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve"> is the list of sequence to count the reads against. If not provided, all sequences above a certain threshold will be considered for counting the reads.   </t>
+      <t xml:space="preserve"> is a list of sequences that the reads are counted against. If looking for particular gene edits, the desired edited sequences should be put in here. If no sequence is provided, the amplicon as identified by the provided primer sequences will be considered for counting reads.</t>
     </r>
   </si>
 </sst>
@@ -5186,7 +5186,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="30">
+    <row r="75" spans="1:3" ht="45">
       <c r="A75" s="2" t="s">
         <v>247</v>
       </c>

--- a/data/templates/GEPXXXXX.xlsx
+++ b/data/templates/GEPXXXXX.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="0" windowWidth="25600" windowHeight="16720" tabRatio="736"/>
+    <workbookView xWindow="1120" yWindow="0" windowWidth="25600" windowHeight="16720" tabRatio="736" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Help" sheetId="10" r:id="rId1"/>
@@ -194,15 +194,6 @@
     <t>Chromosome where the Target is located</t>
   </si>
   <si>
-    <t>Start location of the Target in the assembly</t>
-  </si>
-  <si>
-    <t>End location of the Target in the assembly</t>
-  </si>
-  <si>
-    <t>Strand location of the Target in the assembly either "forward" or "reverse"</t>
-  </si>
-  <si>
     <t>Nucleotide sequence of the guide, e.g. GAGATTATGAAACACCAAAG</t>
   </si>
   <si>
@@ -216,26 +207,6 @@
   </si>
   <si>
     <t>How many offtargets that contain x number of mismatches</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Amplicon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> is the DNA sequence amplified in PCR by a primer pair. All sequences and sequence locations input here must be in the forward DNA strand (including guide, forward and reverse primers)</t>
-    </r>
   </si>
   <si>
     <t>knock-in or knock-out</t>
@@ -759,33 +730,7 @@
     <t>Is this amplicon on-target or off-target? (TRUE/FALSE)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">The name of one of the guide defined in the Guide tab, it must match </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Guide@guide_name</t>
-    </r>
-  </si>
-  <si>
     <t>Name of the guide</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The name of one of the target defined in the Target tab, it must match one of </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Target@target_name</t>
-    </r>
   </si>
   <si>
     <t>The name of the Target. This name must be unique within this project.</t>
@@ -868,6 +813,405 @@
     </r>
   </si>
   <si>
+    <t>unique ID for a layout plate, e.g. plate_01</t>
+  </si>
+  <si>
+    <t>Layout</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[optional]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> The type of the sequencing library e.g. Fluidigm</t>
+    </r>
+  </si>
+  <si>
+    <t>The barcode identifier, e.g. FLD0193 which is part of the fastq file</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[optional]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> The sample name assigned at the time of submission</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[optional]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> The Sequencing project ID the NGS library was assigned to, e.g. SLX-13775</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[optional]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> The starting material used for library preparation, either of fixed cells, gDNA, non-fixed cells</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[optional]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Name of the parental cell line used to derive a clone (if any) to gene-edit, e.g MCF7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[optional]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Name of the parental cell line-derived clone. This is the source of cells used to gene-edit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[optional]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Is there a control in this well position? (TRUE/FALSE) Default set to False</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[optional]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Off-target score as provided by Deskgen (leave targets empty)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Plate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> collects information on the unique ID's and barcodes assigned to each plate over an experiment. A plate Layout (distribution of wells and associated information) for a plate is unique, and that Layout is associated to results from ICW, IncuCyte and NGS.</t>
+    </r>
+  </si>
+  <si>
+    <t>layout_geid</t>
+  </si>
+  <si>
+    <t>layout_id</t>
+  </si>
+  <si>
+    <t>plate_name</t>
+  </si>
+  <si>
+    <t>plate_description</t>
+  </si>
+  <si>
+    <t>The experimental plate name e.g. plate_01_incu, plate_01_ICW, plate_01_PCR, plate_01_NGS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[optional]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Any description that can be informative about the plate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[optional]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Unique barcode assigned to each individual plate, unique across all projects</t>
+    </r>
+  </si>
+  <si>
+    <t>NB. Orange tabs, tables and columns need to be filled, green ones are optionals.</t>
+  </si>
+  <si>
+    <t>is_true_or_false</t>
+  </si>
+  <si>
+    <t>GenEditID - Project Data and Layout Spreadsheet</t>
+  </si>
+  <si>
+    <t>Help to fill project's data and layout before uploading into the GenEditID Web App</t>
+  </si>
+  <si>
+    <t>knock-in</t>
+  </si>
+  <si>
+    <t>sequence_name</t>
+  </si>
+  <si>
+    <t>sequence</t>
+  </si>
+  <si>
+    <t>The name of the sequence</t>
+  </si>
+  <si>
+    <t>The sequence</t>
+  </si>
+  <si>
+    <t>amplicon_name</t>
+  </si>
+  <si>
+    <t>The name of the Amplicon. This name must be unique within this project.</t>
+  </si>
+  <si>
+    <t>TargetedSearch</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>TargetedSearch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> is a list of sequences that the reads are counted against. If looking for particular gene edits, the desired edited sequences should be put in here. If no sequence is provided, the amplicon as identified by the provided primer sequences will be considered for counting reads.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The name of one of the target defined in the Target tab, it must match one of </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>target_name@Target</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> tab</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The name of one of the guide defined in the Guide tab, it must match </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>guide_name@Guide</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> tab</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This ID must match </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>layout_id@Layout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> tab</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This name must match </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>guide_name@Guide</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> tab</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>This name must match</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> amplicon_name@Amplicon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> tab</t>
+    </r>
+  </si>
+  <si>
+    <t>Start location of the Target in the assembly as on reference genome</t>
+  </si>
+  <si>
+    <t>End location of the Target in the assembly as on reference genome</t>
+  </si>
+  <si>
+    <t>Strand location of the Target in the assembly either "forward" or "reverse" as on reference genome</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Amplicon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> is the DNA sequence amplified in PCR by a primer pair. All sequences and sequence locations input here must be in the forward DNA strand as on reference genome (including guide, forward and reverse primers)</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">The </t>
     </r>
@@ -884,316 +1228,7 @@
         <sz val="12"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve"> describes the way samples are arranged in the plate wells, so ultimately any result can be traced back to a single clone. Each plate in the layout gets a unique ID, so clones are defined by a combination of plate geid and well_position.</t>
-    </r>
-  </si>
-  <si>
-    <t>unique ID for a layout plate, e.g. plate_01</t>
-  </si>
-  <si>
-    <t>Layout</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>[optional]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> The type of the sequencing library e.g. Fluidigm</t>
-    </r>
-  </si>
-  <si>
-    <t>The barcode identifier, e.g. FLD0193 which is part of the fastq file</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>[optional]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> The sample name assigned at the time of submission</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>[optional]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> The Sequencing project ID the NGS library was assigned to, e.g. SLX-13775</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>[optional]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> The starting material used for library preparation, either of fixed cells, gDNA, non-fixed cells</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>[optional]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> Name of the parental cell line used to derive a clone (if any) to gene-edit, e.g MCF7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>[optional]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> Name of the parental cell line-derived clone. This is the source of cells used to gene-edit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>[optional]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> Is there a control in this well position? (TRUE/FALSE) Default set to False</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>[optional]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> Off-target score as provided by Deskgen (leave targets empty)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Plate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> collects information on the unique ID's and barcodes assigned to each plate over an experiment. A plate Layout (distribution of wells and associated information) for a plate is unique, and that Layout is associated to results from ICW, IncuCyte and NGS.</t>
-    </r>
-  </si>
-  <si>
-    <t>layout_geid</t>
-  </si>
-  <si>
-    <t>layout_id</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This ID must match </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Layout@layout_id</t>
-    </r>
-  </si>
-  <si>
-    <t>plate_name</t>
-  </si>
-  <si>
-    <t>plate_description</t>
-  </si>
-  <si>
-    <t>The experimental plate name e.g. plate_01_incu, plate_01_ICW, plate_01_PCR, plate_01_NGS</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>[optional]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> Any description that can be informative about the plate</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>[optional]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> Unique barcode assigned to each individual plate, unique across all projects</t>
-    </r>
-  </si>
-  <si>
-    <t>NB. Orange tabs, tables and columns need to be filled, green ones are optionals.</t>
-  </si>
-  <si>
-    <t>is_true_or_false</t>
-  </si>
-  <si>
-    <t>GenEditID - Project Data and Layout Spreadsheet</t>
-  </si>
-  <si>
-    <t>Help to fill project's data and layout before uploading into the GenEditID Web App</t>
-  </si>
-  <si>
-    <t>knock-in</t>
-  </si>
-  <si>
-    <t>sequence_name</t>
-  </si>
-  <si>
-    <t>sequence</t>
-  </si>
-  <si>
-    <t>The name of the sequence</t>
-  </si>
-  <si>
-    <t>The sequence</t>
-  </si>
-  <si>
-    <t>amplicon_name</t>
-  </si>
-  <si>
-    <t>The name of the Amplicon. This name must be unique within this project.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This name must match </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Guide@guide_name</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>This name must match</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> Amplicon@amplicon_name</t>
-    </r>
-  </si>
-  <si>
-    <t>TargetedSearch</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>TargetedSearch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> is a list of sequences that the reads are counted against. If looking for particular gene edits, the desired edited sequences should be put in here. If no sequence is provided, the amplicon as identified by the provided primer sequences will be considered for counting reads.</t>
+      <t xml:space="preserve"> describes the way samples are arranged in the plate wells, so ultimately any result can be traced back to a single clone. Each plate in the layout gets a unique ID, so clones are defined by a combination of plate layout_id and well_position.</t>
     </r>
   </si>
 </sst>
@@ -1320,7 +1355,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="205">
+  <cellStyleXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1364,6 +1399,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1558,7 +1595,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="205">
+  <cellStyles count="207">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1660,6 +1697,7 @@
     <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="42" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -1762,6 +1800,7 @@
     <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="41" builtinId="15"/>
   </cellStyles>
@@ -4573,7 +4612,7 @@
   </sheetPr>
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
@@ -4587,31 +4626,31 @@
   <sheetData>
     <row r="1" spans="1:3" ht="32">
       <c r="A1" s="18" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="20">
       <c r="A2" s="19" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="18">
       <c r="A3" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>52</v>
@@ -4622,7 +4661,7 @@
         <v>48</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4630,28 +4669,28 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>53</v>
@@ -4659,43 +4698,43 @@
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>54</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>55</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>56</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15">
       <c r="A13" s="12"/>
       <c r="B13" s="12" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>52</v>
@@ -4707,7 +4746,7 @@
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="11" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4715,7 +4754,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4723,7 +4762,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4731,47 +4770,47 @@
         <v>3</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="B22" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>52</v>
@@ -4779,18 +4818,18 @@
     </row>
     <row r="24" spans="1:3" ht="30">
       <c r="A24" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>62</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="B25" s="4" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4798,7 +4837,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4806,7 +4845,7 @@
         <v>8</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4814,7 +4853,7 @@
         <v>9</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4822,7 +4861,7 @@
         <v>11</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -4830,15 +4869,15 @@
         <v>12</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="B31" s="4" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4846,7 +4885,7 @@
         <v>13</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4854,7 +4893,7 @@
         <v>14</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -4862,7 +4901,7 @@
         <v>15</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="9" customFormat="1">
@@ -4871,7 +4910,7 @@
         <v>16</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -4879,7 +4918,7 @@
         <v>17</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -4887,7 +4926,7 @@
         <v>18</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15">
@@ -4896,7 +4935,7 @@
         <v>10</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15">
@@ -4905,15 +4944,15 @@
         <v>0</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>52</v>
@@ -4921,18 +4960,18 @@
     </row>
     <row r="41" spans="1:3" ht="30">
       <c r="A41" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="B42" s="4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -4940,7 +4979,7 @@
         <v>19</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -4948,23 +4987,23 @@
         <v>27</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="B45" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="B46" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -4972,15 +5011,15 @@
         <v>28</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="B48" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -4988,7 +5027,7 @@
         <v>20</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -4996,7 +5035,7 @@
         <v>22</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -5004,7 +5043,7 @@
         <v>21</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -5012,49 +5051,49 @@
         <v>25</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="B53" s="4"/>
       <c r="C53" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="B54" s="4"/>
       <c r="C54" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="B55" s="4"/>
       <c r="C55" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="B56" s="4"/>
       <c r="C56" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="B57" s="4"/>
       <c r="C57" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="30" customHeight="1">
       <c r="B58" s="4"/>
       <c r="C58" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="B59" s="4"/>
       <c r="C59" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -5062,7 +5101,7 @@
         <v>24</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -5070,15 +5109,15 @@
         <v>23</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>52</v>
@@ -5089,23 +5128,23 @@
         <v>51</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="30" customHeight="1">
       <c r="B64" s="4" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="B65" s="4" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -5113,23 +5152,23 @@
         <v>26</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="B67" s="4" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>52</v>
@@ -5140,7 +5179,7 @@
         <v>50</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -5148,7 +5187,7 @@
         <v>4</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -5156,7 +5195,7 @@
         <v>5</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -5164,7 +5203,7 @@
         <v>6</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -5172,15 +5211,15 @@
         <v>7</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>52</v>
@@ -5188,34 +5227,34 @@
     </row>
     <row r="75" spans="1:3" ht="45">
       <c r="A75" s="2" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="B76" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="B77" s="10" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="B78" s="10" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -5255,7 +5294,7 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5278,25 +5317,25 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>189</v>
-      </c>
       <c r="H1" s="10" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5378,16 +5417,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -5443,7 +5482,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>4</v>
@@ -5461,7 +5500,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>13</v>
@@ -5576,7 +5615,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>19</v>
@@ -5588,13 +5627,13 @@
         <v>28</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>20</v>
@@ -5617,770 +5656,770 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -6445,16 +6484,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -6616,13 +6655,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15">
       <c r="A1" s="17" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
@@ -6705,7 +6744,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -6714,7 +6753,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>8</v>
@@ -6723,7 +6762,7 @@
         <v>25</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -6763,7 +6802,7 @@
         <v>37</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>29</v>
@@ -6788,7 +6827,7 @@
         <v>40</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:8">

--- a/data/templates/GEPXXXXX.xlsx
+++ b/data/templates/GEPXXXXX.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="0" windowWidth="25600" windowHeight="16720" tabRatio="736" activeTab="1"/>
+    <workbookView xWindow="1120" yWindow="0" windowWidth="25600" windowHeight="16720" tabRatio="736"/>
   </bookViews>
   <sheets>
     <sheet name="Help" sheetId="10" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="251">
   <si>
     <t>description</t>
   </si>
@@ -1231,12 +1231,32 @@
       <t xml:space="preserve"> describes the way samples are arranged in the plate wells, so ultimately any result can be traced back to a single clone. Each plate in the layout gets a unique ID, so clones are defined by a combination of plate layout_id and well_position.</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[optional]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Is the orientation of the amplicon match the NCBI whole genome reference sequence (RefSeq)? (TRUE/FALSE) Default set to True. Please consult the schematic drawing on the amplicon tab for more details.</t>
+    </r>
+  </si>
+  <si>
+    <t>refseq_orientation_match</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1328,6 +1348,12 @@
       <name val="Cambria"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1337,7 +1363,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1354,8 +1380,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9BBB59"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9BBB59"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9BBB59"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF9BBB59"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="207">
+  <cellStyleXfs count="249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1563,8 +1604,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1585,6 +1668,7 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1595,7 +1679,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="207">
+  <cellStyles count="249">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1698,6 +1782,27 @@
     <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="42" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -1801,10 +1906,31 @@
     <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="41" builtinId="15"/>
   </cellStyles>
-  <dxfs count="130">
+  <dxfs count="131">
     <dxf>
       <font>
         <b val="0"/>
@@ -2482,6 +2608,23 @@
     <dxf>
       <font>
         <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -3963,20 +4106,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>843922</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1079500</xdr:colOff>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Picture 51" descr="amplicon.pptx.jpg"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="amplicon.pptx.v2.f.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3989,13 +4132,56 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="14372" t="18488" r="13531" b="23692"/>
+        <a:srcRect l="13778" t="19161" r="12462" b="15625"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3009900" y="1866900"/>
-          <a:ext cx="10330822" cy="5854700"/>
+          <a:off x="431800" y="2616200"/>
+          <a:ext cx="7886700" cy="4927600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1231900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="amplicon.pptx.v2.r.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="14847" t="18657" r="12937" b="13944"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8470900" y="2590800"/>
+          <a:ext cx="7721600" cy="5092700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4010,9 +4196,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:C12" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="129"/>
-    <tableColumn id="2" name="Column names" dataDxfId="128"/>
-    <tableColumn id="3" name="Description" dataDxfId="127"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="130"/>
+    <tableColumn id="2" name="Column names" dataDxfId="129"/>
+    <tableColumn id="3" name="Description" dataDxfId="128"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4021,98 +4207,99 @@
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="50" name="Table50" displayName="Table50" ref="A13:C13" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="92" dataDxfId="91"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="90" dataDxfId="89"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="88" dataDxfId="87"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="93" dataDxfId="92"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="91" dataDxfId="90"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="89" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A74:C78" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A75:C79" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="86"/>
-    <tableColumn id="2" name="Column names" dataDxfId="85"/>
-    <tableColumn id="3" name="Description" dataDxfId="84"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="87"/>
+    <tableColumn id="2" name="Column names" dataDxfId="86"/>
+    <tableColumn id="3" name="Description" dataDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="A1:G10" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="A1:G10" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
   <tableColumns count="7">
-    <tableColumn id="1" name="target_name" dataDxfId="81"/>
-    <tableColumn id="2" name="target_genome" dataDxfId="80"/>
-    <tableColumn id="3" name="target_gene_id" dataDxfId="79"/>
-    <tableColumn id="4" name="target_chrom" dataDxfId="78"/>
-    <tableColumn id="5" name="target_start" dataDxfId="77"/>
-    <tableColumn id="6" name="target_end" dataDxfId="76"/>
-    <tableColumn id="7" name="target_strand" dataDxfId="75"/>
+    <tableColumn id="1" name="target_name" dataDxfId="82"/>
+    <tableColumn id="2" name="target_genome" dataDxfId="81"/>
+    <tableColumn id="3" name="target_gene_id" dataDxfId="80"/>
+    <tableColumn id="4" name="target_chrom" dataDxfId="79"/>
+    <tableColumn id="5" name="target_start" dataDxfId="78"/>
+    <tableColumn id="6" name="target_end" dataDxfId="77"/>
+    <tableColumn id="7" name="target_strand" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table37" displayName="Table37" ref="H1:H10" totalsRowShown="0" dataDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table37" displayName="Table37" ref="H1:H10" totalsRowShown="0" dataDxfId="75">
   <tableColumns count="1">
-    <tableColumn id="1" name="target_description" dataDxfId="73"/>
+    <tableColumn id="1" name="target_description" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="A1:C10" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="A1:C10" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
   <tableColumns count="3">
-    <tableColumn id="1" name="target_name" dataDxfId="70"/>
-    <tableColumn id="2" name="guide_name" dataDxfId="69"/>
-    <tableColumn id="3" name="guide_sequence" dataDxfId="68"/>
+    <tableColumn id="1" name="target_name" dataDxfId="71"/>
+    <tableColumn id="2" name="guide_name" dataDxfId="70"/>
+    <tableColumn id="3" name="guide_sequence" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Table41" displayName="Table41" ref="D1:G10" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Table41" displayName="Table41" ref="D1:G10" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
   <tableColumns count="4">
-    <tableColumn id="1" name="guide_pam_sequence" dataDxfId="65"/>
-    <tableColumn id="2" name="guide_activity" dataDxfId="64"/>
-    <tableColumn id="3" name="guide_exon" dataDxfId="63"/>
-    <tableColumn id="4" name="guide_nuclease" dataDxfId="62"/>
+    <tableColumn id="1" name="guide_pam_sequence" dataDxfId="66"/>
+    <tableColumn id="2" name="guide_activity" dataDxfId="65"/>
+    <tableColumn id="3" name="guide_exon" dataDxfId="64"/>
+    <tableColumn id="4" name="guide_nuclease" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Table42" displayName="Table42" ref="A1:M9" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Table42" displayName="Table42" ref="A1:M9" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
   <tableColumns count="13">
-    <tableColumn id="4" name="amplicon_name" dataDxfId="59"/>
-    <tableColumn id="1" name="guide_name" dataDxfId="58"/>
-    <tableColumn id="2" name="experiment_type" dataDxfId="57"/>
-    <tableColumn id="3" name="guide_location" dataDxfId="56"/>
-    <tableColumn id="5" name="is_on_target" dataDxfId="55"/>
-    <tableColumn id="6" name="dna_feature" dataDxfId="54"/>
-    <tableColumn id="7" name="chrom" dataDxfId="53"/>
-    <tableColumn id="8" name="forward_primer_sequence" dataDxfId="52"/>
-    <tableColumn id="9" name="forward_primer_start" dataDxfId="51"/>
-    <tableColumn id="10" name="forward_primer_end" dataDxfId="50"/>
-    <tableColumn id="11" name="reverse_primer_sequence" dataDxfId="49"/>
-    <tableColumn id="12" name="reverse_primer_start" dataDxfId="48"/>
-    <tableColumn id="13" name="reverse_primer_end" dataDxfId="47"/>
+    <tableColumn id="4" name="amplicon_name" dataDxfId="60"/>
+    <tableColumn id="1" name="guide_name" dataDxfId="59"/>
+    <tableColumn id="2" name="experiment_type" dataDxfId="58"/>
+    <tableColumn id="3" name="guide_location" dataDxfId="57"/>
+    <tableColumn id="5" name="is_on_target" dataDxfId="56"/>
+    <tableColumn id="6" name="dna_feature" dataDxfId="55"/>
+    <tableColumn id="7" name="chrom" dataDxfId="54"/>
+    <tableColumn id="8" name="forward_primer_sequence" dataDxfId="53"/>
+    <tableColumn id="9" name="forward_primer_start" dataDxfId="52"/>
+    <tableColumn id="10" name="forward_primer_end" dataDxfId="51"/>
+    <tableColumn id="11" name="reverse_primer_sequence" dataDxfId="50"/>
+    <tableColumn id="12" name="reverse_primer_start" dataDxfId="49"/>
+    <tableColumn id="13" name="reverse_primer_end" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table43" displayName="Table43" ref="N1:O9" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
-  <tableColumns count="2">
-    <tableColumn id="1" name="score" dataDxfId="44"/>
-    <tableColumn id="2" name="description" dataDxfId="43"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table43" displayName="Table43" ref="N1:P9" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+  <tableColumns count="3">
+    <tableColumn id="1" name="refseq_orientation_match" dataDxfId="45"/>
+    <tableColumn id="2" name="score" dataDxfId="44"/>
+    <tableColumn id="3" name="description" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4150,9 +4337,9 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A14:C18" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="126"/>
-    <tableColumn id="2" name="Column names" dataDxfId="125"/>
-    <tableColumn id="3" name="Description" dataDxfId="124"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="127"/>
+    <tableColumn id="2" name="Column names" dataDxfId="126"/>
+    <tableColumn id="3" name="Description" dataDxfId="125"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4209,11 +4396,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A68:C73" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A69:C74" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="123"/>
-    <tableColumn id="2" name="Column names" dataDxfId="122"/>
-    <tableColumn id="3" name="Description" dataDxfId="121"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="124"/>
+    <tableColumn id="2" name="Column names" dataDxfId="123"/>
+    <tableColumn id="3" name="Description" dataDxfId="122"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4222,53 +4409,53 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A23:C37" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="120"/>
-    <tableColumn id="2" name="Column names" dataDxfId="119"/>
-    <tableColumn id="3" name="Description" dataDxfId="118"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="121"/>
+    <tableColumn id="2" name="Column names" dataDxfId="120"/>
+    <tableColumn id="3" name="Description" dataDxfId="119"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A40:C44" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A41:C45" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="117"/>
-    <tableColumn id="2" name="Column names" dataDxfId="116"/>
-    <tableColumn id="3" name="Description" dataDxfId="115"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="118"/>
+    <tableColumn id="2" name="Column names" dataDxfId="117"/>
+    <tableColumn id="3" name="Description" dataDxfId="116"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A62:C67" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A63:C68" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="114"/>
-    <tableColumn id="2" name="Column names" dataDxfId="113"/>
-    <tableColumn id="3" name="Description" dataDxfId="112"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="115"/>
+    <tableColumn id="2" name="Column names" dataDxfId="114"/>
+    <tableColumn id="3" name="Description" dataDxfId="113"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="Table47" displayName="Table47" ref="A45:C61" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="Table47" displayName="Table47" ref="A46:C62" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="111" dataDxfId="110"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="109" dataDxfId="108"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="107" dataDxfId="106"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="112" dataDxfId="111"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="110" dataDxfId="109"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="108" dataDxfId="107"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="Table48" displayName="Table48" ref="A38:C39" headerRowCount="0" totalsRowShown="0" dataDxfId="105" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="Table48" displayName="Table48" ref="A38:C40" headerRowCount="0" totalsRowShown="0" dataDxfId="106" dataCellStyle="Normal">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="104" dataDxfId="103" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="102" dataDxfId="101" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="100" dataDxfId="99" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="105" dataDxfId="104" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="103" dataDxfId="102" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="101" dataDxfId="100" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4277,9 +4464,9 @@
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="Table49" displayName="Table49" ref="A19:C22" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="98" dataDxfId="97"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="96" dataDxfId="95"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="94" dataDxfId="93"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="99" dataDxfId="98"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="97" dataDxfId="96"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="95" dataDxfId="94"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4610,9 +4797,9 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
@@ -4625,25 +4812,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="32">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="20">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:3" ht="18">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
@@ -4932,328 +5119,337 @@
     <row r="38" spans="1:3" ht="15">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15">
+      <c r="A40" s="3"/>
+      <c r="B40" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2" t="s">
+    <row r="41" spans="1:3">
+      <c r="A41" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30">
-      <c r="A41" s="2" t="s">
+    <row r="42" spans="1:3" ht="30">
+      <c r="A42" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C42" s="14" t="s">
         <v>248</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="B42" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="B43" s="4" t="s">
-        <v>19</v>
+        <v>220</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>66</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="B44" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>210</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="B45" s="4" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="B46" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="B47" s="4" t="s">
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="B48" s="4" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="B49" s="4" t="s">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="B50" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="B51" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="B52" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="B53" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C53" s="5" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="B53" s="4"/>
-      <c r="C53" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="B54" s="4"/>
       <c r="C54" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="B55" s="4"/>
       <c r="C55" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="B56" s="4"/>
       <c r="C56" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="B57" s="4"/>
       <c r="C57" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="30" customHeight="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="B58" s="4"/>
       <c r="C58" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="B59" s="4"/>
       <c r="C59" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="B60" s="4"/>
+      <c r="C60" s="6" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="B60" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="B61" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="B62" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C62" s="5" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="2" t="s">
+    <row r="63" spans="1:3">
+      <c r="A63" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C63" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="45">
-      <c r="A63" s="2" t="s">
+    <row r="64" spans="1:3" ht="45">
+      <c r="A64" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C64" s="14" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="30" customHeight="1">
-      <c r="B64" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="B65" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="B66" s="4" t="s">
-        <v>26</v>
+        <v>221</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="B67" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="B68" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C68" s="5" t="s">
         <v>224</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C70" s="5" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="B70" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="B71" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="B72" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="B73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="B74" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C74" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="2" t="s">
+    <row r="75" spans="1:3">
+      <c r="A75" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B75" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C75" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="45">
-      <c r="A75" s="2" t="s">
+    <row r="76" spans="1:3" ht="45">
+      <c r="A76" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C76" s="14" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="B76" s="4" t="s">
+    <row r="77" spans="1:3">
+      <c r="B77" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C77" s="5" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="B77" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="B78" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="B79" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C79" s="5" t="s">
         <v>234</v>
       </c>
     </row>
@@ -5294,7 +5490,7 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5453,7 +5649,7 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -5474,13 +5670,14 @@
     <col min="11" max="11" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="14.83203125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="25.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.83203125" style="3" customWidth="1"/>
     <col min="18" max="18" width="10.33203125" style="3" customWidth="1"/>
     <col min="19" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="16" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>235</v>
       </c>
@@ -5521,18 +5718,20 @@
         <v>18</v>
       </c>
       <c r="N1" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="O1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -5567,7 +5766,7 @@
           <x14:formula1>
             <xm:f>Menus!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D10:D1048576 E2:E9</xm:sqref>
+          <xm:sqref>D10:D1048576 E2:E9 N2:N9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -6726,7 +6925,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/data/templates/GEPXXXXX.xlsx
+++ b/data/templates/GEPXXXXX.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="0" windowWidth="25600" windowHeight="16720" tabRatio="736"/>
+    <workbookView xWindow="1120" yWindow="0" windowWidth="26920" windowHeight="17500" tabRatio="736"/>
   </bookViews>
   <sheets>
     <sheet name="Help" sheetId="10" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="250">
   <si>
     <t>description</t>
   </si>
@@ -171,9 +171,6 @@
   </si>
   <si>
     <t>non-fixed cells</t>
-  </si>
-  <si>
-    <t>Mus musculus [GRCm38]</t>
   </si>
   <si>
     <t>Target</t>
@@ -4107,15 +4104,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1079500</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4137,7 +4134,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="431800" y="2616200"/>
+          <a:off x="76200" y="2476500"/>
           <a:ext cx="7886700" cy="4927600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4150,15 +4147,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1231900</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1422400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4180,7 +4177,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8470900" y="2590800"/>
+          <a:off x="8115300" y="2451100"/>
           <a:ext cx="7721600" cy="5092700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4813,42 +4810,42 @@
   <sheetData>
     <row r="1" spans="1:3" ht="32">
       <c r="A1" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="20">
       <c r="A2" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:3" ht="18">
       <c r="A3" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="7" customFormat="1" ht="30" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4856,84 +4853,84 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15">
       <c r="A13" s="12"/>
       <c r="B13" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4941,7 +4938,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4949,7 +4946,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4957,66 +4954,66 @@
         <v>3</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="B22" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30">
       <c r="A24" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="B25" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5024,7 +5021,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5032,7 +5029,7 @@
         <v>8</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -5040,7 +5037,7 @@
         <v>9</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -5048,7 +5045,7 @@
         <v>11</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5056,15 +5053,15 @@
         <v>12</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="B31" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -5072,7 +5069,7 @@
         <v>13</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -5080,7 +5077,7 @@
         <v>14</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -5088,7 +5085,7 @@
         <v>15</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="9" customFormat="1">
@@ -5097,7 +5094,7 @@
         <v>16</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -5105,7 +5102,7 @@
         <v>17</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -5113,16 +5110,16 @@
         <v>18</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15">
@@ -5131,7 +5128,7 @@
         <v>10</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15">
@@ -5140,34 +5137,34 @@
         <v>0</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30">
       <c r="A42" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="B43" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -5175,7 +5172,7 @@
         <v>19</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -5183,23 +5180,23 @@
         <v>27</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="B46" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="B47" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -5207,15 +5204,15 @@
         <v>28</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="B49" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -5223,7 +5220,7 @@
         <v>20</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -5231,7 +5228,7 @@
         <v>22</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -5239,7 +5236,7 @@
         <v>21</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -5247,49 +5244,49 @@
         <v>25</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="B54" s="4"/>
       <c r="C54" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="B55" s="4"/>
       <c r="C55" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="B56" s="4"/>
       <c r="C56" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="B57" s="4"/>
       <c r="C57" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="B58" s="4"/>
       <c r="C58" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="B59" s="4"/>
       <c r="C59" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="B60" s="4"/>
       <c r="C60" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -5297,7 +5294,7 @@
         <v>24</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -5305,42 +5302,42 @@
         <v>23</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="45">
       <c r="A64" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="B65" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="B66" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -5348,34 +5345,34 @@
         <v>26</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="B68" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -5383,7 +5380,7 @@
         <v>4</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -5391,7 +5388,7 @@
         <v>5</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -5399,7 +5396,7 @@
         <v>6</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -5407,50 +5404,50 @@
         <v>7</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="45">
       <c r="A76" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C76" s="14" t="s">
         <v>237</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="B77" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="B78" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="B79" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -5513,25 +5510,25 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="H1" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5557,7 +5554,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Menus!$B$2:$B$3</xm:f>
@@ -5568,7 +5565,13 @@
           <x14:formula1>
             <xm:f>Menus!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B1048576</xm:sqref>
+          <xm:sqref>B11:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Menus!$A$2:$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5613,16 +5616,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -5679,7 +5682,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="16" thickBot="1">
       <c r="A1" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>4</v>
@@ -5697,7 +5700,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>13</v>
@@ -5718,7 +5721,7 @@
         <v>18</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O1" s="18" t="s">
         <v>10</v>
@@ -5791,7 +5794,7 @@
   <dimension ref="A1:M97"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5814,7 +5817,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>19</v>
@@ -5826,13 +5829,13 @@
         <v>28</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>20</v>
@@ -5855,770 +5858,770 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -6683,16 +6686,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>221</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -6854,13 +6857,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15">
       <c r="A1" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
@@ -6943,7 +6946,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -6952,7 +6955,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>8</v>
@@ -6961,7 +6964,7 @@
         <v>25</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -6988,9 +6991,6 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="B3" s="3" t="s">
         <v>32</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>37</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>29</v>
@@ -7026,7 +7026,7 @@
         <v>40</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:8">

--- a/data/templates/GEPXXXXX.xlsx
+++ b/data/templates/GEPXXXXX.xlsx
@@ -5794,7 +5794,7 @@
   <dimension ref="A1:M97"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/data/templates/GEPXXXXX.xlsx
+++ b/data/templates/GEPXXXXX.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="254">
   <si>
     <t>description</t>
   </si>
@@ -1248,12 +1248,24 @@
   <si>
     <t>refseq_orientation_match</t>
   </si>
+  <si>
+    <t>Mus musculus [GRCm39]</t>
+  </si>
+  <si>
+    <t>Rattus norvegicus [mRatBN7]</t>
+  </si>
+  <si>
+    <t>Danio rerio [GRCz11]</t>
+  </si>
+  <si>
+    <t>Drosophila melanogaster [BDGP6]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1351,16 +1363,27 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE6F1"/>
+        <bgColor rgb="FFDCE6F1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1392,6 +1415,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF4F81BD"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF4F81BD"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF4F81BD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF4F81BD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1644,7 +1682,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1675,6 +1713,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="249">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4797,7 +4837,7 @@
   <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -5569,7 +5609,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Menus!$A$2:$A$2</xm:f>
+            <xm:f>Menus!$A$2:$A$6</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B10</xm:sqref>
         </x14:dataValidation>
@@ -6927,13 +6967,11 @@
   </sheetPr>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="3"/>
     <col min="3" max="3" width="15.1640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" style="3" bestFit="1" customWidth="1"/>
@@ -6968,7 +7006,7 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -6991,6 +7029,9 @@
       </c>
     </row>
     <row r="3" spans="1:8">
+      <c r="A3" s="23" t="s">
+        <v>250</v>
+      </c>
       <c r="B3" s="3" t="s">
         <v>32</v>
       </c>
@@ -7011,6 +7052,9 @@
       </c>
     </row>
     <row r="4" spans="1:8">
+      <c r="A4" s="22" t="s">
+        <v>251</v>
+      </c>
       <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
@@ -7022,6 +7066,9 @@
       </c>
     </row>
     <row r="5" spans="1:8">
+      <c r="A5" s="23" t="s">
+        <v>252</v>
+      </c>
       <c r="F5" s="3" t="s">
         <v>40</v>
       </c>
@@ -7030,6 +7077,9 @@
       </c>
     </row>
     <row r="6" spans="1:8">
+      <c r="A6" s="22" t="s">
+        <v>253</v>
+      </c>
       <c r="F6" s="3" t="s">
         <v>41</v>
       </c>
